--- a/Data_file/product_category_import.xlsx
+++ b/Data_file/product_category_import.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="710">
   <si>
     <t>product_category_import</t>
   </si>
@@ -1037,6 +1037,9 @@
   </si>
   <si>
     <t>แป้งย้อม</t>
+  </si>
+  <si>
+    <t>แลคเกอร์</t>
   </si>
   <si>
     <t>ตัวเร่ง</t>
@@ -3282,7 +3285,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -18227,7 +18230,7 @@
         <v>346</v>
       </c>
       <c r="B394" t="s" s="4">
-        <v>262</v>
+        <v>339</v>
       </c>
       <c r="C394" t="s" s="2">
         <v>7</v>
@@ -18265,7 +18268,7 @@
         <v>347</v>
       </c>
       <c r="B395" t="s" s="4">
-        <v>346</v>
+        <v>262</v>
       </c>
       <c r="C395" t="s" s="2">
         <v>7</v>
@@ -18303,7 +18306,7 @@
         <v>348</v>
       </c>
       <c r="B396" t="s" s="4">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C396" t="s" s="2">
         <v>7</v>
@@ -18341,7 +18344,7 @@
         <v>349</v>
       </c>
       <c r="B397" t="s" s="4">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C397" t="s" s="2">
         <v>7</v>
@@ -18379,7 +18382,7 @@
         <v>350</v>
       </c>
       <c r="B398" t="s" s="4">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C398" t="s" s="2">
         <v>7</v>
@@ -18417,7 +18420,7 @@
         <v>351</v>
       </c>
       <c r="B399" t="s" s="4">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C399" t="s" s="2">
         <v>7</v>
@@ -18455,7 +18458,7 @@
         <v>352</v>
       </c>
       <c r="B400" t="s" s="4">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C400" t="s" s="2">
         <v>7</v>
@@ -18493,7 +18496,7 @@
         <v>353</v>
       </c>
       <c r="B401" t="s" s="4">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C401" t="s" s="2">
         <v>7</v>
@@ -18531,7 +18534,7 @@
         <v>354</v>
       </c>
       <c r="B402" t="s" s="4">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C402" t="s" s="2">
         <v>7</v>
@@ -18569,7 +18572,7 @@
         <v>355</v>
       </c>
       <c r="B403" t="s" s="4">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C403" t="s" s="2">
         <v>7</v>
@@ -18607,7 +18610,7 @@
         <v>356</v>
       </c>
       <c r="B404" t="s" s="4">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C404" t="s" s="2">
         <v>7</v>
@@ -18645,7 +18648,7 @@
         <v>357</v>
       </c>
       <c r="B405" t="s" s="4">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C405" t="s" s="2">
         <v>7</v>
@@ -18683,7 +18686,7 @@
         <v>358</v>
       </c>
       <c r="B406" t="s" s="4">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C406" t="s" s="2">
         <v>7</v>
@@ -18721,7 +18724,7 @@
         <v>359</v>
       </c>
       <c r="B407" t="s" s="4">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C407" t="s" s="2">
         <v>7</v>
@@ -18759,7 +18762,7 @@
         <v>360</v>
       </c>
       <c r="B408" t="s" s="4">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C408" t="s" s="2">
         <v>7</v>
@@ -18797,7 +18800,7 @@
         <v>361</v>
       </c>
       <c r="B409" t="s" s="4">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C409" t="s" s="2">
         <v>7</v>
@@ -18835,7 +18838,7 @@
         <v>362</v>
       </c>
       <c r="B410" t="s" s="4">
-        <v>262</v>
+        <v>347</v>
       </c>
       <c r="C410" t="s" s="2">
         <v>7</v>
@@ -18873,7 +18876,7 @@
         <v>363</v>
       </c>
       <c r="B411" t="s" s="4">
-        <v>362</v>
+        <v>262</v>
       </c>
       <c r="C411" t="s" s="2">
         <v>7</v>
@@ -18911,7 +18914,7 @@
         <v>364</v>
       </c>
       <c r="B412" t="s" s="4">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="C412" t="s" s="2">
         <v>7</v>
@@ -18946,10 +18949,10 @@
     </row>
     <row r="413" ht="19.5" customHeight="1">
       <c r="A413" t="s" s="4">
-        <v>286</v>
+        <v>365</v>
       </c>
       <c r="B413" t="s" s="4">
-        <v>364</v>
+        <v>262</v>
       </c>
       <c r="C413" t="s" s="2">
         <v>7</v>
@@ -18984,10 +18987,10 @@
     </row>
     <row r="414" ht="19.5" customHeight="1">
       <c r="A414" t="s" s="4">
+        <v>286</v>
+      </c>
+      <c r="B414" t="s" s="4">
         <v>365</v>
-      </c>
-      <c r="B414" t="s" s="4">
-        <v>364</v>
       </c>
       <c r="C414" t="s" s="2">
         <v>7</v>
@@ -19025,7 +19028,7 @@
         <v>366</v>
       </c>
       <c r="B415" t="s" s="4">
-        <v>262</v>
+        <v>365</v>
       </c>
       <c r="C415" t="s" s="2">
         <v>7</v>
@@ -19063,7 +19066,7 @@
         <v>367</v>
       </c>
       <c r="B416" t="s" s="4">
-        <v>366</v>
+        <v>262</v>
       </c>
       <c r="C416" t="s" s="2">
         <v>7</v>
@@ -19101,7 +19104,7 @@
         <v>368</v>
       </c>
       <c r="B417" t="s" s="4">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C417" t="s" s="2">
         <v>7</v>
@@ -19139,7 +19142,7 @@
         <v>369</v>
       </c>
       <c r="B418" t="s" s="4">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C418" t="s" s="2">
         <v>7</v>
@@ -19177,7 +19180,7 @@
         <v>370</v>
       </c>
       <c r="B419" t="s" s="4">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C419" t="s" s="2">
         <v>7</v>
@@ -19215,7 +19218,7 @@
         <v>371</v>
       </c>
       <c r="B420" t="s" s="4">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C420" t="s" s="2">
         <v>7</v>
@@ -19253,7 +19256,7 @@
         <v>372</v>
       </c>
       <c r="B421" t="s" s="4">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C421" t="s" s="2">
         <v>7</v>
@@ -19291,7 +19294,7 @@
         <v>373</v>
       </c>
       <c r="B422" t="s" s="4">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C422" t="s" s="2">
         <v>7</v>
@@ -19329,7 +19332,7 @@
         <v>374</v>
       </c>
       <c r="B423" t="s" s="4">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C423" t="s" s="2">
         <v>7</v>
@@ -19367,7 +19370,7 @@
         <v>375</v>
       </c>
       <c r="B424" t="s" s="4">
-        <v>262</v>
+        <v>367</v>
       </c>
       <c r="C424" t="s" s="2">
         <v>7</v>
@@ -19405,7 +19408,7 @@
         <v>376</v>
       </c>
       <c r="B425" t="s" s="4">
-        <v>375</v>
+        <v>262</v>
       </c>
       <c r="C425" t="s" s="2">
         <v>7</v>
@@ -19443,7 +19446,7 @@
         <v>377</v>
       </c>
       <c r="B426" t="s" s="4">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C426" t="s" s="2">
         <v>7</v>
@@ -19481,7 +19484,7 @@
         <v>378</v>
       </c>
       <c r="B427" t="s" s="4">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C427" t="s" s="2">
         <v>7</v>
@@ -19519,7 +19522,7 @@
         <v>379</v>
       </c>
       <c r="B428" t="s" s="4">
-        <v>262</v>
+        <v>376</v>
       </c>
       <c r="C428" t="s" s="2">
         <v>7</v>
@@ -19557,7 +19560,7 @@
         <v>380</v>
       </c>
       <c r="B429" t="s" s="4">
-        <v>379</v>
+        <v>262</v>
       </c>
       <c r="C429" t="s" s="2">
         <v>7</v>
@@ -19595,7 +19598,7 @@
         <v>381</v>
       </c>
       <c r="B430" t="s" s="4">
-        <v>262</v>
+        <v>380</v>
       </c>
       <c r="C430" t="s" s="2">
         <v>7</v>
@@ -19671,7 +19674,7 @@
         <v>383</v>
       </c>
       <c r="B432" t="s" s="4">
-        <v>382</v>
+        <v>262</v>
       </c>
       <c r="C432" t="s" s="2">
         <v>7</v>
@@ -19709,7 +19712,7 @@
         <v>384</v>
       </c>
       <c r="B433" t="s" s="4">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C433" t="s" s="2">
         <v>7</v>
@@ -19747,7 +19750,7 @@
         <v>385</v>
       </c>
       <c r="B434" t="s" s="4">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C434" t="s" s="2">
         <v>7</v>
@@ -19785,7 +19788,7 @@
         <v>386</v>
       </c>
       <c r="B435" t="s" s="4">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C435" t="s" s="2">
         <v>7</v>
@@ -19823,7 +19826,7 @@
         <v>387</v>
       </c>
       <c r="B436" t="s" s="4">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C436" t="s" s="2">
         <v>7</v>
@@ -19861,7 +19864,7 @@
         <v>388</v>
       </c>
       <c r="B437" t="s" s="4">
-        <v>6</v>
+        <v>383</v>
       </c>
       <c r="C437" t="s" s="2">
         <v>7</v>
@@ -19899,7 +19902,7 @@
         <v>389</v>
       </c>
       <c r="B438" t="s" s="4">
-        <v>388</v>
+        <v>6</v>
       </c>
       <c r="C438" t="s" s="2">
         <v>7</v>
@@ -19972,10 +19975,10 @@
     </row>
     <row r="440" ht="19.5" customHeight="1">
       <c r="A440" t="s" s="4">
-        <v>343</v>
+        <v>391</v>
       </c>
       <c r="B440" t="s" s="4">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C440" t="s" s="2">
         <v>7</v>
@@ -20010,10 +20013,10 @@
     </row>
     <row r="441" ht="19.5" customHeight="1">
       <c r="A441" t="s" s="4">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B441" t="s" s="4">
-        <v>343</v>
+        <v>389</v>
       </c>
       <c r="C441" t="s" s="2">
         <v>7</v>
@@ -20048,10 +20051,10 @@
     </row>
     <row r="442" ht="19.5" customHeight="1">
       <c r="A442" t="s" s="4">
-        <v>391</v>
+        <v>344</v>
       </c>
       <c r="B442" t="s" s="4">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C442" t="s" s="2">
         <v>7</v>
@@ -20089,7 +20092,7 @@
         <v>392</v>
       </c>
       <c r="B443" t="s" s="4">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C443" t="s" s="2">
         <v>7</v>
@@ -20127,7 +20130,7 @@
         <v>393</v>
       </c>
       <c r="B444" t="s" s="4">
-        <v>388</v>
+        <v>344</v>
       </c>
       <c r="C444" t="s" s="2">
         <v>7</v>
@@ -20162,10 +20165,10 @@
     </row>
     <row r="445" ht="19.5" customHeight="1">
       <c r="A445" t="s" s="4">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B445" t="s" s="4">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C445" t="s" s="2">
         <v>7</v>
@@ -20203,7 +20206,7 @@
         <v>394</v>
       </c>
       <c r="B446" t="s" s="4">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C446" t="s" s="2">
         <v>7</v>
@@ -20241,7 +20244,7 @@
         <v>395</v>
       </c>
       <c r="B447" t="s" s="4">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C447" t="s" s="2">
         <v>7</v>
@@ -20279,7 +20282,7 @@
         <v>396</v>
       </c>
       <c r="B448" t="s" s="4">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C448" t="s" s="2">
         <v>7</v>
@@ -20317,7 +20320,7 @@
         <v>397</v>
       </c>
       <c r="B449" t="s" s="4">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C449" t="s" s="2">
         <v>7</v>
@@ -20352,10 +20355,10 @@
     </row>
     <row r="450" ht="19.5" customHeight="1">
       <c r="A450" t="s" s="4">
-        <v>344</v>
+        <v>398</v>
       </c>
       <c r="B450" t="s" s="4">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="C450" t="s" s="2">
         <v>7</v>
@@ -20390,10 +20393,10 @@
     </row>
     <row r="451" ht="19.5" customHeight="1">
       <c r="A451" t="s" s="4">
-        <v>398</v>
+        <v>345</v>
       </c>
       <c r="B451" t="s" s="4">
-        <v>344</v>
+        <v>389</v>
       </c>
       <c r="C451" t="s" s="2">
         <v>7</v>
@@ -20431,7 +20434,7 @@
         <v>399</v>
       </c>
       <c r="B452" t="s" s="4">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C452" t="s" s="2">
         <v>7</v>
@@ -20469,7 +20472,7 @@
         <v>400</v>
       </c>
       <c r="B453" t="s" s="4">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C453" t="s" s="2">
         <v>7</v>
@@ -20507,7 +20510,7 @@
         <v>401</v>
       </c>
       <c r="B454" t="s" s="4">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C454" t="s" s="2">
         <v>7</v>
@@ -20545,7 +20548,7 @@
         <v>402</v>
       </c>
       <c r="B455" t="s" s="4">
-        <v>388</v>
+        <v>345</v>
       </c>
       <c r="C455" t="s" s="2">
         <v>7</v>
@@ -20583,7 +20586,7 @@
         <v>403</v>
       </c>
       <c r="B456" t="s" s="4">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="C456" t="s" s="2">
         <v>7</v>
@@ -20621,7 +20624,7 @@
         <v>404</v>
       </c>
       <c r="B457" t="s" s="4">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C457" t="s" s="2">
         <v>7</v>
@@ -20659,7 +20662,7 @@
         <v>405</v>
       </c>
       <c r="B458" t="s" s="4">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="C458" t="s" s="2">
         <v>7</v>
@@ -20694,10 +20697,10 @@
     </row>
     <row r="459" ht="19.5" customHeight="1">
       <c r="A459" t="s" s="4">
-        <v>333</v>
+        <v>406</v>
       </c>
       <c r="B459" t="s" s="4">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="C459" t="s" s="2">
         <v>7</v>
@@ -20732,10 +20735,10 @@
     </row>
     <row r="460" ht="19.5" customHeight="1">
       <c r="A460" t="s" s="4">
+        <v>333</v>
+      </c>
+      <c r="B460" t="s" s="4">
         <v>406</v>
-      </c>
-      <c r="B460" t="s" s="4">
-        <v>405</v>
       </c>
       <c r="C460" t="s" s="2">
         <v>7</v>
@@ -20773,7 +20776,7 @@
         <v>407</v>
       </c>
       <c r="B461" t="s" s="4">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C461" t="s" s="2">
         <v>7</v>
@@ -20811,7 +20814,7 @@
         <v>408</v>
       </c>
       <c r="B462" t="s" s="4">
-        <v>388</v>
+        <v>406</v>
       </c>
       <c r="C462" t="s" s="2">
         <v>7</v>
@@ -20849,7 +20852,7 @@
         <v>409</v>
       </c>
       <c r="B463" t="s" s="4">
-        <v>408</v>
+        <v>389</v>
       </c>
       <c r="C463" t="s" s="2">
         <v>7</v>
@@ -20887,7 +20890,7 @@
         <v>410</v>
       </c>
       <c r="B464" t="s" s="4">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C464" t="s" s="2">
         <v>7</v>
@@ -20925,7 +20928,7 @@
         <v>411</v>
       </c>
       <c r="B465" t="s" s="4">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C465" t="s" s="2">
         <v>7</v>
@@ -20963,7 +20966,7 @@
         <v>412</v>
       </c>
       <c r="B466" t="s" s="4">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C466" t="s" s="2">
         <v>7</v>
@@ -21001,7 +21004,7 @@
         <v>413</v>
       </c>
       <c r="B467" t="s" s="4">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C467" t="s" s="2">
         <v>7</v>
@@ -21039,7 +21042,7 @@
         <v>414</v>
       </c>
       <c r="B468" t="s" s="4">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C468" t="s" s="2">
         <v>7</v>
@@ -21077,7 +21080,7 @@
         <v>415</v>
       </c>
       <c r="B469" t="s" s="4">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C469" t="s" s="2">
         <v>7</v>
@@ -21115,7 +21118,7 @@
         <v>416</v>
       </c>
       <c r="B470" t="s" s="4">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C470" t="s" s="2">
         <v>7</v>
@@ -21153,7 +21156,7 @@
         <v>417</v>
       </c>
       <c r="B471" t="s" s="4">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C471" t="s" s="2">
         <v>7</v>
@@ -21191,7 +21194,7 @@
         <v>418</v>
       </c>
       <c r="B472" t="s" s="4">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C472" t="s" s="2">
         <v>7</v>
@@ -21229,7 +21232,7 @@
         <v>419</v>
       </c>
       <c r="B473" t="s" s="4">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C473" t="s" s="2">
         <v>7</v>
@@ -21267,7 +21270,7 @@
         <v>420</v>
       </c>
       <c r="B474" t="s" s="4">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C474" t="s" s="2">
         <v>7</v>
@@ -21305,7 +21308,7 @@
         <v>421</v>
       </c>
       <c r="B475" t="s" s="4">
-        <v>388</v>
+        <v>409</v>
       </c>
       <c r="C475" t="s" s="2">
         <v>7</v>
@@ -21343,7 +21346,7 @@
         <v>422</v>
       </c>
       <c r="B476" t="s" s="4">
-        <v>421</v>
+        <v>389</v>
       </c>
       <c r="C476" t="s" s="2">
         <v>7</v>
@@ -21381,7 +21384,7 @@
         <v>423</v>
       </c>
       <c r="B477" t="s" s="4">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C477" t="s" s="2">
         <v>7</v>
@@ -21419,7 +21422,7 @@
         <v>424</v>
       </c>
       <c r="B478" t="s" s="4">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C478" t="s" s="2">
         <v>7</v>
@@ -21457,7 +21460,7 @@
         <v>425</v>
       </c>
       <c r="B479" t="s" s="4">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C479" t="s" s="2">
         <v>7</v>
@@ -21495,7 +21498,7 @@
         <v>426</v>
       </c>
       <c r="B480" t="s" s="4">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C480" t="s" s="2">
         <v>7</v>
@@ -21533,7 +21536,7 @@
         <v>427</v>
       </c>
       <c r="B481" t="s" s="4">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C481" t="s" s="2">
         <v>7</v>
@@ -21571,7 +21574,7 @@
         <v>428</v>
       </c>
       <c r="B482" t="s" s="4">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C482" t="s" s="2">
         <v>7</v>
@@ -21609,7 +21612,7 @@
         <v>429</v>
       </c>
       <c r="B483" t="s" s="4">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C483" t="s" s="2">
         <v>7</v>
@@ -21647,7 +21650,7 @@
         <v>430</v>
       </c>
       <c r="B484" t="s" s="4">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C484" t="s" s="2">
         <v>7</v>
@@ -21685,7 +21688,7 @@
         <v>431</v>
       </c>
       <c r="B485" t="s" s="4">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C485" t="s" s="2">
         <v>7</v>
@@ -21723,7 +21726,7 @@
         <v>432</v>
       </c>
       <c r="B486" t="s" s="4">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C486" t="s" s="2">
         <v>7</v>
@@ -21761,7 +21764,7 @@
         <v>433</v>
       </c>
       <c r="B487" t="s" s="4">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C487" t="s" s="2">
         <v>7</v>
@@ -21799,7 +21802,7 @@
         <v>434</v>
       </c>
       <c r="B488" t="s" s="4">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C488" t="s" s="2">
         <v>7</v>
@@ -21837,7 +21840,7 @@
         <v>435</v>
       </c>
       <c r="B489" t="s" s="4">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C489" t="s" s="2">
         <v>7</v>
@@ -21875,7 +21878,7 @@
         <v>436</v>
       </c>
       <c r="B490" t="s" s="4">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C490" t="s" s="2">
         <v>7</v>
@@ -21913,7 +21916,7 @@
         <v>437</v>
       </c>
       <c r="B491" t="s" s="4">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C491" t="s" s="2">
         <v>7</v>
@@ -21951,7 +21954,7 @@
         <v>438</v>
       </c>
       <c r="B492" t="s" s="4">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C492" t="s" s="2">
         <v>7</v>
@@ -21989,7 +21992,7 @@
         <v>439</v>
       </c>
       <c r="B493" t="s" s="4">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C493" t="s" s="2">
         <v>7</v>
@@ -22027,7 +22030,7 @@
         <v>440</v>
       </c>
       <c r="B494" t="s" s="4">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C494" t="s" s="2">
         <v>7</v>
@@ -22065,7 +22068,7 @@
         <v>441</v>
       </c>
       <c r="B495" t="s" s="4">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C495" t="s" s="2">
         <v>7</v>
@@ -22103,7 +22106,7 @@
         <v>442</v>
       </c>
       <c r="B496" t="s" s="4">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C496" t="s" s="2">
         <v>7</v>
@@ -22141,7 +22144,7 @@
         <v>443</v>
       </c>
       <c r="B497" t="s" s="4">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C497" t="s" s="2">
         <v>7</v>
@@ -22179,7 +22182,7 @@
         <v>444</v>
       </c>
       <c r="B498" t="s" s="4">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C498" t="s" s="2">
         <v>7</v>
@@ -22217,7 +22220,7 @@
         <v>445</v>
       </c>
       <c r="B499" t="s" s="4">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C499" t="s" s="2">
         <v>7</v>
@@ -22255,7 +22258,7 @@
         <v>446</v>
       </c>
       <c r="B500" t="s" s="4">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C500" t="s" s="2">
         <v>7</v>
@@ -22293,7 +22296,7 @@
         <v>447</v>
       </c>
       <c r="B501" t="s" s="4">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C501" t="s" s="2">
         <v>7</v>
@@ -22331,7 +22334,7 @@
         <v>448</v>
       </c>
       <c r="B502" t="s" s="4">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C502" t="s" s="2">
         <v>7</v>
@@ -22369,7 +22372,7 @@
         <v>449</v>
       </c>
       <c r="B503" t="s" s="4">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C503" t="s" s="2">
         <v>7</v>
@@ -22407,7 +22410,7 @@
         <v>450</v>
       </c>
       <c r="B504" t="s" s="4">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C504" t="s" s="2">
         <v>7</v>
@@ -22445,7 +22448,7 @@
         <v>451</v>
       </c>
       <c r="B505" t="s" s="4">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C505" t="s" s="2">
         <v>7</v>
@@ -22483,7 +22486,7 @@
         <v>452</v>
       </c>
       <c r="B506" t="s" s="4">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C506" t="s" s="2">
         <v>7</v>
@@ -22521,7 +22524,7 @@
         <v>453</v>
       </c>
       <c r="B507" t="s" s="4">
-        <v>388</v>
+        <v>422</v>
       </c>
       <c r="C507" t="s" s="2">
         <v>7</v>
@@ -22559,7 +22562,7 @@
         <v>454</v>
       </c>
       <c r="B508" t="s" s="4">
-        <v>453</v>
+        <v>389</v>
       </c>
       <c r="C508" t="s" s="2">
         <v>7</v>
@@ -22597,7 +22600,7 @@
         <v>455</v>
       </c>
       <c r="B509" t="s" s="4">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C509" t="s" s="2">
         <v>7</v>
@@ -22635,7 +22638,7 @@
         <v>456</v>
       </c>
       <c r="B510" t="s" s="4">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C510" t="s" s="2">
         <v>7</v>
@@ -22673,7 +22676,7 @@
         <v>457</v>
       </c>
       <c r="B511" t="s" s="4">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C511" t="s" s="2">
         <v>7</v>
@@ -22711,7 +22714,7 @@
         <v>458</v>
       </c>
       <c r="B512" t="s" s="4">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C512" t="s" s="2">
         <v>7</v>
@@ -22749,7 +22752,7 @@
         <v>459</v>
       </c>
       <c r="B513" t="s" s="4">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C513" t="s" s="2">
         <v>7</v>
@@ -22787,7 +22790,7 @@
         <v>460</v>
       </c>
       <c r="B514" t="s" s="4">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C514" t="s" s="2">
         <v>7</v>
@@ -22825,7 +22828,7 @@
         <v>461</v>
       </c>
       <c r="B515" t="s" s="4">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C515" t="s" s="2">
         <v>7</v>
@@ -22863,7 +22866,7 @@
         <v>462</v>
       </c>
       <c r="B516" t="s" s="4">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C516" t="s" s="2">
         <v>7</v>
@@ -22901,7 +22904,7 @@
         <v>463</v>
       </c>
       <c r="B517" t="s" s="4">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C517" t="s" s="2">
         <v>7</v>
@@ -22939,7 +22942,7 @@
         <v>464</v>
       </c>
       <c r="B518" t="s" s="4">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C518" t="s" s="2">
         <v>7</v>
@@ -22977,7 +22980,7 @@
         <v>465</v>
       </c>
       <c r="B519" t="s" s="4">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C519" t="s" s="2">
         <v>7</v>
@@ -23012,10 +23015,10 @@
     </row>
     <row r="520" ht="19.5" customHeight="1">
       <c r="A520" t="s" s="4">
-        <v>340</v>
+        <v>466</v>
       </c>
       <c r="B520" t="s" s="4">
-        <v>388</v>
+        <v>454</v>
       </c>
       <c r="C520" t="s" s="2">
         <v>7</v>
@@ -23053,7 +23056,7 @@
         <v>340</v>
       </c>
       <c r="B521" t="s" s="4">
-        <v>340</v>
+        <v>389</v>
       </c>
       <c r="C521" t="s" s="2">
         <v>7</v>
@@ -23088,10 +23091,10 @@
     </row>
     <row r="522" ht="19.5" customHeight="1">
       <c r="A522" t="s" s="4">
-        <v>466</v>
+        <v>340</v>
       </c>
       <c r="B522" t="s" s="4">
-        <v>388</v>
+        <v>340</v>
       </c>
       <c r="C522" t="s" s="2">
         <v>7</v>
@@ -23129,7 +23132,7 @@
         <v>467</v>
       </c>
       <c r="B523" t="s" s="4">
-        <v>466</v>
+        <v>389</v>
       </c>
       <c r="C523" t="s" s="2">
         <v>7</v>
@@ -23167,7 +23170,7 @@
         <v>468</v>
       </c>
       <c r="B524" t="s" s="4">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C524" t="s" s="2">
         <v>7</v>
@@ -23205,7 +23208,7 @@
         <v>469</v>
       </c>
       <c r="B525" t="s" s="4">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C525" t="s" s="2">
         <v>7</v>
@@ -23243,7 +23246,7 @@
         <v>470</v>
       </c>
       <c r="B526" t="s" s="4">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C526" t="s" s="2">
         <v>7</v>
@@ -23281,7 +23284,7 @@
         <v>471</v>
       </c>
       <c r="B527" t="s" s="4">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C527" t="s" s="2">
         <v>7</v>
@@ -23319,7 +23322,7 @@
         <v>472</v>
       </c>
       <c r="B528" t="s" s="4">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C528" t="s" s="2">
         <v>7</v>
@@ -23357,7 +23360,7 @@
         <v>473</v>
       </c>
       <c r="B529" t="s" s="4">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C529" t="s" s="2">
         <v>7</v>
@@ -23395,7 +23398,7 @@
         <v>474</v>
       </c>
       <c r="B530" t="s" s="4">
-        <v>388</v>
+        <v>467</v>
       </c>
       <c r="C530" t="s" s="2">
         <v>7</v>
@@ -23433,7 +23436,7 @@
         <v>475</v>
       </c>
       <c r="B531" t="s" s="4">
-        <v>474</v>
+        <v>389</v>
       </c>
       <c r="C531" t="s" s="2">
         <v>7</v>
@@ -23471,7 +23474,7 @@
         <v>476</v>
       </c>
       <c r="B532" t="s" s="4">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C532" t="s" s="2">
         <v>7</v>
@@ -23509,7 +23512,7 @@
         <v>477</v>
       </c>
       <c r="B533" t="s" s="4">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C533" t="s" s="2">
         <v>7</v>
@@ -23547,7 +23550,7 @@
         <v>478</v>
       </c>
       <c r="B534" t="s" s="4">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C534" t="s" s="2">
         <v>7</v>
@@ -23585,7 +23588,7 @@
         <v>479</v>
       </c>
       <c r="B535" t="s" s="4">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C535" t="s" s="2">
         <v>7</v>
@@ -23623,7 +23626,7 @@
         <v>480</v>
       </c>
       <c r="B536" t="s" s="4">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C536" t="s" s="2">
         <v>7</v>
@@ -23661,13 +23664,17 @@
         <v>481</v>
       </c>
       <c r="B537" t="s" s="4">
-        <v>6</v>
+        <v>475</v>
       </c>
       <c r="C537" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="D537" s="3"/>
-      <c r="E537" s="3"/>
+      <c r="D537" s="6">
+        <v>411000</v>
+      </c>
+      <c r="E537" s="6">
+        <v>518600</v>
+      </c>
       <c r="F537" s="3"/>
       <c r="G537" s="3"/>
       <c r="H537" s="3"/>
@@ -23695,7 +23702,7 @@
         <v>482</v>
       </c>
       <c r="B538" t="s" s="4">
-        <v>481</v>
+        <v>6</v>
       </c>
       <c r="C538" t="s" s="2">
         <v>7</v>
@@ -23769,9 +23776,7 @@
         <v>7</v>
       </c>
       <c r="D540" s="3"/>
-      <c r="E540" s="6">
-        <v>514001</v>
-      </c>
+      <c r="E540" s="3"/>
       <c r="F540" s="3"/>
       <c r="G540" s="3"/>
       <c r="H540" s="3"/>
@@ -23799,13 +23804,15 @@
         <v>485</v>
       </c>
       <c r="B541" t="s" s="4">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C541" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D541" s="3"/>
-      <c r="E541" s="3"/>
+      <c r="E541" s="6">
+        <v>514001</v>
+      </c>
       <c r="F541" s="3"/>
       <c r="G541" s="3"/>
       <c r="H541" s="3"/>
@@ -23833,15 +23840,13 @@
         <v>486</v>
       </c>
       <c r="B542" t="s" s="4">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C542" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D542" s="3"/>
-      <c r="E542" s="6">
-        <v>517100</v>
-      </c>
+      <c r="E542" s="3"/>
       <c r="F542" s="3"/>
       <c r="G542" s="3"/>
       <c r="H542" s="3"/>
@@ -23869,14 +23874,14 @@
         <v>487</v>
       </c>
       <c r="B543" t="s" s="4">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C543" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D543" s="3"/>
       <c r="E543" s="6">
-        <v>517200</v>
+        <v>517100</v>
       </c>
       <c r="F543" s="3"/>
       <c r="G543" s="3"/>
@@ -23905,14 +23910,14 @@
         <v>488</v>
       </c>
       <c r="B544" t="s" s="4">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C544" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D544" s="3"/>
       <c r="E544" s="6">
-        <v>517300</v>
+        <v>517200</v>
       </c>
       <c r="F544" s="3"/>
       <c r="G544" s="3"/>
@@ -23941,7 +23946,7 @@
         <v>489</v>
       </c>
       <c r="B545" t="s" s="4">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C545" t="s" s="2">
         <v>7</v>
@@ -23977,13 +23982,15 @@
         <v>490</v>
       </c>
       <c r="B546" t="s" s="4">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C546" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D546" s="3"/>
-      <c r="E546" s="3"/>
+      <c r="E546" s="6">
+        <v>517300</v>
+      </c>
       <c r="F546" s="3"/>
       <c r="G546" s="3"/>
       <c r="H546" s="3"/>
@@ -24011,15 +24018,13 @@
         <v>491</v>
       </c>
       <c r="B547" t="s" s="4">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="C547" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D547" s="3"/>
-      <c r="E547" s="6">
-        <v>518100</v>
-      </c>
+      <c r="E547" s="3"/>
       <c r="F547" s="3"/>
       <c r="G547" s="3"/>
       <c r="H547" s="3"/>
@@ -24047,14 +24052,14 @@
         <v>492</v>
       </c>
       <c r="B548" t="s" s="4">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C548" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D548" s="3"/>
       <c r="E548" s="6">
-        <v>518200</v>
+        <v>518100</v>
       </c>
       <c r="F548" s="3"/>
       <c r="G548" s="3"/>
@@ -24083,14 +24088,14 @@
         <v>493</v>
       </c>
       <c r="B549" t="s" s="4">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C549" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D549" s="3"/>
       <c r="E549" s="6">
-        <v>518300</v>
+        <v>518200</v>
       </c>
       <c r="F549" s="3"/>
       <c r="G549" s="3"/>
@@ -24119,14 +24124,14 @@
         <v>494</v>
       </c>
       <c r="B550" t="s" s="4">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C550" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D550" s="3"/>
       <c r="E550" s="6">
-        <v>518400</v>
+        <v>518300</v>
       </c>
       <c r="F550" s="3"/>
       <c r="G550" s="3"/>
@@ -24155,14 +24160,14 @@
         <v>495</v>
       </c>
       <c r="B551" t="s" s="4">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C551" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D551" s="3"/>
       <c r="E551" s="6">
-        <v>518500</v>
+        <v>518400</v>
       </c>
       <c r="F551" s="3"/>
       <c r="G551" s="3"/>
@@ -24191,13 +24196,15 @@
         <v>496</v>
       </c>
       <c r="B552" t="s" s="4">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="C552" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D552" s="3"/>
-      <c r="E552" s="3"/>
+      <c r="E552" s="6">
+        <v>518500</v>
+      </c>
       <c r="F552" s="3"/>
       <c r="G552" s="3"/>
       <c r="H552" s="3"/>
@@ -24222,18 +24229,16 @@
     </row>
     <row r="553" ht="19.5" customHeight="1">
       <c r="A553" t="s" s="4">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B553" t="s" s="4">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="C553" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D553" s="3"/>
-      <c r="E553" s="6">
-        <v>518600</v>
-      </c>
+      <c r="E553" s="3"/>
       <c r="F553" s="3"/>
       <c r="G553" s="3"/>
       <c r="H553" s="3"/>
@@ -24261,13 +24266,15 @@
         <v>497</v>
       </c>
       <c r="B554" t="s" s="4">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="C554" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D554" s="3"/>
-      <c r="E554" s="3"/>
+      <c r="E554" s="6">
+        <v>518600</v>
+      </c>
       <c r="F554" s="3"/>
       <c r="G554" s="3"/>
       <c r="H554" s="3"/>
@@ -24295,15 +24302,13 @@
         <v>498</v>
       </c>
       <c r="B555" t="s" s="4">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="C555" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D555" s="3"/>
-      <c r="E555" s="6">
-        <v>516600</v>
-      </c>
+      <c r="E555" s="3"/>
       <c r="F555" s="3"/>
       <c r="G555" s="3"/>
       <c r="H555" s="3"/>
@@ -24331,7 +24336,7 @@
         <v>499</v>
       </c>
       <c r="B556" t="s" s="4">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C556" t="s" s="2">
         <v>7</v>
@@ -24367,7 +24372,7 @@
         <v>500</v>
       </c>
       <c r="B557" t="s" s="4">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C557" t="s" s="2">
         <v>7</v>
@@ -24403,13 +24408,15 @@
         <v>501</v>
       </c>
       <c r="B558" t="s" s="4">
-        <v>482</v>
+        <v>498</v>
       </c>
       <c r="C558" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D558" s="3"/>
-      <c r="E558" s="3"/>
+      <c r="E558" s="6">
+        <v>516600</v>
+      </c>
       <c r="F558" s="3"/>
       <c r="G558" s="3"/>
       <c r="H558" s="3"/>
@@ -24437,15 +24444,13 @@
         <v>502</v>
       </c>
       <c r="B559" t="s" s="4">
-        <v>501</v>
+        <v>483</v>
       </c>
       <c r="C559" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D559" s="3"/>
-      <c r="E559" s="6">
-        <v>516600</v>
-      </c>
+      <c r="E559" s="3"/>
       <c r="F559" s="3"/>
       <c r="G559" s="3"/>
       <c r="H559" s="3"/>
@@ -24473,13 +24478,15 @@
         <v>503</v>
       </c>
       <c r="B560" t="s" s="4">
-        <v>482</v>
+        <v>502</v>
       </c>
       <c r="C560" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D560" s="3"/>
-      <c r="E560" s="3"/>
+      <c r="E560" s="6">
+        <v>516600</v>
+      </c>
       <c r="F560" s="3"/>
       <c r="G560" s="3"/>
       <c r="H560" s="3"/>
@@ -24507,15 +24514,13 @@
         <v>504</v>
       </c>
       <c r="B561" t="s" s="4">
-        <v>503</v>
+        <v>483</v>
       </c>
       <c r="C561" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D561" s="3"/>
-      <c r="E561" s="6">
-        <v>516600</v>
-      </c>
+      <c r="E561" s="3"/>
       <c r="F561" s="3"/>
       <c r="G561" s="3"/>
       <c r="H561" s="3"/>
@@ -24543,7 +24548,7 @@
         <v>505</v>
       </c>
       <c r="B562" t="s" s="4">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C562" t="s" s="2">
         <v>7</v>
@@ -24579,7 +24584,7 @@
         <v>506</v>
       </c>
       <c r="B563" t="s" s="4">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C563" t="s" s="2">
         <v>7</v>
@@ -24615,7 +24620,7 @@
         <v>507</v>
       </c>
       <c r="B564" t="s" s="4">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C564" t="s" s="2">
         <v>7</v>
@@ -24651,7 +24656,7 @@
         <v>508</v>
       </c>
       <c r="B565" t="s" s="4">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C565" t="s" s="2">
         <v>7</v>
@@ -24687,7 +24692,7 @@
         <v>509</v>
       </c>
       <c r="B566" t="s" s="4">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C566" t="s" s="2">
         <v>7</v>
@@ -24723,7 +24728,7 @@
         <v>510</v>
       </c>
       <c r="B567" t="s" s="4">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C567" t="s" s="2">
         <v>7</v>
@@ -24759,13 +24764,15 @@
         <v>511</v>
       </c>
       <c r="B568" t="s" s="4">
-        <v>481</v>
+        <v>504</v>
       </c>
       <c r="C568" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D568" s="3"/>
-      <c r="E568" s="3"/>
+      <c r="E568" s="6">
+        <v>516600</v>
+      </c>
       <c r="F568" s="3"/>
       <c r="G568" s="3"/>
       <c r="H568" s="3"/>
@@ -24793,7 +24800,7 @@
         <v>512</v>
       </c>
       <c r="B569" t="s" s="4">
-        <v>511</v>
+        <v>482</v>
       </c>
       <c r="C569" t="s" s="2">
         <v>7</v>
@@ -24833,9 +24840,7 @@
         <v>7</v>
       </c>
       <c r="D570" s="3"/>
-      <c r="E570" s="6">
-        <v>522880</v>
-      </c>
+      <c r="E570" s="3"/>
       <c r="F570" s="3"/>
       <c r="G570" s="3"/>
       <c r="H570" s="3"/>
@@ -24863,7 +24868,7 @@
         <v>514</v>
       </c>
       <c r="B571" t="s" s="4">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C571" t="s" s="2">
         <v>7</v>
@@ -24899,7 +24904,7 @@
         <v>515</v>
       </c>
       <c r="B572" t="s" s="4">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C572" t="s" s="2">
         <v>7</v>
@@ -24935,7 +24940,7 @@
         <v>516</v>
       </c>
       <c r="B573" t="s" s="4">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C573" t="s" s="2">
         <v>7</v>
@@ -24971,7 +24976,7 @@
         <v>517</v>
       </c>
       <c r="B574" t="s" s="4">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C574" t="s" s="2">
         <v>7</v>
@@ -25007,7 +25012,7 @@
         <v>518</v>
       </c>
       <c r="B575" t="s" s="4">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C575" t="s" s="2">
         <v>7</v>
@@ -25043,7 +25048,7 @@
         <v>519</v>
       </c>
       <c r="B576" t="s" s="4">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C576" t="s" s="2">
         <v>7</v>
@@ -25079,13 +25084,15 @@
         <v>520</v>
       </c>
       <c r="B577" t="s" s="4">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C577" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D577" s="3"/>
-      <c r="E577" s="3"/>
+      <c r="E577" s="6">
+        <v>522880</v>
+      </c>
       <c r="F577" s="3"/>
       <c r="G577" s="3"/>
       <c r="H577" s="3"/>
@@ -25113,15 +25120,13 @@
         <v>521</v>
       </c>
       <c r="B578" t="s" s="4">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="C578" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D578" s="3"/>
-      <c r="E578" s="6">
-        <v>521100</v>
-      </c>
+      <c r="E578" s="3"/>
       <c r="F578" s="3"/>
       <c r="G578" s="3"/>
       <c r="H578" s="3"/>
@@ -25149,14 +25154,14 @@
         <v>522</v>
       </c>
       <c r="B579" t="s" s="4">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C579" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D579" s="3"/>
       <c r="E579" s="6">
-        <v>521200</v>
+        <v>521100</v>
       </c>
       <c r="F579" s="3"/>
       <c r="G579" s="3"/>
@@ -25185,14 +25190,14 @@
         <v>523</v>
       </c>
       <c r="B580" t="s" s="4">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C580" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D580" s="3"/>
       <c r="E580" s="6">
-        <v>521300</v>
+        <v>521200</v>
       </c>
       <c r="F580" s="3"/>
       <c r="G580" s="3"/>
@@ -25221,14 +25226,14 @@
         <v>524</v>
       </c>
       <c r="B581" t="s" s="4">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C581" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D581" s="3"/>
       <c r="E581" s="6">
-        <v>521400</v>
+        <v>521300</v>
       </c>
       <c r="F581" s="3"/>
       <c r="G581" s="3"/>
@@ -25257,14 +25262,14 @@
         <v>525</v>
       </c>
       <c r="B582" t="s" s="4">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C582" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D582" s="3"/>
       <c r="E582" s="6">
-        <v>521500</v>
+        <v>521400</v>
       </c>
       <c r="F582" s="3"/>
       <c r="G582" s="3"/>
@@ -25293,14 +25298,14 @@
         <v>526</v>
       </c>
       <c r="B583" t="s" s="4">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C583" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D583" s="3"/>
       <c r="E583" s="6">
-        <v>521600</v>
+        <v>521500</v>
       </c>
       <c r="F583" s="3"/>
       <c r="G583" s="3"/>
@@ -25329,14 +25334,14 @@
         <v>527</v>
       </c>
       <c r="B584" t="s" s="4">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C584" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D584" s="3"/>
       <c r="E584" s="6">
-        <v>522300</v>
+        <v>521600</v>
       </c>
       <c r="F584" s="3"/>
       <c r="G584" s="3"/>
@@ -25365,14 +25370,14 @@
         <v>528</v>
       </c>
       <c r="B585" t="s" s="4">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C585" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D585" s="3"/>
       <c r="E585" s="6">
-        <v>521900</v>
+        <v>522300</v>
       </c>
       <c r="F585" s="3"/>
       <c r="G585" s="3"/>
@@ -25401,14 +25406,14 @@
         <v>529</v>
       </c>
       <c r="B586" t="s" s="4">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C586" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D586" s="3"/>
       <c r="E586" s="6">
-        <v>522300</v>
+        <v>521900</v>
       </c>
       <c r="F586" s="3"/>
       <c r="G586" s="3"/>
@@ -25437,14 +25442,14 @@
         <v>530</v>
       </c>
       <c r="B587" t="s" s="4">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C587" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D587" s="3"/>
       <c r="E587" s="6">
-        <v>521500</v>
+        <v>522300</v>
       </c>
       <c r="F587" s="3"/>
       <c r="G587" s="3"/>
@@ -25473,14 +25478,14 @@
         <v>531</v>
       </c>
       <c r="B588" t="s" s="4">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C588" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D588" s="3"/>
       <c r="E588" s="6">
-        <v>521800</v>
+        <v>521500</v>
       </c>
       <c r="F588" s="3"/>
       <c r="G588" s="3"/>
@@ -25509,13 +25514,15 @@
         <v>532</v>
       </c>
       <c r="B589" t="s" s="4">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="C589" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D589" s="3"/>
-      <c r="E589" s="3"/>
+      <c r="E589" s="6">
+        <v>521800</v>
+      </c>
       <c r="F589" s="3"/>
       <c r="G589" s="3"/>
       <c r="H589" s="3"/>
@@ -25543,15 +25550,13 @@
         <v>533</v>
       </c>
       <c r="B590" t="s" s="4">
-        <v>532</v>
+        <v>512</v>
       </c>
       <c r="C590" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D590" s="3"/>
-      <c r="E590" s="6">
-        <v>522610</v>
-      </c>
+      <c r="E590" s="3"/>
       <c r="F590" s="3"/>
       <c r="G590" s="3"/>
       <c r="H590" s="3"/>
@@ -25579,14 +25584,14 @@
         <v>534</v>
       </c>
       <c r="B591" t="s" s="4">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C591" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D591" s="3"/>
       <c r="E591" s="6">
-        <v>522620</v>
+        <v>522610</v>
       </c>
       <c r="F591" s="3"/>
       <c r="G591" s="3"/>
@@ -25615,14 +25620,14 @@
         <v>535</v>
       </c>
       <c r="B592" t="s" s="4">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C592" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D592" s="3"/>
       <c r="E592" s="6">
-        <v>522630</v>
+        <v>522620</v>
       </c>
       <c r="F592" s="3"/>
       <c r="G592" s="3"/>
@@ -25651,14 +25656,14 @@
         <v>536</v>
       </c>
       <c r="B593" t="s" s="4">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C593" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D593" s="3"/>
       <c r="E593" s="6">
-        <v>522640</v>
+        <v>522630</v>
       </c>
       <c r="F593" s="3"/>
       <c r="G593" s="3"/>
@@ -25687,14 +25692,14 @@
         <v>537</v>
       </c>
       <c r="B594" t="s" s="4">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C594" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D594" s="3"/>
       <c r="E594" s="6">
-        <v>522660</v>
+        <v>522640</v>
       </c>
       <c r="F594" s="3"/>
       <c r="G594" s="3"/>
@@ -25723,13 +25728,15 @@
         <v>538</v>
       </c>
       <c r="B595" t="s" s="4">
-        <v>511</v>
+        <v>533</v>
       </c>
       <c r="C595" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D595" s="3"/>
-      <c r="E595" s="3"/>
+      <c r="E595" s="6">
+        <v>522660</v>
+      </c>
       <c r="F595" s="3"/>
       <c r="G595" s="3"/>
       <c r="H595" s="3"/>
@@ -25757,15 +25764,13 @@
         <v>539</v>
       </c>
       <c r="B596" t="s" s="4">
-        <v>538</v>
+        <v>512</v>
       </c>
       <c r="C596" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D596" s="3"/>
-      <c r="E596" s="6">
-        <v>522650</v>
-      </c>
+      <c r="E596" s="3"/>
       <c r="F596" s="3"/>
       <c r="G596" s="3"/>
       <c r="H596" s="3"/>
@@ -25793,7 +25798,7 @@
         <v>540</v>
       </c>
       <c r="B597" t="s" s="4">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C597" t="s" s="2">
         <v>7</v>
@@ -25829,7 +25834,7 @@
         <v>541</v>
       </c>
       <c r="B598" t="s" s="4">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C598" t="s" s="2">
         <v>7</v>
@@ -25865,7 +25870,7 @@
         <v>542</v>
       </c>
       <c r="B599" t="s" s="4">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C599" t="s" s="2">
         <v>7</v>
@@ -25901,13 +25906,15 @@
         <v>543</v>
       </c>
       <c r="B600" t="s" s="4">
-        <v>511</v>
+        <v>539</v>
       </c>
       <c r="C600" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D600" s="3"/>
-      <c r="E600" s="3"/>
+      <c r="E600" s="6">
+        <v>522650</v>
+      </c>
       <c r="F600" s="3"/>
       <c r="G600" s="3"/>
       <c r="H600" s="3"/>
@@ -25935,15 +25942,13 @@
         <v>544</v>
       </c>
       <c r="B601" t="s" s="4">
-        <v>543</v>
+        <v>512</v>
       </c>
       <c r="C601" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D601" s="3"/>
-      <c r="E601" s="6">
-        <v>522850</v>
-      </c>
+      <c r="E601" s="3"/>
       <c r="F601" s="3"/>
       <c r="G601" s="3"/>
       <c r="H601" s="3"/>
@@ -25971,7 +25976,7 @@
         <v>545</v>
       </c>
       <c r="B602" t="s" s="4">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C602" t="s" s="2">
         <v>7</v>
@@ -26007,7 +26012,7 @@
         <v>546</v>
       </c>
       <c r="B603" t="s" s="4">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C603" t="s" s="2">
         <v>7</v>
@@ -26043,7 +26048,7 @@
         <v>547</v>
       </c>
       <c r="B604" t="s" s="4">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C604" t="s" s="2">
         <v>7</v>
@@ -26079,7 +26084,7 @@
         <v>548</v>
       </c>
       <c r="B605" t="s" s="4">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C605" t="s" s="2">
         <v>7</v>
@@ -26115,7 +26120,7 @@
         <v>549</v>
       </c>
       <c r="B606" t="s" s="4">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C606" t="s" s="2">
         <v>7</v>
@@ -26151,7 +26156,7 @@
         <v>550</v>
       </c>
       <c r="B607" t="s" s="4">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C607" t="s" s="2">
         <v>7</v>
@@ -26187,14 +26192,14 @@
         <v>551</v>
       </c>
       <c r="B608" t="s" s="4">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C608" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D608" s="3"/>
       <c r="E608" s="6">
-        <v>522870</v>
+        <v>522850</v>
       </c>
       <c r="F608" s="3"/>
       <c r="G608" s="3"/>
@@ -26223,14 +26228,14 @@
         <v>552</v>
       </c>
       <c r="B609" t="s" s="4">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C609" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D609" s="3"/>
       <c r="E609" s="6">
-        <v>522820</v>
+        <v>522870</v>
       </c>
       <c r="F609" s="3"/>
       <c r="G609" s="3"/>
@@ -26259,14 +26264,14 @@
         <v>553</v>
       </c>
       <c r="B610" t="s" s="4">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C610" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D610" s="3"/>
       <c r="E610" s="6">
-        <v>522850</v>
+        <v>522820</v>
       </c>
       <c r="F610" s="3"/>
       <c r="G610" s="3"/>
@@ -26295,14 +26300,14 @@
         <v>554</v>
       </c>
       <c r="B611" t="s" s="4">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C611" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D611" s="3"/>
       <c r="E611" s="6">
-        <v>522730</v>
+        <v>522850</v>
       </c>
       <c r="F611" s="3"/>
       <c r="G611" s="3"/>
@@ -26331,14 +26336,14 @@
         <v>555</v>
       </c>
       <c r="B612" t="s" s="4">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C612" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D612" s="3"/>
       <c r="E612" s="6">
-        <v>523700</v>
+        <v>522730</v>
       </c>
       <c r="F612" s="3"/>
       <c r="G612" s="3"/>
@@ -26367,7 +26372,7 @@
         <v>556</v>
       </c>
       <c r="B613" t="s" s="4">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C613" t="s" s="2">
         <v>7</v>
@@ -26403,14 +26408,14 @@
         <v>557</v>
       </c>
       <c r="B614" t="s" s="4">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C614" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D614" s="3"/>
       <c r="E614" s="6">
-        <v>522850</v>
+        <v>523700</v>
       </c>
       <c r="F614" s="3"/>
       <c r="G614" s="3"/>
@@ -26439,7 +26444,7 @@
         <v>558</v>
       </c>
       <c r="B615" t="s" s="4">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C615" t="s" s="2">
         <v>7</v>
@@ -26475,13 +26480,15 @@
         <v>559</v>
       </c>
       <c r="B616" t="s" s="4">
-        <v>511</v>
+        <v>544</v>
       </c>
       <c r="C616" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D616" s="3"/>
-      <c r="E616" s="3"/>
+      <c r="E616" s="6">
+        <v>522850</v>
+      </c>
       <c r="F616" s="3"/>
       <c r="G616" s="3"/>
       <c r="H616" s="3"/>
@@ -26509,15 +26516,13 @@
         <v>560</v>
       </c>
       <c r="B617" t="s" s="4">
-        <v>559</v>
+        <v>512</v>
       </c>
       <c r="C617" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D617" s="3"/>
-      <c r="E617" s="6">
-        <v>522840</v>
-      </c>
+      <c r="E617" s="3"/>
       <c r="F617" s="3"/>
       <c r="G617" s="3"/>
       <c r="H617" s="3"/>
@@ -26545,7 +26550,7 @@
         <v>561</v>
       </c>
       <c r="B618" t="s" s="4">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C618" t="s" s="2">
         <v>7</v>
@@ -26581,7 +26586,7 @@
         <v>562</v>
       </c>
       <c r="B619" t="s" s="4">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C619" t="s" s="2">
         <v>7</v>
@@ -26617,14 +26622,14 @@
         <v>563</v>
       </c>
       <c r="B620" t="s" s="4">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C620" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D620" s="3"/>
       <c r="E620" s="6">
-        <v>522880</v>
+        <v>522840</v>
       </c>
       <c r="F620" s="3"/>
       <c r="G620" s="3"/>
@@ -26653,7 +26658,7 @@
         <v>564</v>
       </c>
       <c r="B621" t="s" s="4">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C621" t="s" s="2">
         <v>7</v>
@@ -26689,7 +26694,7 @@
         <v>565</v>
       </c>
       <c r="B622" t="s" s="4">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C622" t="s" s="2">
         <v>7</v>
@@ -26725,7 +26730,7 @@
         <v>566</v>
       </c>
       <c r="B623" t="s" s="4">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C623" t="s" s="2">
         <v>7</v>
@@ -26761,7 +26766,7 @@
         <v>567</v>
       </c>
       <c r="B624" t="s" s="4">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C624" t="s" s="2">
         <v>7</v>
@@ -26797,13 +26802,15 @@
         <v>568</v>
       </c>
       <c r="B625" t="s" s="4">
-        <v>511</v>
+        <v>560</v>
       </c>
       <c r="C625" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D625" s="3"/>
-      <c r="E625" s="3"/>
+      <c r="E625" s="6">
+        <v>522880</v>
+      </c>
       <c r="F625" s="3"/>
       <c r="G625" s="3"/>
       <c r="H625" s="3"/>
@@ -26831,15 +26838,13 @@
         <v>569</v>
       </c>
       <c r="B626" t="s" s="4">
-        <v>568</v>
+        <v>512</v>
       </c>
       <c r="C626" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D626" s="3"/>
-      <c r="E626" s="6">
-        <v>522930</v>
-      </c>
+      <c r="E626" s="3"/>
       <c r="F626" s="3"/>
       <c r="G626" s="3"/>
       <c r="H626" s="3"/>
@@ -26867,13 +26872,15 @@
         <v>570</v>
       </c>
       <c r="B627" t="s" s="4">
-        <v>481</v>
+        <v>569</v>
       </c>
       <c r="C627" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D627" s="3"/>
-      <c r="E627" s="3"/>
+      <c r="E627" s="6">
+        <v>522930</v>
+      </c>
       <c r="F627" s="3"/>
       <c r="G627" s="3"/>
       <c r="H627" s="3"/>
@@ -26901,7 +26908,7 @@
         <v>571</v>
       </c>
       <c r="B628" t="s" s="4">
-        <v>570</v>
+        <v>482</v>
       </c>
       <c r="C628" t="s" s="2">
         <v>7</v>
@@ -26941,9 +26948,7 @@
         <v>7</v>
       </c>
       <c r="D629" s="3"/>
-      <c r="E629" s="6">
-        <v>522200</v>
-      </c>
+      <c r="E629" s="3"/>
       <c r="F629" s="3"/>
       <c r="G629" s="3"/>
       <c r="H629" s="3"/>
@@ -26971,7 +26976,7 @@
         <v>573</v>
       </c>
       <c r="B630" t="s" s="4">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C630" t="s" s="2">
         <v>7</v>
@@ -27007,7 +27012,7 @@
         <v>574</v>
       </c>
       <c r="B631" t="s" s="4">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C631" t="s" s="2">
         <v>7</v>
@@ -27043,7 +27048,7 @@
         <v>575</v>
       </c>
       <c r="B632" t="s" s="4">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C632" t="s" s="2">
         <v>7</v>
@@ -27079,7 +27084,7 @@
         <v>576</v>
       </c>
       <c r="B633" t="s" s="4">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C633" t="s" s="2">
         <v>7</v>
@@ -27115,7 +27120,7 @@
         <v>577</v>
       </c>
       <c r="B634" t="s" s="4">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C634" t="s" s="2">
         <v>7</v>
@@ -27151,7 +27156,7 @@
         <v>578</v>
       </c>
       <c r="B635" t="s" s="4">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C635" t="s" s="2">
         <v>7</v>
@@ -27187,13 +27192,15 @@
         <v>579</v>
       </c>
       <c r="B636" t="s" s="4">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="C636" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D636" s="3"/>
-      <c r="E636" s="3"/>
+      <c r="E636" s="6">
+        <v>522200</v>
+      </c>
       <c r="F636" s="3"/>
       <c r="G636" s="3"/>
       <c r="H636" s="3"/>
@@ -27221,15 +27228,13 @@
         <v>580</v>
       </c>
       <c r="B637" t="s" s="4">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="C637" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D637" s="3"/>
-      <c r="E637" s="6">
-        <v>522300</v>
-      </c>
+      <c r="E637" s="3"/>
       <c r="F637" s="3"/>
       <c r="G637" s="3"/>
       <c r="H637" s="3"/>
@@ -27257,7 +27262,7 @@
         <v>581</v>
       </c>
       <c r="B638" t="s" s="4">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C638" t="s" s="2">
         <v>7</v>
@@ -27293,7 +27298,7 @@
         <v>582</v>
       </c>
       <c r="B639" t="s" s="4">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C639" t="s" s="2">
         <v>7</v>
@@ -27329,7 +27334,7 @@
         <v>583</v>
       </c>
       <c r="B640" t="s" s="4">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C640" t="s" s="2">
         <v>7</v>
@@ -27365,7 +27370,7 @@
         <v>584</v>
       </c>
       <c r="B641" t="s" s="4">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C641" t="s" s="2">
         <v>7</v>
@@ -27401,7 +27406,7 @@
         <v>585</v>
       </c>
       <c r="B642" t="s" s="4">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C642" t="s" s="2">
         <v>7</v>
@@ -27437,7 +27442,7 @@
         <v>586</v>
       </c>
       <c r="B643" t="s" s="4">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C643" t="s" s="2">
         <v>7</v>
@@ -27473,7 +27478,7 @@
         <v>587</v>
       </c>
       <c r="B644" t="s" s="4">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C644" t="s" s="2">
         <v>7</v>
@@ -27509,7 +27514,7 @@
         <v>588</v>
       </c>
       <c r="B645" t="s" s="4">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C645" t="s" s="2">
         <v>7</v>
@@ -27545,13 +27550,15 @@
         <v>589</v>
       </c>
       <c r="B646" t="s" s="4">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="C646" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D646" s="3"/>
-      <c r="E646" s="3"/>
+      <c r="E646" s="6">
+        <v>522300</v>
+      </c>
       <c r="F646" s="3"/>
       <c r="G646" s="3"/>
       <c r="H646" s="3"/>
@@ -27579,15 +27586,13 @@
         <v>590</v>
       </c>
       <c r="B647" t="s" s="4">
-        <v>589</v>
+        <v>571</v>
       </c>
       <c r="C647" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D647" s="3"/>
-      <c r="E647" s="6">
-        <v>522410</v>
-      </c>
+      <c r="E647" s="3"/>
       <c r="F647" s="3"/>
       <c r="G647" s="3"/>
       <c r="H647" s="3"/>
@@ -27615,13 +27620,15 @@
         <v>591</v>
       </c>
       <c r="B648" t="s" s="4">
-        <v>570</v>
+        <v>590</v>
       </c>
       <c r="C648" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D648" s="3"/>
-      <c r="E648" s="3"/>
+      <c r="E648" s="6">
+        <v>522410</v>
+      </c>
       <c r="F648" s="3"/>
       <c r="G648" s="3"/>
       <c r="H648" s="3"/>
@@ -27649,15 +27656,13 @@
         <v>592</v>
       </c>
       <c r="B649" t="s" s="4">
-        <v>591</v>
+        <v>571</v>
       </c>
       <c r="C649" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D649" s="3"/>
-      <c r="E649" s="6">
-        <v>522730</v>
-      </c>
+      <c r="E649" s="3"/>
       <c r="F649" s="3"/>
       <c r="G649" s="3"/>
       <c r="H649" s="3"/>
@@ -27685,13 +27690,15 @@
         <v>593</v>
       </c>
       <c r="B650" t="s" s="4">
-        <v>481</v>
+        <v>592</v>
       </c>
       <c r="C650" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D650" s="3"/>
-      <c r="E650" s="3"/>
+      <c r="E650" s="6">
+        <v>522730</v>
+      </c>
       <c r="F650" s="3"/>
       <c r="G650" s="3"/>
       <c r="H650" s="3"/>
@@ -27719,7 +27726,7 @@
         <v>594</v>
       </c>
       <c r="B651" t="s" s="4">
-        <v>593</v>
+        <v>482</v>
       </c>
       <c r="C651" t="s" s="2">
         <v>7</v>
@@ -27759,9 +27766,7 @@
         <v>7</v>
       </c>
       <c r="D652" s="3"/>
-      <c r="E652" s="6">
-        <v>532102</v>
-      </c>
+      <c r="E652" s="3"/>
       <c r="F652" s="3"/>
       <c r="G652" s="3"/>
       <c r="H652" s="3"/>
@@ -27789,7 +27794,7 @@
         <v>596</v>
       </c>
       <c r="B653" t="s" s="4">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C653" t="s" s="2">
         <v>7</v>
@@ -27825,7 +27830,7 @@
         <v>597</v>
       </c>
       <c r="B654" t="s" s="4">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C654" t="s" s="2">
         <v>7</v>
@@ -27861,7 +27866,7 @@
         <v>598</v>
       </c>
       <c r="B655" t="s" s="4">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C655" t="s" s="2">
         <v>7</v>
@@ -27897,13 +27902,15 @@
         <v>599</v>
       </c>
       <c r="B656" t="s" s="4">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C656" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D656" s="3"/>
-      <c r="E656" s="3"/>
+      <c r="E656" s="6">
+        <v>532102</v>
+      </c>
       <c r="F656" s="3"/>
       <c r="G656" s="3"/>
       <c r="H656" s="3"/>
@@ -27931,15 +27938,13 @@
         <v>600</v>
       </c>
       <c r="B657" t="s" s="4">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="C657" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D657" s="3"/>
-      <c r="E657" s="6">
-        <v>533104</v>
-      </c>
+      <c r="E657" s="3"/>
       <c r="F657" s="3"/>
       <c r="G657" s="3"/>
       <c r="H657" s="3"/>
@@ -27967,14 +27972,14 @@
         <v>601</v>
       </c>
       <c r="B658" t="s" s="4">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C658" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D658" s="3"/>
       <c r="E658" s="6">
-        <v>533105</v>
+        <v>533104</v>
       </c>
       <c r="F658" s="3"/>
       <c r="G658" s="3"/>
@@ -28003,14 +28008,14 @@
         <v>602</v>
       </c>
       <c r="B659" t="s" s="4">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C659" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D659" s="3"/>
       <c r="E659" s="6">
-        <v>533707</v>
+        <v>533105</v>
       </c>
       <c r="F659" s="3"/>
       <c r="G659" s="3"/>
@@ -28039,13 +28044,15 @@
         <v>603</v>
       </c>
       <c r="B660" t="s" s="4">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="C660" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D660" s="3"/>
-      <c r="E660" s="3"/>
+      <c r="E660" s="6">
+        <v>533707</v>
+      </c>
       <c r="F660" s="3"/>
       <c r="G660" s="3"/>
       <c r="H660" s="3"/>
@@ -28073,15 +28080,13 @@
         <v>604</v>
       </c>
       <c r="B661" t="s" s="4">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="C661" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D661" s="3"/>
-      <c r="E661" s="6">
-        <v>533106</v>
-      </c>
+      <c r="E661" s="3"/>
       <c r="F661" s="3"/>
       <c r="G661" s="3"/>
       <c r="H661" s="3"/>
@@ -28109,7 +28114,7 @@
         <v>605</v>
       </c>
       <c r="B662" t="s" s="4">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C662" t="s" s="2">
         <v>7</v>
@@ -28145,7 +28150,7 @@
         <v>606</v>
       </c>
       <c r="B663" t="s" s="4">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C663" t="s" s="2">
         <v>7</v>
@@ -28181,7 +28186,7 @@
         <v>607</v>
       </c>
       <c r="B664" t="s" s="4">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C664" t="s" s="2">
         <v>7</v>
@@ -28217,13 +28222,15 @@
         <v>608</v>
       </c>
       <c r="B665" t="s" s="4">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="C665" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D665" s="3"/>
-      <c r="E665" s="3"/>
+      <c r="E665" s="6">
+        <v>533106</v>
+      </c>
       <c r="F665" s="3"/>
       <c r="G665" s="3"/>
       <c r="H665" s="3"/>
@@ -28251,15 +28258,13 @@
         <v>609</v>
       </c>
       <c r="B666" t="s" s="4">
-        <v>608</v>
+        <v>594</v>
       </c>
       <c r="C666" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D666" s="3"/>
-      <c r="E666" s="6">
-        <v>533201</v>
-      </c>
+      <c r="E666" s="3"/>
       <c r="F666" s="3"/>
       <c r="G666" s="3"/>
       <c r="H666" s="3"/>
@@ -28287,14 +28292,14 @@
         <v>610</v>
       </c>
       <c r="B667" t="s" s="4">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C667" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D667" s="3"/>
       <c r="E667" s="6">
-        <v>533202</v>
+        <v>533201</v>
       </c>
       <c r="F667" s="3"/>
       <c r="G667" s="3"/>
@@ -28323,14 +28328,14 @@
         <v>611</v>
       </c>
       <c r="B668" t="s" s="4">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C668" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D668" s="3"/>
       <c r="E668" s="6">
-        <v>533204</v>
+        <v>533202</v>
       </c>
       <c r="F668" s="3"/>
       <c r="G668" s="3"/>
@@ -28359,13 +28364,15 @@
         <v>612</v>
       </c>
       <c r="B669" t="s" s="4">
-        <v>593</v>
+        <v>609</v>
       </c>
       <c r="C669" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D669" s="3"/>
-      <c r="E669" s="3"/>
+      <c r="E669" s="6">
+        <v>533204</v>
+      </c>
       <c r="F669" s="3"/>
       <c r="G669" s="3"/>
       <c r="H669" s="3"/>
@@ -28390,18 +28397,16 @@
     </row>
     <row r="670" ht="19.5" customHeight="1">
       <c r="A670" t="s" s="4">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B670" t="s" s="4">
-        <v>612</v>
+        <v>594</v>
       </c>
       <c r="C670" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D670" s="3"/>
-      <c r="E670" s="6">
-        <v>533203</v>
-      </c>
+      <c r="E670" s="3"/>
       <c r="F670" s="3"/>
       <c r="G670" s="3"/>
       <c r="H670" s="3"/>
@@ -28429,13 +28434,15 @@
         <v>613</v>
       </c>
       <c r="B671" t="s" s="4">
-        <v>593</v>
+        <v>613</v>
       </c>
       <c r="C671" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D671" s="3"/>
-      <c r="E671" s="3"/>
+      <c r="E671" s="6">
+        <v>533203</v>
+      </c>
       <c r="F671" s="3"/>
       <c r="G671" s="3"/>
       <c r="H671" s="3"/>
@@ -28463,15 +28470,13 @@
         <v>614</v>
       </c>
       <c r="B672" t="s" s="4">
-        <v>613</v>
+        <v>594</v>
       </c>
       <c r="C672" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D672" s="3"/>
-      <c r="E672" s="6">
-        <v>533701</v>
-      </c>
+      <c r="E672" s="3"/>
       <c r="F672" s="3"/>
       <c r="G672" s="3"/>
       <c r="H672" s="3"/>
@@ -28499,14 +28504,14 @@
         <v>615</v>
       </c>
       <c r="B673" t="s" s="4">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C673" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D673" s="3"/>
       <c r="E673" s="6">
-        <v>533703</v>
+        <v>533701</v>
       </c>
       <c r="F673" s="3"/>
       <c r="G673" s="3"/>
@@ -28535,14 +28540,14 @@
         <v>616</v>
       </c>
       <c r="B674" t="s" s="4">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C674" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D674" s="3"/>
       <c r="E674" s="6">
-        <v>533704</v>
+        <v>533703</v>
       </c>
       <c r="F674" s="3"/>
       <c r="G674" s="3"/>
@@ -28571,14 +28576,14 @@
         <v>617</v>
       </c>
       <c r="B675" t="s" s="4">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C675" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D675" s="3"/>
       <c r="E675" s="6">
-        <v>533706</v>
+        <v>533704</v>
       </c>
       <c r="F675" s="3"/>
       <c r="G675" s="3"/>
@@ -28607,14 +28612,14 @@
         <v>618</v>
       </c>
       <c r="B676" t="s" s="4">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C676" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D676" s="3"/>
       <c r="E676" s="6">
-        <v>533708</v>
+        <v>533706</v>
       </c>
       <c r="F676" s="3"/>
       <c r="G676" s="3"/>
@@ -28643,14 +28648,14 @@
         <v>619</v>
       </c>
       <c r="B677" t="s" s="4">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C677" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D677" s="3"/>
       <c r="E677" s="6">
-        <v>533709</v>
+        <v>533708</v>
       </c>
       <c r="F677" s="3"/>
       <c r="G677" s="3"/>
@@ -28679,7 +28684,7 @@
         <v>620</v>
       </c>
       <c r="B678" t="s" s="4">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C678" t="s" s="2">
         <v>7</v>
@@ -28715,14 +28720,14 @@
         <v>621</v>
       </c>
       <c r="B679" t="s" s="4">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C679" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D679" s="3"/>
       <c r="E679" s="6">
-        <v>533735</v>
+        <v>533709</v>
       </c>
       <c r="F679" s="3"/>
       <c r="G679" s="3"/>
@@ -28751,13 +28756,15 @@
         <v>622</v>
       </c>
       <c r="B680" t="s" s="4">
-        <v>593</v>
+        <v>614</v>
       </c>
       <c r="C680" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D680" s="3"/>
-      <c r="E680" s="3"/>
+      <c r="E680" s="6">
+        <v>533735</v>
+      </c>
       <c r="F680" s="3"/>
       <c r="G680" s="3"/>
       <c r="H680" s="3"/>
@@ -28785,15 +28792,13 @@
         <v>623</v>
       </c>
       <c r="B681" t="s" s="4">
-        <v>622</v>
+        <v>594</v>
       </c>
       <c r="C681" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D681" s="3"/>
-      <c r="E681" s="6">
-        <v>533710</v>
-      </c>
+      <c r="E681" s="3"/>
       <c r="F681" s="3"/>
       <c r="G681" s="3"/>
       <c r="H681" s="3"/>
@@ -28821,7 +28826,7 @@
         <v>624</v>
       </c>
       <c r="B682" t="s" s="4">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C682" t="s" s="2">
         <v>7</v>
@@ -28857,7 +28862,7 @@
         <v>625</v>
       </c>
       <c r="B683" t="s" s="4">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C683" t="s" s="2">
         <v>7</v>
@@ -28893,7 +28898,7 @@
         <v>626</v>
       </c>
       <c r="B684" t="s" s="4">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C684" t="s" s="2">
         <v>7</v>
@@ -28929,7 +28934,7 @@
         <v>627</v>
       </c>
       <c r="B685" t="s" s="4">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C685" t="s" s="2">
         <v>7</v>
@@ -28965,7 +28970,7 @@
         <v>628</v>
       </c>
       <c r="B686" t="s" s="4">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C686" t="s" s="2">
         <v>7</v>
@@ -29001,7 +29006,7 @@
         <v>629</v>
       </c>
       <c r="B687" t="s" s="4">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C687" t="s" s="2">
         <v>7</v>
@@ -29037,14 +29042,14 @@
         <v>630</v>
       </c>
       <c r="B688" t="s" s="4">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C688" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D688" s="3"/>
       <c r="E688" s="6">
-        <v>533717</v>
+        <v>533710</v>
       </c>
       <c r="F688" s="3"/>
       <c r="G688" s="3"/>
@@ -29073,13 +29078,15 @@
         <v>631</v>
       </c>
       <c r="B689" t="s" s="4">
-        <v>593</v>
+        <v>623</v>
       </c>
       <c r="C689" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D689" s="3"/>
-      <c r="E689" s="3"/>
+      <c r="E689" s="6">
+        <v>533717</v>
+      </c>
       <c r="F689" s="3"/>
       <c r="G689" s="3"/>
       <c r="H689" s="3"/>
@@ -29107,15 +29114,13 @@
         <v>632</v>
       </c>
       <c r="B690" t="s" s="4">
-        <v>631</v>
+        <v>594</v>
       </c>
       <c r="C690" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D690" s="3"/>
-      <c r="E690" s="6">
-        <v>519400</v>
-      </c>
+      <c r="E690" s="3"/>
       <c r="F690" s="3"/>
       <c r="G690" s="3"/>
       <c r="H690" s="3"/>
@@ -29143,14 +29148,14 @@
         <v>633</v>
       </c>
       <c r="B691" t="s" s="4">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C691" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D691" s="3"/>
       <c r="E691" s="6">
-        <v>533714</v>
+        <v>519400</v>
       </c>
       <c r="F691" s="3"/>
       <c r="G691" s="3"/>
@@ -29179,7 +29184,7 @@
         <v>634</v>
       </c>
       <c r="B692" t="s" s="4">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C692" t="s" s="2">
         <v>7</v>
@@ -29215,13 +29220,15 @@
         <v>635</v>
       </c>
       <c r="B693" t="s" s="4">
-        <v>593</v>
+        <v>632</v>
       </c>
       <c r="C693" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D693" s="3"/>
-      <c r="E693" s="3"/>
+      <c r="E693" s="6">
+        <v>533714</v>
+      </c>
       <c r="F693" s="3"/>
       <c r="G693" s="3"/>
       <c r="H693" s="3"/>
@@ -29249,15 +29256,13 @@
         <v>636</v>
       </c>
       <c r="B694" t="s" s="4">
-        <v>635</v>
+        <v>594</v>
       </c>
       <c r="C694" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D694" s="3"/>
-      <c r="E694" s="6">
-        <v>533734</v>
-      </c>
+      <c r="E694" s="3"/>
       <c r="F694" s="3"/>
       <c r="G694" s="3"/>
       <c r="H694" s="3"/>
@@ -29285,7 +29290,7 @@
         <v>637</v>
       </c>
       <c r="B695" t="s" s="4">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C695" t="s" s="2">
         <v>7</v>
@@ -29321,7 +29326,7 @@
         <v>638</v>
       </c>
       <c r="B696" t="s" s="4">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C696" t="s" s="2">
         <v>7</v>
@@ -29357,13 +29362,15 @@
         <v>639</v>
       </c>
       <c r="B697" t="s" s="4">
-        <v>6</v>
+        <v>636</v>
       </c>
       <c r="C697" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D697" s="3"/>
-      <c r="E697" s="3"/>
+      <c r="E697" s="6">
+        <v>533734</v>
+      </c>
       <c r="F697" s="3"/>
       <c r="G697" s="3"/>
       <c r="H697" s="3"/>
@@ -29391,7 +29398,7 @@
         <v>640</v>
       </c>
       <c r="B698" t="s" s="4">
-        <v>639</v>
+        <v>6</v>
       </c>
       <c r="C698" t="s" s="2">
         <v>7</v>
@@ -29464,9 +29471,7 @@
       <c r="C700" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="D700" s="6">
-        <v>421000</v>
-      </c>
+      <c r="D700" s="3"/>
       <c r="E700" s="3"/>
       <c r="F700" s="3"/>
       <c r="G700" s="3"/>
@@ -29495,7 +29500,7 @@
         <v>643</v>
       </c>
       <c r="B701" t="s" s="4">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C701" t="s" s="2">
         <v>7</v>
@@ -29531,7 +29536,7 @@
         <v>644</v>
       </c>
       <c r="B702" t="s" s="4">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C702" t="s" s="2">
         <v>7</v>
@@ -29567,7 +29572,7 @@
         <v>645</v>
       </c>
       <c r="B703" t="s" s="4">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C703" t="s" s="2">
         <v>7</v>
@@ -29603,12 +29608,14 @@
         <v>646</v>
       </c>
       <c r="B704" t="s" s="4">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="C704" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="D704" s="3"/>
+      <c r="D704" s="6">
+        <v>421000</v>
+      </c>
       <c r="E704" s="3"/>
       <c r="F704" s="3"/>
       <c r="G704" s="3"/>
@@ -29634,17 +29641,15 @@
     </row>
     <row r="705" ht="19.5" customHeight="1">
       <c r="A705" t="s" s="4">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B705" t="s" s="4">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="C705" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="D705" s="6">
-        <v>421000</v>
-      </c>
+      <c r="D705" s="3"/>
       <c r="E705" s="3"/>
       <c r="F705" s="3"/>
       <c r="G705" s="3"/>
@@ -29673,12 +29678,14 @@
         <v>647</v>
       </c>
       <c r="B706" t="s" s="4">
-        <v>640</v>
+        <v>647</v>
       </c>
       <c r="C706" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="D706" s="3"/>
+      <c r="D706" s="6">
+        <v>421000</v>
+      </c>
       <c r="E706" s="3"/>
       <c r="F706" s="3"/>
       <c r="G706" s="3"/>
@@ -29704,17 +29711,15 @@
     </row>
     <row r="707" ht="19.5" customHeight="1">
       <c r="A707" t="s" s="4">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B707" t="s" s="4">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="C707" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="D707" s="6">
-        <v>421000</v>
-      </c>
+      <c r="D707" s="3"/>
       <c r="E707" s="3"/>
       <c r="F707" s="3"/>
       <c r="G707" s="3"/>
@@ -29743,12 +29748,14 @@
         <v>648</v>
       </c>
       <c r="B708" t="s" s="4">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="C708" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="D708" s="3"/>
+      <c r="D708" s="6">
+        <v>421000</v>
+      </c>
       <c r="E708" s="3"/>
       <c r="F708" s="3"/>
       <c r="G708" s="3"/>
@@ -29774,17 +29781,15 @@
     </row>
     <row r="709" ht="19.5" customHeight="1">
       <c r="A709" t="s" s="4">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B709" t="s" s="4">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="C709" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="D709" s="6">
-        <v>421000</v>
-      </c>
+      <c r="D709" s="3"/>
       <c r="E709" s="3"/>
       <c r="F709" s="3"/>
       <c r="G709" s="3"/>
@@ -29813,12 +29818,14 @@
         <v>649</v>
       </c>
       <c r="B710" t="s" s="4">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="C710" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="D710" s="3"/>
+      <c r="D710" s="6">
+        <v>421000</v>
+      </c>
       <c r="E710" s="3"/>
       <c r="F710" s="3"/>
       <c r="G710" s="3"/>
@@ -29844,17 +29851,15 @@
     </row>
     <row r="711" ht="19.5" customHeight="1">
       <c r="A711" t="s" s="4">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B711" t="s" s="4">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="C711" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="D711" s="6">
-        <v>422000</v>
-      </c>
+      <c r="D711" s="3"/>
       <c r="E711" s="3"/>
       <c r="F711" s="3"/>
       <c r="G711" s="3"/>
@@ -29883,12 +29888,14 @@
         <v>650</v>
       </c>
       <c r="B712" t="s" s="4">
-        <v>640</v>
+        <v>650</v>
       </c>
       <c r="C712" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="D712" s="3"/>
+      <c r="D712" s="6">
+        <v>422000</v>
+      </c>
       <c r="E712" s="3"/>
       <c r="F712" s="3"/>
       <c r="G712" s="3"/>
@@ -29914,17 +29921,15 @@
     </row>
     <row r="713" ht="19.5" customHeight="1">
       <c r="A713" t="s" s="4">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B713" t="s" s="4">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="C713" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="D713" s="6">
-        <v>421000</v>
-      </c>
+      <c r="D713" s="3"/>
       <c r="E713" s="3"/>
       <c r="F713" s="3"/>
       <c r="G713" s="3"/>
@@ -29953,10 +29958,14 @@
         <v>651</v>
       </c>
       <c r="B714" t="s" s="4">
-        <v>6</v>
-      </c>
-      <c r="C714" s="3"/>
-      <c r="D714" s="3"/>
+        <v>651</v>
+      </c>
+      <c r="C714" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="D714" s="6">
+        <v>421000</v>
+      </c>
       <c r="E714" s="3"/>
       <c r="F714" s="3"/>
       <c r="G714" s="3"/>
@@ -29985,7 +29994,7 @@
         <v>652</v>
       </c>
       <c r="B715" t="s" s="4">
-        <v>651</v>
+        <v>6</v>
       </c>
       <c r="C715" s="3"/>
       <c r="D715" s="3"/>
@@ -30053,9 +30062,7 @@
       </c>
       <c r="C717" s="3"/>
       <c r="D717" s="3"/>
-      <c r="E717" s="6">
-        <v>122101</v>
-      </c>
+      <c r="E717" s="3"/>
       <c r="F717" s="3"/>
       <c r="G717" s="3"/>
       <c r="H717" s="3"/>
@@ -30083,12 +30090,12 @@
         <v>655</v>
       </c>
       <c r="B718" t="s" s="4">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C718" s="3"/>
       <c r="D718" s="3"/>
       <c r="E718" s="6">
-        <v>122102</v>
+        <v>122101</v>
       </c>
       <c r="F718" s="3"/>
       <c r="G718" s="3"/>
@@ -30117,12 +30124,12 @@
         <v>656</v>
       </c>
       <c r="B719" t="s" s="4">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C719" s="3"/>
       <c r="D719" s="3"/>
       <c r="E719" s="6">
-        <v>122103</v>
+        <v>122102</v>
       </c>
       <c r="F719" s="3"/>
       <c r="G719" s="3"/>
@@ -30151,11 +30158,13 @@
         <v>657</v>
       </c>
       <c r="B720" t="s" s="4">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="C720" s="3"/>
       <c r="D720" s="3"/>
-      <c r="E720" s="3"/>
+      <c r="E720" s="6">
+        <v>122103</v>
+      </c>
       <c r="F720" s="3"/>
       <c r="G720" s="3"/>
       <c r="H720" s="3"/>
@@ -30183,13 +30192,11 @@
         <v>658</v>
       </c>
       <c r="B721" t="s" s="4">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="C721" s="3"/>
       <c r="D721" s="3"/>
-      <c r="E721" s="6">
-        <v>122105</v>
-      </c>
+      <c r="E721" s="3"/>
       <c r="F721" s="3"/>
       <c r="G721" s="3"/>
       <c r="H721" s="3"/>
@@ -30217,12 +30224,12 @@
         <v>659</v>
       </c>
       <c r="B722" t="s" s="4">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C722" s="3"/>
       <c r="D722" s="3"/>
       <c r="E722" s="6">
-        <v>122106</v>
+        <v>122105</v>
       </c>
       <c r="F722" s="3"/>
       <c r="G722" s="3"/>
@@ -30251,11 +30258,13 @@
         <v>660</v>
       </c>
       <c r="B723" t="s" s="4">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="C723" s="3"/>
       <c r="D723" s="3"/>
-      <c r="E723" s="3"/>
+      <c r="E723" s="6">
+        <v>122106</v>
+      </c>
       <c r="F723" s="3"/>
       <c r="G723" s="3"/>
       <c r="H723" s="3"/>
@@ -30283,13 +30292,11 @@
         <v>661</v>
       </c>
       <c r="B724" t="s" s="4">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="C724" s="3"/>
       <c r="D724" s="3"/>
-      <c r="E724" s="6">
-        <v>122107</v>
-      </c>
+      <c r="E724" s="3"/>
       <c r="F724" s="3"/>
       <c r="G724" s="3"/>
       <c r="H724" s="3"/>
@@ -30317,12 +30324,12 @@
         <v>662</v>
       </c>
       <c r="B725" t="s" s="4">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C725" s="3"/>
       <c r="D725" s="3"/>
       <c r="E725" s="6">
-        <v>122108</v>
+        <v>122107</v>
       </c>
       <c r="F725" s="3"/>
       <c r="G725" s="3"/>
@@ -30351,11 +30358,13 @@
         <v>663</v>
       </c>
       <c r="B726" t="s" s="4">
-        <v>652</v>
+        <v>661</v>
       </c>
       <c r="C726" s="3"/>
       <c r="D726" s="3"/>
-      <c r="E726" s="3"/>
+      <c r="E726" s="6">
+        <v>122108</v>
+      </c>
       <c r="F726" s="3"/>
       <c r="G726" s="3"/>
       <c r="H726" s="3"/>
@@ -30383,13 +30392,11 @@
         <v>664</v>
       </c>
       <c r="B727" t="s" s="4">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="C727" s="3"/>
       <c r="D727" s="3"/>
-      <c r="E727" s="6">
-        <v>122109</v>
-      </c>
+      <c r="E727" s="3"/>
       <c r="F727" s="3"/>
       <c r="G727" s="3"/>
       <c r="H727" s="3"/>
@@ -30417,7 +30424,7 @@
         <v>665</v>
       </c>
       <c r="B728" t="s" s="4">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C728" s="3"/>
       <c r="D728" s="3"/>
@@ -30451,7 +30458,7 @@
         <v>666</v>
       </c>
       <c r="B729" t="s" s="4">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C729" s="3"/>
       <c r="D729" s="3"/>
@@ -30485,7 +30492,7 @@
         <v>667</v>
       </c>
       <c r="B730" t="s" s="4">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C730" s="3"/>
       <c r="D730" s="3"/>
@@ -30519,11 +30526,13 @@
         <v>668</v>
       </c>
       <c r="B731" t="s" s="4">
-        <v>652</v>
+        <v>664</v>
       </c>
       <c r="C731" s="3"/>
       <c r="D731" s="3"/>
-      <c r="E731" s="3"/>
+      <c r="E731" s="6">
+        <v>122109</v>
+      </c>
       <c r="F731" s="3"/>
       <c r="G731" s="3"/>
       <c r="H731" s="3"/>
@@ -30551,13 +30560,11 @@
         <v>669</v>
       </c>
       <c r="B732" t="s" s="4">
-        <v>668</v>
+        <v>653</v>
       </c>
       <c r="C732" s="3"/>
       <c r="D732" s="3"/>
-      <c r="E732" s="6">
-        <v>122116</v>
-      </c>
+      <c r="E732" s="3"/>
       <c r="F732" s="3"/>
       <c r="G732" s="3"/>
       <c r="H732" s="3"/>
@@ -30585,7 +30592,7 @@
         <v>670</v>
       </c>
       <c r="B733" t="s" s="4">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C733" s="3"/>
       <c r="D733" s="3"/>
@@ -30619,7 +30626,7 @@
         <v>671</v>
       </c>
       <c r="B734" t="s" s="4">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C734" s="3"/>
       <c r="D734" s="3"/>
@@ -30653,7 +30660,7 @@
         <v>672</v>
       </c>
       <c r="B735" t="s" s="4">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C735" s="3"/>
       <c r="D735" s="3"/>
@@ -30687,7 +30694,7 @@
         <v>673</v>
       </c>
       <c r="B736" t="s" s="4">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C736" s="3"/>
       <c r="D736" s="3"/>
@@ -30721,7 +30728,7 @@
         <v>674</v>
       </c>
       <c r="B737" t="s" s="4">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C737" s="3"/>
       <c r="D737" s="3"/>
@@ -30755,7 +30762,7 @@
         <v>675</v>
       </c>
       <c r="B738" t="s" s="4">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C738" s="3"/>
       <c r="D738" s="3"/>
@@ -30789,7 +30796,7 @@
         <v>676</v>
       </c>
       <c r="B739" t="s" s="4">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C739" s="3"/>
       <c r="D739" s="3"/>
@@ -30823,7 +30830,7 @@
         <v>677</v>
       </c>
       <c r="B740" t="s" s="4">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C740" s="3"/>
       <c r="D740" s="3"/>
@@ -30857,7 +30864,7 @@
         <v>678</v>
       </c>
       <c r="B741" t="s" s="4">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C741" s="3"/>
       <c r="D741" s="3"/>
@@ -30891,7 +30898,7 @@
         <v>679</v>
       </c>
       <c r="B742" t="s" s="4">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C742" s="3"/>
       <c r="D742" s="3"/>
@@ -30925,7 +30932,7 @@
         <v>680</v>
       </c>
       <c r="B743" t="s" s="4">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C743" s="3"/>
       <c r="D743" s="3"/>
@@ -30959,11 +30966,13 @@
         <v>681</v>
       </c>
       <c r="B744" t="s" s="4">
-        <v>652</v>
+        <v>669</v>
       </c>
       <c r="C744" s="3"/>
       <c r="D744" s="3"/>
-      <c r="E744" s="3"/>
+      <c r="E744" s="6">
+        <v>122116</v>
+      </c>
       <c r="F744" s="3"/>
       <c r="G744" s="3"/>
       <c r="H744" s="3"/>
@@ -30991,13 +31000,11 @@
         <v>682</v>
       </c>
       <c r="B745" t="s" s="4">
-        <v>681</v>
+        <v>653</v>
       </c>
       <c r="C745" s="3"/>
       <c r="D745" s="3"/>
-      <c r="E745" s="6">
-        <v>122110</v>
-      </c>
+      <c r="E745" s="3"/>
       <c r="F745" s="3"/>
       <c r="G745" s="3"/>
       <c r="H745" s="3"/>
@@ -31025,7 +31032,7 @@
         <v>683</v>
       </c>
       <c r="B746" t="s" s="4">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C746" s="3"/>
       <c r="D746" s="3"/>
@@ -31059,12 +31066,12 @@
         <v>684</v>
       </c>
       <c r="B747" t="s" s="4">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C747" s="3"/>
       <c r="D747" s="3"/>
       <c r="E747" s="6">
-        <v>122111</v>
+        <v>122110</v>
       </c>
       <c r="F747" s="3"/>
       <c r="G747" s="3"/>
@@ -31093,12 +31100,12 @@
         <v>685</v>
       </c>
       <c r="B748" t="s" s="4">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C748" s="3"/>
       <c r="D748" s="3"/>
       <c r="E748" s="6">
-        <v>122110</v>
+        <v>122111</v>
       </c>
       <c r="F748" s="3"/>
       <c r="G748" s="3"/>
@@ -31127,11 +31134,13 @@
         <v>686</v>
       </c>
       <c r="B749" t="s" s="4">
-        <v>652</v>
+        <v>682</v>
       </c>
       <c r="C749" s="3"/>
       <c r="D749" s="3"/>
-      <c r="E749" s="3"/>
+      <c r="E749" s="6">
+        <v>122110</v>
+      </c>
       <c r="F749" s="3"/>
       <c r="G749" s="3"/>
       <c r="H749" s="3"/>
@@ -31156,16 +31165,14 @@
     </row>
     <row r="750" ht="19.5" customHeight="1">
       <c r="A750" t="s" s="4">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B750" t="s" s="4">
-        <v>686</v>
+        <v>653</v>
       </c>
       <c r="C750" s="3"/>
       <c r="D750" s="3"/>
-      <c r="E750" s="6">
-        <v>122114</v>
-      </c>
+      <c r="E750" s="3"/>
       <c r="F750" s="3"/>
       <c r="G750" s="3"/>
       <c r="H750" s="3"/>
@@ -31193,12 +31200,12 @@
         <v>687</v>
       </c>
       <c r="B751" t="s" s="4">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C751" s="3"/>
       <c r="D751" s="3"/>
       <c r="E751" s="6">
-        <v>122115</v>
+        <v>122114</v>
       </c>
       <c r="F751" s="3"/>
       <c r="G751" s="3"/>
@@ -31227,11 +31234,13 @@
         <v>688</v>
       </c>
       <c r="B752" t="s" s="4">
-        <v>652</v>
+        <v>687</v>
       </c>
       <c r="C752" s="3"/>
       <c r="D752" s="3"/>
-      <c r="E752" s="3"/>
+      <c r="E752" s="6">
+        <v>122115</v>
+      </c>
       <c r="F752" s="3"/>
       <c r="G752" s="3"/>
       <c r="H752" s="3"/>
@@ -31259,13 +31268,11 @@
         <v>689</v>
       </c>
       <c r="B753" t="s" s="4">
-        <v>688</v>
+        <v>653</v>
       </c>
       <c r="C753" s="3"/>
       <c r="D753" s="3"/>
-      <c r="E753" s="6">
-        <v>122117</v>
-      </c>
+      <c r="E753" s="3"/>
       <c r="F753" s="3"/>
       <c r="G753" s="3"/>
       <c r="H753" s="3"/>
@@ -31293,7 +31300,7 @@
         <v>690</v>
       </c>
       <c r="B754" t="s" s="4">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C754" s="3"/>
       <c r="D754" s="3"/>
@@ -31327,7 +31334,7 @@
         <v>691</v>
       </c>
       <c r="B755" t="s" s="4">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C755" s="3"/>
       <c r="D755" s="3"/>
@@ -31361,7 +31368,7 @@
         <v>692</v>
       </c>
       <c r="B756" t="s" s="4">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C756" s="3"/>
       <c r="D756" s="3"/>
@@ -31391,11 +31398,11 @@
       <c r="Z756" s="3"/>
     </row>
     <row r="757" ht="19.5" customHeight="1">
-      <c r="A757" t="s" s="2">
+      <c r="A757" t="s" s="4">
         <v>693</v>
       </c>
-      <c r="B757" t="s" s="2">
-        <v>688</v>
+      <c r="B757" t="s" s="4">
+        <v>689</v>
       </c>
       <c r="C757" s="3"/>
       <c r="D757" s="3"/>
@@ -31429,7 +31436,7 @@
         <v>694</v>
       </c>
       <c r="B758" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C758" s="3"/>
       <c r="D758" s="3"/>
@@ -31463,7 +31470,7 @@
         <v>695</v>
       </c>
       <c r="B759" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C759" s="3"/>
       <c r="D759" s="3"/>
@@ -31497,7 +31504,7 @@
         <v>696</v>
       </c>
       <c r="B760" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C760" s="3"/>
       <c r="D760" s="3"/>
@@ -31531,7 +31538,7 @@
         <v>697</v>
       </c>
       <c r="B761" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C761" s="3"/>
       <c r="D761" s="3"/>
@@ -31565,7 +31572,7 @@
         <v>698</v>
       </c>
       <c r="B762" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C762" s="3"/>
       <c r="D762" s="3"/>
@@ -31599,7 +31606,7 @@
         <v>699</v>
       </c>
       <c r="B763" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C763" s="3"/>
       <c r="D763" s="3"/>
@@ -31633,7 +31640,7 @@
         <v>700</v>
       </c>
       <c r="B764" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C764" s="3"/>
       <c r="D764" s="3"/>
@@ -31667,7 +31674,7 @@
         <v>701</v>
       </c>
       <c r="B765" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C765" s="3"/>
       <c r="D765" s="3"/>
@@ -31701,7 +31708,7 @@
         <v>702</v>
       </c>
       <c r="B766" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C766" s="3"/>
       <c r="D766" s="3"/>
@@ -31735,7 +31742,7 @@
         <v>703</v>
       </c>
       <c r="B767" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C767" s="3"/>
       <c r="D767" s="3"/>
@@ -31769,11 +31776,13 @@
         <v>704</v>
       </c>
       <c r="B768" t="s" s="2">
-        <v>652</v>
+        <v>689</v>
       </c>
       <c r="C768" s="3"/>
       <c r="D768" s="3"/>
-      <c r="E768" s="3"/>
+      <c r="E768" s="6">
+        <v>122117</v>
+      </c>
       <c r="F768" s="3"/>
       <c r="G768" s="3"/>
       <c r="H768" s="3"/>
@@ -31801,13 +31810,11 @@
         <v>705</v>
       </c>
       <c r="B769" t="s" s="2">
-        <v>704</v>
+        <v>653</v>
       </c>
       <c r="C769" s="3"/>
       <c r="D769" s="3"/>
-      <c r="E769" s="6">
-        <v>123108</v>
-      </c>
+      <c r="E769" s="3"/>
       <c r="F769" s="3"/>
       <c r="G769" s="3"/>
       <c r="H769" s="3"/>
@@ -31835,7 +31842,7 @@
         <v>706</v>
       </c>
       <c r="B770" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C770" s="3"/>
       <c r="D770" s="3"/>
@@ -31869,11 +31876,13 @@
         <v>707</v>
       </c>
       <c r="B771" t="s" s="2">
-        <v>652</v>
+        <v>705</v>
       </c>
       <c r="C771" s="3"/>
       <c r="D771" s="3"/>
-      <c r="E771" s="3"/>
+      <c r="E771" s="6">
+        <v>123108</v>
+      </c>
       <c r="F771" s="3"/>
       <c r="G771" s="3"/>
       <c r="H771" s="3"/>
@@ -31901,13 +31910,11 @@
         <v>708</v>
       </c>
       <c r="B772" t="s" s="2">
-        <v>707</v>
+        <v>653</v>
       </c>
       <c r="C772" s="3"/>
       <c r="D772" s="3"/>
-      <c r="E772" s="6">
-        <v>122119</v>
-      </c>
+      <c r="E772" s="3"/>
       <c r="F772" s="3"/>
       <c r="G772" s="3"/>
       <c r="H772" s="3"/>
@@ -31932,15 +31939,15 @@
     </row>
     <row r="773" ht="19.5" customHeight="1">
       <c r="A773" t="s" s="2">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="B773" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C773" s="3"/>
       <c r="D773" s="3"/>
       <c r="E773" s="6">
-        <v>123108</v>
+        <v>122119</v>
       </c>
       <c r="F773" s="3"/>
       <c r="G773" s="3"/>
@@ -31965,11 +31972,17 @@
       <c r="Z773" s="3"/>
     </row>
     <row r="774" ht="19.5" customHeight="1">
-      <c r="A774" s="3"/>
-      <c r="B774" s="3"/>
+      <c r="A774" t="s" s="2">
+        <v>708</v>
+      </c>
+      <c r="B774" t="s" s="2">
+        <v>708</v>
+      </c>
       <c r="C774" s="3"/>
       <c r="D774" s="3"/>
-      <c r="E774" s="3"/>
+      <c r="E774" s="6">
+        <v>123108</v>
+      </c>
       <c r="F774" s="3"/>
       <c r="G774" s="3"/>
       <c r="H774" s="3"/>
@@ -38320,6 +38333,34 @@
       <c r="Y1000" s="3"/>
       <c r="Z1000" s="3"/>
     </row>
+    <row r="1001" ht="19.5" customHeight="1">
+      <c r="A1001" s="3"/>
+      <c r="B1001" s="3"/>
+      <c r="C1001" s="3"/>
+      <c r="D1001" s="3"/>
+      <c r="E1001" s="3"/>
+      <c r="F1001" s="3"/>
+      <c r="G1001" s="3"/>
+      <c r="H1001" s="3"/>
+      <c r="I1001" s="3"/>
+      <c r="J1001" s="3"/>
+      <c r="K1001" s="3"/>
+      <c r="L1001" s="3"/>
+      <c r="M1001" s="3"/>
+      <c r="N1001" s="3"/>
+      <c r="O1001" s="3"/>
+      <c r="P1001" s="3"/>
+      <c r="Q1001" s="3"/>
+      <c r="R1001" s="3"/>
+      <c r="S1001" s="3"/>
+      <c r="T1001" s="3"/>
+      <c r="U1001" s="3"/>
+      <c r="V1001" s="3"/>
+      <c r="W1001" s="3"/>
+      <c r="X1001" s="3"/>
+      <c r="Y1001" s="3"/>
+      <c r="Z1001" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/Data_file/product_category_import.xlsx
+++ b/Data_file/product_category_import.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2265" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2265" uniqueCount="710">
   <si>
     <t>product_category_import</t>
   </si>
@@ -733,9 +733,6 @@
   </si>
   <si>
     <t>แผ่นสำเร็จปิดผิว</t>
-  </si>
-  <si>
-    <t>01 พลาสวู้ด</t>
   </si>
   <si>
     <t>โครงบันได A</t>
@@ -3376,8 +3373,8 @@
   </sheetPr>
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="C146" sqref="C146"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A271" workbookViewId="0">
+      <selection activeCell="A271" sqref="A271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.95" customHeight="1"/>
@@ -8781,7 +8778,7 @@
     </row>
     <row r="143" spans="1:26" ht="19.5" customHeight="1">
       <c r="A143" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>82</v>
@@ -13645,7 +13642,7 @@
     </row>
     <row r="271" spans="1:26" ht="19.5" customHeight="1">
       <c r="A271" s="4" t="s">
-        <v>238</v>
+        <v>281</v>
       </c>
       <c r="B271" s="4" t="s">
         <v>237</v>
@@ -13721,7 +13718,7 @@
     </row>
     <row r="273" spans="1:26" ht="19.5" customHeight="1">
       <c r="A273" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B273" s="4" t="s">
         <v>135</v>
@@ -13759,7 +13756,7 @@
     </row>
     <row r="274" spans="1:26" ht="19.5" customHeight="1">
       <c r="A274" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B274" s="4" t="s">
         <v>135</v>
@@ -13797,7 +13794,7 @@
     </row>
     <row r="275" spans="1:26" ht="19.5" customHeight="1">
       <c r="A275" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B275" s="4" t="s">
         <v>135</v>
@@ -13835,7 +13832,7 @@
     </row>
     <row r="276" spans="1:26" ht="19.5" customHeight="1">
       <c r="A276" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B276" s="4" t="s">
         <v>135</v>
@@ -13873,7 +13870,7 @@
     </row>
     <row r="277" spans="1:26" ht="19.5" customHeight="1">
       <c r="A277" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B277" s="4" t="s">
         <v>135</v>
@@ -13911,7 +13908,7 @@
     </row>
     <row r="278" spans="1:26" ht="19.5" customHeight="1">
       <c r="A278" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B278" s="4" t="s">
         <v>135</v>
@@ -13949,7 +13946,7 @@
     </row>
     <row r="279" spans="1:26" ht="19.5" customHeight="1">
       <c r="A279" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B279" s="4" t="s">
         <v>135</v>
@@ -13987,7 +13984,7 @@
     </row>
     <row r="280" spans="1:26" ht="19.5" customHeight="1">
       <c r="A280" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B280" s="4" t="s">
         <v>135</v>
@@ -14025,7 +14022,7 @@
     </row>
     <row r="281" spans="1:26" ht="19.5" customHeight="1">
       <c r="A281" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B281" s="4" t="s">
         <v>199</v>
@@ -14063,10 +14060,10 @@
     </row>
     <row r="282" spans="1:26" ht="19.5" customHeight="1">
       <c r="A282" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>7</v>
@@ -14101,10 +14098,10 @@
     </row>
     <row r="283" spans="1:26" ht="19.5" customHeight="1">
       <c r="A283" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>7</v>
@@ -14139,10 +14136,10 @@
     </row>
     <row r="284" spans="1:26" ht="19.5" customHeight="1">
       <c r="A284" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>7</v>
@@ -14177,7 +14174,7 @@
     </row>
     <row r="285" spans="1:26" ht="19.5" customHeight="1">
       <c r="A285" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B285" s="4" t="s">
         <v>199</v>
@@ -14215,10 +14212,10 @@
     </row>
     <row r="286" spans="1:26" ht="19.5" customHeight="1">
       <c r="A286" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>7</v>
@@ -14291,7 +14288,7 @@
     </row>
     <row r="288" spans="1:26" ht="19.5" customHeight="1">
       <c r="A288" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B288" s="4" t="s">
         <v>15</v>
@@ -14329,7 +14326,7 @@
     </row>
     <row r="289" spans="1:26" ht="19.5" customHeight="1">
       <c r="A289" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B289" s="4" t="s">
         <v>15</v>
@@ -14557,7 +14554,7 @@
     </row>
     <row r="295" spans="1:26" ht="19.5" customHeight="1">
       <c r="A295" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B295" s="4" t="s">
         <v>199</v>
@@ -14595,10 +14592,10 @@
     </row>
     <row r="296" spans="1:26" ht="19.5" customHeight="1">
       <c r="A296" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>7</v>
@@ -14633,10 +14630,10 @@
     </row>
     <row r="297" spans="1:26" ht="19.5" customHeight="1">
       <c r="A297" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>7</v>
@@ -14671,10 +14668,10 @@
     </row>
     <row r="298" spans="1:26" ht="19.5" customHeight="1">
       <c r="A298" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>7</v>
@@ -14709,10 +14706,10 @@
     </row>
     <row r="299" spans="1:26" ht="19.5" customHeight="1">
       <c r="A299" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>7</v>
@@ -14747,10 +14744,10 @@
     </row>
     <row r="300" spans="1:26" ht="19.5" customHeight="1">
       <c r="A300" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>7</v>
@@ -14785,10 +14782,10 @@
     </row>
     <row r="301" spans="1:26" ht="19.5" customHeight="1">
       <c r="A301" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>7</v>
@@ -14823,7 +14820,7 @@
     </row>
     <row r="302" spans="1:26" ht="19.5" customHeight="1">
       <c r="A302" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B302" s="4" t="s">
         <v>6</v>
@@ -14861,10 +14858,10 @@
     </row>
     <row r="303" spans="1:26" ht="19.5" customHeight="1">
       <c r="A303" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>7</v>
@@ -14899,10 +14896,10 @@
     </row>
     <row r="304" spans="1:26" ht="19.5" customHeight="1">
       <c r="A304" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>7</v>
@@ -14937,10 +14934,10 @@
     </row>
     <row r="305" spans="1:26" ht="19.5" customHeight="1">
       <c r="A305" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>7</v>
@@ -14975,10 +14972,10 @@
     </row>
     <row r="306" spans="1:26" ht="19.5" customHeight="1">
       <c r="A306" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>7</v>
@@ -15013,10 +15010,10 @@
     </row>
     <row r="307" spans="1:26" ht="19.5" customHeight="1">
       <c r="A307" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>7</v>
@@ -15051,10 +15048,10 @@
     </row>
     <row r="308" spans="1:26" ht="19.5" customHeight="1">
       <c r="A308" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>7</v>
@@ -15089,10 +15086,10 @@
     </row>
     <row r="309" spans="1:26" ht="19.5" customHeight="1">
       <c r="A309" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>7</v>
@@ -15127,10 +15124,10 @@
     </row>
     <row r="310" spans="1:26" ht="19.5" customHeight="1">
       <c r="A310" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>7</v>
@@ -15165,10 +15162,10 @@
     </row>
     <row r="311" spans="1:26" ht="19.5" customHeight="1">
       <c r="A311" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>7</v>
@@ -15203,10 +15200,10 @@
     </row>
     <row r="312" spans="1:26" ht="19.5" customHeight="1">
       <c r="A312" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>7</v>
@@ -15241,10 +15238,10 @@
     </row>
     <row r="313" spans="1:26" ht="19.5" customHeight="1">
       <c r="A313" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>7</v>
@@ -15279,10 +15276,10 @@
     </row>
     <row r="314" spans="1:26" ht="19.5" customHeight="1">
       <c r="A314" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>7</v>
@@ -15317,10 +15314,10 @@
     </row>
     <row r="315" spans="1:26" ht="19.5" customHeight="1">
       <c r="A315" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>7</v>
@@ -15355,10 +15352,10 @@
     </row>
     <row r="316" spans="1:26" ht="19.5" customHeight="1">
       <c r="A316" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>7</v>
@@ -15393,10 +15390,10 @@
     </row>
     <row r="317" spans="1:26" ht="19.5" customHeight="1">
       <c r="A317" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>7</v>
@@ -15431,10 +15428,10 @@
     </row>
     <row r="318" spans="1:26" ht="19.5" customHeight="1">
       <c r="A318" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>7</v>
@@ -15469,10 +15466,10 @@
     </row>
     <row r="319" spans="1:26" ht="19.5" customHeight="1">
       <c r="A319" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>7</v>
@@ -15507,10 +15504,10 @@
     </row>
     <row r="320" spans="1:26" ht="19.5" customHeight="1">
       <c r="A320" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>7</v>
@@ -15545,10 +15542,10 @@
     </row>
     <row r="321" spans="1:26" ht="19.5" customHeight="1">
       <c r="A321" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>7</v>
@@ -15583,10 +15580,10 @@
     </row>
     <row r="322" spans="1:26" ht="19.5" customHeight="1">
       <c r="A322" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>7</v>
@@ -15621,10 +15618,10 @@
     </row>
     <row r="323" spans="1:26" ht="19.5" customHeight="1">
       <c r="A323" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>7</v>
@@ -15659,10 +15656,10 @@
     </row>
     <row r="324" spans="1:26" ht="19.5" customHeight="1">
       <c r="A324" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>7</v>
@@ -15697,10 +15694,10 @@
     </row>
     <row r="325" spans="1:26" ht="19.5" customHeight="1">
       <c r="A325" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>7</v>
@@ -15735,10 +15732,10 @@
     </row>
     <row r="326" spans="1:26" ht="19.5" customHeight="1">
       <c r="A326" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>7</v>
@@ -15773,10 +15770,10 @@
     </row>
     <row r="327" spans="1:26" ht="19.5" customHeight="1">
       <c r="A327" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>7</v>
@@ -15811,10 +15808,10 @@
     </row>
     <row r="328" spans="1:26" ht="19.5" customHeight="1">
       <c r="A328" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>7</v>
@@ -15849,10 +15846,10 @@
     </row>
     <row r="329" spans="1:26" ht="19.5" customHeight="1">
       <c r="A329" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>7</v>
@@ -15887,10 +15884,10 @@
     </row>
     <row r="330" spans="1:26" ht="19.5" customHeight="1">
       <c r="A330" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>7</v>
@@ -15925,10 +15922,10 @@
     </row>
     <row r="331" spans="1:26" ht="19.5" customHeight="1">
       <c r="A331" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>7</v>
@@ -15963,10 +15960,10 @@
     </row>
     <row r="332" spans="1:26" ht="19.5" customHeight="1">
       <c r="A332" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>7</v>
@@ -16001,10 +15998,10 @@
     </row>
     <row r="333" spans="1:26" ht="19.5" customHeight="1">
       <c r="A333" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B333" s="4" t="s">
         <v>286</v>
-      </c>
-      <c r="B333" s="4" t="s">
-        <v>287</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>7</v>
@@ -16039,10 +16036,10 @@
     </row>
     <row r="334" spans="1:26" ht="19.5" customHeight="1">
       <c r="A334" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>7</v>
@@ -16077,10 +16074,10 @@
     </row>
     <row r="335" spans="1:26" ht="19.5" customHeight="1">
       <c r="A335" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>7</v>
@@ -16115,10 +16112,10 @@
     </row>
     <row r="336" spans="1:26" ht="19.5" customHeight="1">
       <c r="A336" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>7</v>
@@ -16153,10 +16150,10 @@
     </row>
     <row r="337" spans="1:26" ht="19.5" customHeight="1">
       <c r="A337" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>7</v>
@@ -16191,10 +16188,10 @@
     </row>
     <row r="338" spans="1:26" ht="19.5" customHeight="1">
       <c r="A338" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>7</v>
@@ -16229,10 +16226,10 @@
     </row>
     <row r="339" spans="1:26" ht="19.5" customHeight="1">
       <c r="A339" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>7</v>
@@ -16267,10 +16264,10 @@
     </row>
     <row r="340" spans="1:26" ht="19.5" customHeight="1">
       <c r="A340" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>7</v>
@@ -16305,10 +16302,10 @@
     </row>
     <row r="341" spans="1:26" ht="19.5" customHeight="1">
       <c r="A341" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>7</v>
@@ -16343,10 +16340,10 @@
     </row>
     <row r="342" spans="1:26" ht="19.5" customHeight="1">
       <c r="A342" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>7</v>
@@ -16381,10 +16378,10 @@
     </row>
     <row r="343" spans="1:26" ht="19.5" customHeight="1">
       <c r="A343" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>7</v>
@@ -16419,10 +16416,10 @@
     </row>
     <row r="344" spans="1:26" ht="19.5" customHeight="1">
       <c r="A344" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>7</v>
@@ -16460,7 +16457,7 @@
         <v>74</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>7</v>
@@ -16495,10 +16492,10 @@
     </row>
     <row r="346" spans="1:26" ht="19.5" customHeight="1">
       <c r="A346" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>7</v>
@@ -16533,10 +16530,10 @@
     </row>
     <row r="347" spans="1:26" ht="19.5" customHeight="1">
       <c r="A347" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>7</v>
@@ -16571,10 +16568,10 @@
     </row>
     <row r="348" spans="1:26" ht="19.5" customHeight="1">
       <c r="A348" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>7</v>
@@ -16609,10 +16606,10 @@
     </row>
     <row r="349" spans="1:26" ht="19.5" customHeight="1">
       <c r="A349" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>7</v>
@@ -16647,10 +16644,10 @@
     </row>
     <row r="350" spans="1:26" ht="19.5" customHeight="1">
       <c r="A350" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>7</v>
@@ -16685,10 +16682,10 @@
     </row>
     <row r="351" spans="1:26" ht="19.5" customHeight="1">
       <c r="A351" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>7</v>
@@ -16726,7 +16723,7 @@
         <v>172</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>7</v>
@@ -16761,10 +16758,10 @@
     </row>
     <row r="353" spans="1:26" ht="19.5" customHeight="1">
       <c r="A353" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>7</v>
@@ -16799,10 +16796,10 @@
     </row>
     <row r="354" spans="1:26" ht="19.5" customHeight="1">
       <c r="A354" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>7</v>
@@ -16837,10 +16834,10 @@
     </row>
     <row r="355" spans="1:26" ht="19.5" customHeight="1">
       <c r="A355" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>7</v>
@@ -16875,10 +16872,10 @@
     </row>
     <row r="356" spans="1:26" ht="19.5" customHeight="1">
       <c r="A356" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>7</v>
@@ -16913,10 +16910,10 @@
     </row>
     <row r="357" spans="1:26" ht="19.5" customHeight="1">
       <c r="A357" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>7</v>
@@ -16951,10 +16948,10 @@
     </row>
     <row r="358" spans="1:26" ht="19.5" customHeight="1">
       <c r="A358" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>7</v>
@@ -16989,10 +16986,10 @@
     </row>
     <row r="359" spans="1:26" ht="19.5" customHeight="1">
       <c r="A359" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>7</v>
@@ -17027,10 +17024,10 @@
     </row>
     <row r="360" spans="1:26" ht="19.5" customHeight="1">
       <c r="A360" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>7</v>
@@ -17065,10 +17062,10 @@
     </row>
     <row r="361" spans="1:26" ht="19.5" customHeight="1">
       <c r="A361" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>7</v>
@@ -17103,10 +17100,10 @@
     </row>
     <row r="362" spans="1:26" ht="19.5" customHeight="1">
       <c r="A362" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>7</v>
@@ -17141,10 +17138,10 @@
     </row>
     <row r="363" spans="1:26" ht="19.5" customHeight="1">
       <c r="A363" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>7</v>
@@ -17179,10 +17176,10 @@
     </row>
     <row r="364" spans="1:26" ht="19.5" customHeight="1">
       <c r="A364" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>7</v>
@@ -17217,10 +17214,10 @@
     </row>
     <row r="365" spans="1:26" ht="19.5" customHeight="1">
       <c r="A365" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>7</v>
@@ -17255,10 +17252,10 @@
     </row>
     <row r="366" spans="1:26" ht="19.5" customHeight="1">
       <c r="A366" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>7</v>
@@ -17293,10 +17290,10 @@
     </row>
     <row r="367" spans="1:26" ht="19.5" customHeight="1">
       <c r="A367" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>7</v>
@@ -17331,10 +17328,10 @@
     </row>
     <row r="368" spans="1:26" ht="19.5" customHeight="1">
       <c r="A368" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>7</v>
@@ -17369,10 +17366,10 @@
     </row>
     <row r="369" spans="1:26" ht="19.5" customHeight="1">
       <c r="A369" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>7</v>
@@ -17407,10 +17404,10 @@
     </row>
     <row r="370" spans="1:26" ht="19.5" customHeight="1">
       <c r="A370" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>7</v>
@@ -17445,10 +17442,10 @@
     </row>
     <row r="371" spans="1:26" ht="19.5" customHeight="1">
       <c r="A371" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>7</v>
@@ -17483,10 +17480,10 @@
     </row>
     <row r="372" spans="1:26" ht="19.5" customHeight="1">
       <c r="A372" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>7</v>
@@ -17521,10 +17518,10 @@
     </row>
     <row r="373" spans="1:26" ht="19.5" customHeight="1">
       <c r="A373" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>7</v>
@@ -17559,10 +17556,10 @@
     </row>
     <row r="374" spans="1:26" ht="19.5" customHeight="1">
       <c r="A374" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>7</v>
@@ -17597,10 +17594,10 @@
     </row>
     <row r="375" spans="1:26" ht="19.5" customHeight="1">
       <c r="A375" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>7</v>
@@ -17635,10 +17632,10 @@
     </row>
     <row r="376" spans="1:26" ht="19.5" customHeight="1">
       <c r="A376" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>7</v>
@@ -17673,10 +17670,10 @@
     </row>
     <row r="377" spans="1:26" ht="19.5" customHeight="1">
       <c r="A377" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>7</v>
@@ -17711,10 +17708,10 @@
     </row>
     <row r="378" spans="1:26" ht="19.5" customHeight="1">
       <c r="A378" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>7</v>
@@ -17749,10 +17746,10 @@
     </row>
     <row r="379" spans="1:26" ht="19.5" customHeight="1">
       <c r="A379" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>7</v>
@@ -17787,10 +17784,10 @@
     </row>
     <row r="380" spans="1:26" ht="19.5" customHeight="1">
       <c r="A380" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>7</v>
@@ -17825,10 +17822,10 @@
     </row>
     <row r="381" spans="1:26" ht="19.5" customHeight="1">
       <c r="A381" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>7</v>
@@ -17863,10 +17860,10 @@
     </row>
     <row r="382" spans="1:26" ht="19.5" customHeight="1">
       <c r="A382" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>7</v>
@@ -17901,10 +17898,10 @@
     </row>
     <row r="383" spans="1:26" ht="19.5" customHeight="1">
       <c r="A383" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>7</v>
@@ -17939,10 +17936,10 @@
     </row>
     <row r="384" spans="1:26" ht="19.5" customHeight="1">
       <c r="A384" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>7</v>
@@ -17977,10 +17974,10 @@
     </row>
     <row r="385" spans="1:26" ht="19.5" customHeight="1">
       <c r="A385" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>7</v>
@@ -18015,10 +18012,10 @@
     </row>
     <row r="386" spans="1:26" ht="19.5" customHeight="1">
       <c r="A386" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>7</v>
@@ -18053,10 +18050,10 @@
     </row>
     <row r="387" spans="1:26" ht="19.5" customHeight="1">
       <c r="A387" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>7</v>
@@ -18091,10 +18088,10 @@
     </row>
     <row r="388" spans="1:26" ht="19.5" customHeight="1">
       <c r="A388" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>7</v>
@@ -18129,10 +18126,10 @@
     </row>
     <row r="389" spans="1:26" ht="19.5" customHeight="1">
       <c r="A389" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C389" s="2" t="s">
         <v>7</v>
@@ -18167,10 +18164,10 @@
     </row>
     <row r="390" spans="1:26" ht="19.5" customHeight="1">
       <c r="A390" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>7</v>
@@ -18205,10 +18202,10 @@
     </row>
     <row r="391" spans="1:26" ht="19.5" customHeight="1">
       <c r="A391" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>7</v>
@@ -18243,10 +18240,10 @@
     </row>
     <row r="392" spans="1:26" ht="19.5" customHeight="1">
       <c r="A392" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C392" s="2" t="s">
         <v>7</v>
@@ -18281,10 +18278,10 @@
     </row>
     <row r="393" spans="1:26" ht="19.5" customHeight="1">
       <c r="A393" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C393" s="2" t="s">
         <v>7</v>
@@ -18319,10 +18316,10 @@
     </row>
     <row r="394" spans="1:26" ht="19.5" customHeight="1">
       <c r="A394" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C394" s="2" t="s">
         <v>7</v>
@@ -18357,10 +18354,10 @@
     </row>
     <row r="395" spans="1:26" ht="19.5" customHeight="1">
       <c r="A395" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>7</v>
@@ -18395,10 +18392,10 @@
     </row>
     <row r="396" spans="1:26" ht="19.5" customHeight="1">
       <c r="A396" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C396" s="2" t="s">
         <v>7</v>
@@ -18433,10 +18430,10 @@
     </row>
     <row r="397" spans="1:26" ht="19.5" customHeight="1">
       <c r="A397" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>7</v>
@@ -18471,10 +18468,10 @@
     </row>
     <row r="398" spans="1:26" ht="19.5" customHeight="1">
       <c r="A398" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C398" s="2" t="s">
         <v>7</v>
@@ -18509,10 +18506,10 @@
     </row>
     <row r="399" spans="1:26" ht="19.5" customHeight="1">
       <c r="A399" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C399" s="2" t="s">
         <v>7</v>
@@ -18547,10 +18544,10 @@
     </row>
     <row r="400" spans="1:26" ht="19.5" customHeight="1">
       <c r="A400" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C400" s="2" t="s">
         <v>7</v>
@@ -18585,10 +18582,10 @@
     </row>
     <row r="401" spans="1:26" ht="19.5" customHeight="1">
       <c r="A401" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C401" s="2" t="s">
         <v>7</v>
@@ -18623,10 +18620,10 @@
     </row>
     <row r="402" spans="1:26" ht="19.5" customHeight="1">
       <c r="A402" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C402" s="2" t="s">
         <v>7</v>
@@ -18661,10 +18658,10 @@
     </row>
     <row r="403" spans="1:26" ht="19.5" customHeight="1">
       <c r="A403" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C403" s="2" t="s">
         <v>7</v>
@@ -18699,10 +18696,10 @@
     </row>
     <row r="404" spans="1:26" ht="19.5" customHeight="1">
       <c r="A404" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C404" s="2" t="s">
         <v>7</v>
@@ -18737,10 +18734,10 @@
     </row>
     <row r="405" spans="1:26" ht="19.5" customHeight="1">
       <c r="A405" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>7</v>
@@ -18775,10 +18772,10 @@
     </row>
     <row r="406" spans="1:26" ht="19.5" customHeight="1">
       <c r="A406" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B406" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>7</v>
@@ -18813,10 +18810,10 @@
     </row>
     <row r="407" spans="1:26" ht="19.5" customHeight="1">
       <c r="A407" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>7</v>
@@ -18851,10 +18848,10 @@
     </row>
     <row r="408" spans="1:26" ht="19.5" customHeight="1">
       <c r="A408" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C408" s="2" t="s">
         <v>7</v>
@@ -18889,10 +18886,10 @@
     </row>
     <row r="409" spans="1:26" ht="19.5" customHeight="1">
       <c r="A409" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C409" s="2" t="s">
         <v>7</v>
@@ -18927,10 +18924,10 @@
     </row>
     <row r="410" spans="1:26" ht="19.5" customHeight="1">
       <c r="A410" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>7</v>
@@ -18965,10 +18962,10 @@
     </row>
     <row r="411" spans="1:26" ht="19.5" customHeight="1">
       <c r="A411" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>7</v>
@@ -19003,10 +19000,10 @@
     </row>
     <row r="412" spans="1:26" ht="19.5" customHeight="1">
       <c r="A412" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>7</v>
@@ -19041,10 +19038,10 @@
     </row>
     <row r="413" spans="1:26" ht="19.5" customHeight="1">
       <c r="A413" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>7</v>
@@ -19079,10 +19076,10 @@
     </row>
     <row r="414" spans="1:26" ht="19.5" customHeight="1">
       <c r="A414" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>7</v>
@@ -19117,10 +19114,10 @@
     </row>
     <row r="415" spans="1:26" ht="19.5" customHeight="1">
       <c r="A415" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>7</v>
@@ -19155,10 +19152,10 @@
     </row>
     <row r="416" spans="1:26" ht="19.5" customHeight="1">
       <c r="A416" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>7</v>
@@ -19193,10 +19190,10 @@
     </row>
     <row r="417" spans="1:26" ht="19.5" customHeight="1">
       <c r="A417" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C417" s="2" t="s">
         <v>7</v>
@@ -19231,10 +19228,10 @@
     </row>
     <row r="418" spans="1:26" ht="19.5" customHeight="1">
       <c r="A418" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C418" s="2" t="s">
         <v>7</v>
@@ -19269,10 +19266,10 @@
     </row>
     <row r="419" spans="1:26" ht="19.5" customHeight="1">
       <c r="A419" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>7</v>
@@ -19307,10 +19304,10 @@
     </row>
     <row r="420" spans="1:26" ht="19.5" customHeight="1">
       <c r="A420" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>7</v>
@@ -19345,10 +19342,10 @@
     </row>
     <row r="421" spans="1:26" ht="19.5" customHeight="1">
       <c r="A421" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C421" s="2" t="s">
         <v>7</v>
@@ -19383,10 +19380,10 @@
     </row>
     <row r="422" spans="1:26" ht="19.5" customHeight="1">
       <c r="A422" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C422" s="2" t="s">
         <v>7</v>
@@ -19421,10 +19418,10 @@
     </row>
     <row r="423" spans="1:26" ht="19.5" customHeight="1">
       <c r="A423" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>7</v>
@@ -19459,10 +19456,10 @@
     </row>
     <row r="424" spans="1:26" ht="19.5" customHeight="1">
       <c r="A424" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C424" s="2" t="s">
         <v>7</v>
@@ -19497,10 +19494,10 @@
     </row>
     <row r="425" spans="1:26" ht="19.5" customHeight="1">
       <c r="A425" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C425" s="2" t="s">
         <v>7</v>
@@ -19535,10 +19532,10 @@
     </row>
     <row r="426" spans="1:26" ht="19.5" customHeight="1">
       <c r="A426" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>7</v>
@@ -19573,10 +19570,10 @@
     </row>
     <row r="427" spans="1:26" ht="19.5" customHeight="1">
       <c r="A427" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C427" s="2" t="s">
         <v>7</v>
@@ -19611,10 +19608,10 @@
     </row>
     <row r="428" spans="1:26" ht="19.5" customHeight="1">
       <c r="A428" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B428" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C428" s="2" t="s">
         <v>7</v>
@@ -19649,10 +19646,10 @@
     </row>
     <row r="429" spans="1:26" ht="19.5" customHeight="1">
       <c r="A429" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C429" s="2" t="s">
         <v>7</v>
@@ -19687,10 +19684,10 @@
     </row>
     <row r="430" spans="1:26" ht="19.5" customHeight="1">
       <c r="A430" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B430" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C430" s="2" t="s">
         <v>7</v>
@@ -19725,10 +19722,10 @@
     </row>
     <row r="431" spans="1:26" ht="19.5" customHeight="1">
       <c r="A431" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C431" s="2" t="s">
         <v>7</v>
@@ -19763,10 +19760,10 @@
     </row>
     <row r="432" spans="1:26" ht="19.5" customHeight="1">
       <c r="A432" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C432" s="2" t="s">
         <v>7</v>
@@ -19801,10 +19798,10 @@
     </row>
     <row r="433" spans="1:26" ht="19.5" customHeight="1">
       <c r="A433" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C433" s="2" t="s">
         <v>7</v>
@@ -19839,10 +19836,10 @@
     </row>
     <row r="434" spans="1:26" ht="19.5" customHeight="1">
       <c r="A434" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C434" s="2" t="s">
         <v>7</v>
@@ -19877,10 +19874,10 @@
     </row>
     <row r="435" spans="1:26" ht="19.5" customHeight="1">
       <c r="A435" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C435" s="2" t="s">
         <v>7</v>
@@ -19915,10 +19912,10 @@
     </row>
     <row r="436" spans="1:26" ht="19.5" customHeight="1">
       <c r="A436" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C436" s="2" t="s">
         <v>7</v>
@@ -19953,10 +19950,10 @@
     </row>
     <row r="437" spans="1:26" ht="19.5" customHeight="1">
       <c r="A437" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C437" s="2" t="s">
         <v>7</v>
@@ -19991,10 +19988,10 @@
     </row>
     <row r="438" spans="1:26" ht="19.5" customHeight="1">
       <c r="A438" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C438" s="2" t="s">
         <v>7</v>
@@ -20029,7 +20026,7 @@
     </row>
     <row r="439" spans="1:26" ht="19.5" customHeight="1">
       <c r="A439" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B439" s="4" t="s">
         <v>6</v>
@@ -20067,10 +20064,10 @@
     </row>
     <row r="440" spans="1:26" ht="19.5" customHeight="1">
       <c r="A440" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C440" s="2" t="s">
         <v>7</v>
@@ -20105,10 +20102,10 @@
     </row>
     <row r="441" spans="1:26" ht="19.5" customHeight="1">
       <c r="A441" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C441" s="2" t="s">
         <v>7</v>
@@ -20143,10 +20140,10 @@
     </row>
     <row r="442" spans="1:26" ht="19.5" customHeight="1">
       <c r="A442" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C442" s="2" t="s">
         <v>7</v>
@@ -20181,10 +20178,10 @@
     </row>
     <row r="443" spans="1:26" ht="19.5" customHeight="1">
       <c r="A443" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>7</v>
@@ -20219,10 +20216,10 @@
     </row>
     <row r="444" spans="1:26" ht="19.5" customHeight="1">
       <c r="A444" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C444" s="2" t="s">
         <v>7</v>
@@ -20257,10 +20254,10 @@
     </row>
     <row r="445" spans="1:26" ht="19.5" customHeight="1">
       <c r="A445" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C445" s="2" t="s">
         <v>7</v>
@@ -20295,10 +20292,10 @@
     </row>
     <row r="446" spans="1:26" ht="19.5" customHeight="1">
       <c r="A446" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C446" s="2" t="s">
         <v>7</v>
@@ -20333,10 +20330,10 @@
     </row>
     <row r="447" spans="1:26" ht="19.5" customHeight="1">
       <c r="A447" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B447" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C447" s="2" t="s">
         <v>7</v>
@@ -20371,10 +20368,10 @@
     </row>
     <row r="448" spans="1:26" ht="19.5" customHeight="1">
       <c r="A448" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C448" s="2" t="s">
         <v>7</v>
@@ -20409,10 +20406,10 @@
     </row>
     <row r="449" spans="1:26" ht="19.5" customHeight="1">
       <c r="A449" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C449" s="2" t="s">
         <v>7</v>
@@ -20447,10 +20444,10 @@
     </row>
     <row r="450" spans="1:26" ht="19.5" customHeight="1">
       <c r="A450" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C450" s="2" t="s">
         <v>7</v>
@@ -20485,10 +20482,10 @@
     </row>
     <row r="451" spans="1:26" ht="19.5" customHeight="1">
       <c r="A451" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C451" s="2" t="s">
         <v>7</v>
@@ -20523,10 +20520,10 @@
     </row>
     <row r="452" spans="1:26" ht="19.5" customHeight="1">
       <c r="A452" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B452" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C452" s="2" t="s">
         <v>7</v>
@@ -20561,10 +20558,10 @@
     </row>
     <row r="453" spans="1:26" ht="19.5" customHeight="1">
       <c r="A453" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C453" s="2" t="s">
         <v>7</v>
@@ -20599,10 +20596,10 @@
     </row>
     <row r="454" spans="1:26" ht="19.5" customHeight="1">
       <c r="A454" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C454" s="2" t="s">
         <v>7</v>
@@ -20637,10 +20634,10 @@
     </row>
     <row r="455" spans="1:26" ht="19.5" customHeight="1">
       <c r="A455" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C455" s="2" t="s">
         <v>7</v>
@@ -20675,10 +20672,10 @@
     </row>
     <row r="456" spans="1:26" ht="19.5" customHeight="1">
       <c r="A456" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B456" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C456" s="2" t="s">
         <v>7</v>
@@ -20713,10 +20710,10 @@
     </row>
     <row r="457" spans="1:26" ht="19.5" customHeight="1">
       <c r="A457" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B457" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C457" s="2" t="s">
         <v>7</v>
@@ -20751,10 +20748,10 @@
     </row>
     <row r="458" spans="1:26" ht="19.5" customHeight="1">
       <c r="A458" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C458" s="2" t="s">
         <v>7</v>
@@ -20789,10 +20786,10 @@
     </row>
     <row r="459" spans="1:26" ht="19.5" customHeight="1">
       <c r="A459" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B459" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C459" s="2" t="s">
         <v>7</v>
@@ -20827,10 +20824,10 @@
     </row>
     <row r="460" spans="1:26" ht="19.5" customHeight="1">
       <c r="A460" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C460" s="2" t="s">
         <v>7</v>
@@ -20865,10 +20862,10 @@
     </row>
     <row r="461" spans="1:26" ht="19.5" customHeight="1">
       <c r="A461" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B461" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C461" s="2" t="s">
         <v>7</v>
@@ -20903,10 +20900,10 @@
     </row>
     <row r="462" spans="1:26" ht="19.5" customHeight="1">
       <c r="A462" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C462" s="2" t="s">
         <v>7</v>
@@ -20941,10 +20938,10 @@
     </row>
     <row r="463" spans="1:26" ht="19.5" customHeight="1">
       <c r="A463" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B463" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C463" s="2" t="s">
         <v>7</v>
@@ -20979,10 +20976,10 @@
     </row>
     <row r="464" spans="1:26" ht="19.5" customHeight="1">
       <c r="A464" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C464" s="2" t="s">
         <v>7</v>
@@ -21017,10 +21014,10 @@
     </row>
     <row r="465" spans="1:26" ht="19.5" customHeight="1">
       <c r="A465" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C465" s="2" t="s">
         <v>7</v>
@@ -21055,10 +21052,10 @@
     </row>
     <row r="466" spans="1:26" ht="19.5" customHeight="1">
       <c r="A466" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C466" s="2" t="s">
         <v>7</v>
@@ -21093,10 +21090,10 @@
     </row>
     <row r="467" spans="1:26" ht="19.5" customHeight="1">
       <c r="A467" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C467" s="2" t="s">
         <v>7</v>
@@ -21131,10 +21128,10 @@
     </row>
     <row r="468" spans="1:26" ht="19.5" customHeight="1">
       <c r="A468" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C468" s="2" t="s">
         <v>7</v>
@@ -21169,10 +21166,10 @@
     </row>
     <row r="469" spans="1:26" ht="19.5" customHeight="1">
       <c r="A469" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C469" s="2" t="s">
         <v>7</v>
@@ -21207,10 +21204,10 @@
     </row>
     <row r="470" spans="1:26" ht="19.5" customHeight="1">
       <c r="A470" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B470" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C470" s="2" t="s">
         <v>7</v>
@@ -21245,10 +21242,10 @@
     </row>
     <row r="471" spans="1:26" ht="19.5" customHeight="1">
       <c r="A471" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B471" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C471" s="2" t="s">
         <v>7</v>
@@ -21283,10 +21280,10 @@
     </row>
     <row r="472" spans="1:26" ht="19.5" customHeight="1">
       <c r="A472" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B472" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C472" s="2" t="s">
         <v>7</v>
@@ -21321,10 +21318,10 @@
     </row>
     <row r="473" spans="1:26" ht="19.5" customHeight="1">
       <c r="A473" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B473" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C473" s="2" t="s">
         <v>7</v>
@@ -21359,10 +21356,10 @@
     </row>
     <row r="474" spans="1:26" ht="19.5" customHeight="1">
       <c r="A474" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B474" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C474" s="2" t="s">
         <v>7</v>
@@ -21397,10 +21394,10 @@
     </row>
     <row r="475" spans="1:26" ht="19.5" customHeight="1">
       <c r="A475" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C475" s="2" t="s">
         <v>7</v>
@@ -21435,10 +21432,10 @@
     </row>
     <row r="476" spans="1:26" ht="19.5" customHeight="1">
       <c r="A476" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B476" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C476" s="2" t="s">
         <v>7</v>
@@ -21473,10 +21470,10 @@
     </row>
     <row r="477" spans="1:26" ht="19.5" customHeight="1">
       <c r="A477" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B477" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C477" s="2" t="s">
         <v>7</v>
@@ -21511,10 +21508,10 @@
     </row>
     <row r="478" spans="1:26" ht="19.5" customHeight="1">
       <c r="A478" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B478" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C478" s="2" t="s">
         <v>7</v>
@@ -21549,10 +21546,10 @@
     </row>
     <row r="479" spans="1:26" ht="19.5" customHeight="1">
       <c r="A479" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B479" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C479" s="2" t="s">
         <v>7</v>
@@ -21587,10 +21584,10 @@
     </row>
     <row r="480" spans="1:26" ht="19.5" customHeight="1">
       <c r="A480" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B480" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C480" s="2" t="s">
         <v>7</v>
@@ -21625,10 +21622,10 @@
     </row>
     <row r="481" spans="1:26" ht="19.5" customHeight="1">
       <c r="A481" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B481" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C481" s="2" t="s">
         <v>7</v>
@@ -21663,10 +21660,10 @@
     </row>
     <row r="482" spans="1:26" ht="19.5" customHeight="1">
       <c r="A482" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B482" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C482" s="2" t="s">
         <v>7</v>
@@ -21701,10 +21698,10 @@
     </row>
     <row r="483" spans="1:26" ht="19.5" customHeight="1">
       <c r="A483" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B483" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C483" s="2" t="s">
         <v>7</v>
@@ -21739,10 +21736,10 @@
     </row>
     <row r="484" spans="1:26" ht="19.5" customHeight="1">
       <c r="A484" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B484" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C484" s="2" t="s">
         <v>7</v>
@@ -21777,10 +21774,10 @@
     </row>
     <row r="485" spans="1:26" ht="19.5" customHeight="1">
       <c r="A485" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B485" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C485" s="2" t="s">
         <v>7</v>
@@ -21815,10 +21812,10 @@
     </row>
     <row r="486" spans="1:26" ht="19.5" customHeight="1">
       <c r="A486" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C486" s="2" t="s">
         <v>7</v>
@@ -21853,10 +21850,10 @@
     </row>
     <row r="487" spans="1:26" ht="19.5" customHeight="1">
       <c r="A487" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B487" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C487" s="2" t="s">
         <v>7</v>
@@ -21891,10 +21888,10 @@
     </row>
     <row r="488" spans="1:26" ht="19.5" customHeight="1">
       <c r="A488" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B488" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C488" s="2" t="s">
         <v>7</v>
@@ -21929,10 +21926,10 @@
     </row>
     <row r="489" spans="1:26" ht="19.5" customHeight="1">
       <c r="A489" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C489" s="2" t="s">
         <v>7</v>
@@ -21967,10 +21964,10 @@
     </row>
     <row r="490" spans="1:26" ht="19.5" customHeight="1">
       <c r="A490" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C490" s="2" t="s">
         <v>7</v>
@@ -22005,10 +22002,10 @@
     </row>
     <row r="491" spans="1:26" ht="19.5" customHeight="1">
       <c r="A491" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B491" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C491" s="2" t="s">
         <v>7</v>
@@ -22043,10 +22040,10 @@
     </row>
     <row r="492" spans="1:26" ht="19.5" customHeight="1">
       <c r="A492" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B492" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C492" s="2" t="s">
         <v>7</v>
@@ -22081,10 +22078,10 @@
     </row>
     <row r="493" spans="1:26" ht="19.5" customHeight="1">
       <c r="A493" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C493" s="2" t="s">
         <v>7</v>
@@ -22119,10 +22116,10 @@
     </row>
     <row r="494" spans="1:26" ht="19.5" customHeight="1">
       <c r="A494" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B494" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C494" s="2" t="s">
         <v>7</v>
@@ -22157,10 +22154,10 @@
     </row>
     <row r="495" spans="1:26" ht="19.5" customHeight="1">
       <c r="A495" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C495" s="2" t="s">
         <v>7</v>
@@ -22195,10 +22192,10 @@
     </row>
     <row r="496" spans="1:26" ht="19.5" customHeight="1">
       <c r="A496" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B496" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C496" s="2" t="s">
         <v>7</v>
@@ -22233,10 +22230,10 @@
     </row>
     <row r="497" spans="1:26" ht="19.5" customHeight="1">
       <c r="A497" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B497" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C497" s="2" t="s">
         <v>7</v>
@@ -22271,10 +22268,10 @@
     </row>
     <row r="498" spans="1:26" ht="19.5" customHeight="1">
       <c r="A498" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B498" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C498" s="2" t="s">
         <v>7</v>
@@ -22309,10 +22306,10 @@
     </row>
     <row r="499" spans="1:26" ht="19.5" customHeight="1">
       <c r="A499" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B499" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C499" s="2" t="s">
         <v>7</v>
@@ -22347,10 +22344,10 @@
     </row>
     <row r="500" spans="1:26" ht="19.5" customHeight="1">
       <c r="A500" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B500" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C500" s="2" t="s">
         <v>7</v>
@@ -22385,10 +22382,10 @@
     </row>
     <row r="501" spans="1:26" ht="19.5" customHeight="1">
       <c r="A501" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B501" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C501" s="2" t="s">
         <v>7</v>
@@ -22423,10 +22420,10 @@
     </row>
     <row r="502" spans="1:26" ht="19.5" customHeight="1">
       <c r="A502" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B502" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C502" s="2" t="s">
         <v>7</v>
@@ -22461,10 +22458,10 @@
     </row>
     <row r="503" spans="1:26" ht="19.5" customHeight="1">
       <c r="A503" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B503" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C503" s="2" t="s">
         <v>7</v>
@@ -22499,10 +22496,10 @@
     </row>
     <row r="504" spans="1:26" ht="19.5" customHeight="1">
       <c r="A504" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B504" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C504" s="2" t="s">
         <v>7</v>
@@ -22537,10 +22534,10 @@
     </row>
     <row r="505" spans="1:26" ht="19.5" customHeight="1">
       <c r="A505" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B505" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C505" s="2" t="s">
         <v>7</v>
@@ -22575,10 +22572,10 @@
     </row>
     <row r="506" spans="1:26" ht="19.5" customHeight="1">
       <c r="A506" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B506" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C506" s="2" t="s">
         <v>7</v>
@@ -22613,10 +22610,10 @@
     </row>
     <row r="507" spans="1:26" ht="19.5" customHeight="1">
       <c r="A507" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B507" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C507" s="2" t="s">
         <v>7</v>
@@ -22651,10 +22648,10 @@
     </row>
     <row r="508" spans="1:26" ht="19.5" customHeight="1">
       <c r="A508" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B508" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C508" s="2" t="s">
         <v>7</v>
@@ -22689,10 +22686,10 @@
     </row>
     <row r="509" spans="1:26" ht="19.5" customHeight="1">
       <c r="A509" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B509" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C509" s="2" t="s">
         <v>7</v>
@@ -22727,10 +22724,10 @@
     </row>
     <row r="510" spans="1:26" ht="19.5" customHeight="1">
       <c r="A510" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B510" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C510" s="2" t="s">
         <v>7</v>
@@ -22765,10 +22762,10 @@
     </row>
     <row r="511" spans="1:26" ht="19.5" customHeight="1">
       <c r="A511" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B511" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C511" s="2" t="s">
         <v>7</v>
@@ -22803,10 +22800,10 @@
     </row>
     <row r="512" spans="1:26" ht="19.5" customHeight="1">
       <c r="A512" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B512" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C512" s="2" t="s">
         <v>7</v>
@@ -22841,10 +22838,10 @@
     </row>
     <row r="513" spans="1:26" ht="19.5" customHeight="1">
       <c r="A513" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B513" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C513" s="2" t="s">
         <v>7</v>
@@ -22879,10 +22876,10 @@
     </row>
     <row r="514" spans="1:26" ht="19.5" customHeight="1">
       <c r="A514" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B514" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C514" s="2" t="s">
         <v>7</v>
@@ -22917,10 +22914,10 @@
     </row>
     <row r="515" spans="1:26" ht="19.5" customHeight="1">
       <c r="A515" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B515" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C515" s="2" t="s">
         <v>7</v>
@@ -22955,10 +22952,10 @@
     </row>
     <row r="516" spans="1:26" ht="19.5" customHeight="1">
       <c r="A516" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B516" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C516" s="2" t="s">
         <v>7</v>
@@ -22993,10 +22990,10 @@
     </row>
     <row r="517" spans="1:26" ht="19.5" customHeight="1">
       <c r="A517" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B517" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C517" s="2" t="s">
         <v>7</v>
@@ -23031,10 +23028,10 @@
     </row>
     <row r="518" spans="1:26" ht="19.5" customHeight="1">
       <c r="A518" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B518" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C518" s="2" t="s">
         <v>7</v>
@@ -23069,10 +23066,10 @@
     </row>
     <row r="519" spans="1:26" ht="19.5" customHeight="1">
       <c r="A519" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B519" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C519" s="2" t="s">
         <v>7</v>
@@ -23107,10 +23104,10 @@
     </row>
     <row r="520" spans="1:26" ht="19.5" customHeight="1">
       <c r="A520" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B520" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C520" s="2" t="s">
         <v>7</v>
@@ -23145,10 +23142,10 @@
     </row>
     <row r="521" spans="1:26" ht="19.5" customHeight="1">
       <c r="A521" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B521" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C521" s="2" t="s">
         <v>7</v>
@@ -23183,10 +23180,10 @@
     </row>
     <row r="522" spans="1:26" ht="19.5" customHeight="1">
       <c r="A522" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B522" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C522" s="2" t="s">
         <v>7</v>
@@ -23221,10 +23218,10 @@
     </row>
     <row r="523" spans="1:26" ht="19.5" customHeight="1">
       <c r="A523" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B523" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C523" s="2" t="s">
         <v>7</v>
@@ -23259,10 +23256,10 @@
     </row>
     <row r="524" spans="1:26" ht="19.5" customHeight="1">
       <c r="A524" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B524" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C524" s="2" t="s">
         <v>7</v>
@@ -23297,10 +23294,10 @@
     </row>
     <row r="525" spans="1:26" ht="19.5" customHeight="1">
       <c r="A525" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B525" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C525" s="2" t="s">
         <v>7</v>
@@ -23335,10 +23332,10 @@
     </row>
     <row r="526" spans="1:26" ht="19.5" customHeight="1">
       <c r="A526" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B526" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C526" s="2" t="s">
         <v>7</v>
@@ -23373,10 +23370,10 @@
     </row>
     <row r="527" spans="1:26" ht="19.5" customHeight="1">
       <c r="A527" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B527" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C527" s="2" t="s">
         <v>7</v>
@@ -23411,10 +23408,10 @@
     </row>
     <row r="528" spans="1:26" ht="19.5" customHeight="1">
       <c r="A528" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B528" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C528" s="2" t="s">
         <v>7</v>
@@ -23449,10 +23446,10 @@
     </row>
     <row r="529" spans="1:26" ht="19.5" customHeight="1">
       <c r="A529" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B529" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C529" s="2" t="s">
         <v>7</v>
@@ -23487,10 +23484,10 @@
     </row>
     <row r="530" spans="1:26" ht="19.5" customHeight="1">
       <c r="A530" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B530" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C530" s="2" t="s">
         <v>7</v>
@@ -23525,10 +23522,10 @@
     </row>
     <row r="531" spans="1:26" ht="19.5" customHeight="1">
       <c r="A531" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B531" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C531" s="2" t="s">
         <v>7</v>
@@ -23563,10 +23560,10 @@
     </row>
     <row r="532" spans="1:26" ht="19.5" customHeight="1">
       <c r="A532" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B532" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C532" s="2" t="s">
         <v>7</v>
@@ -23601,10 +23598,10 @@
     </row>
     <row r="533" spans="1:26" ht="19.5" customHeight="1">
       <c r="A533" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B533" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C533" s="2" t="s">
         <v>7</v>
@@ -23639,10 +23636,10 @@
     </row>
     <row r="534" spans="1:26" ht="19.5" customHeight="1">
       <c r="A534" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B534" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C534" s="2" t="s">
         <v>7</v>
@@ -23677,10 +23674,10 @@
     </row>
     <row r="535" spans="1:26" ht="19.5" customHeight="1">
       <c r="A535" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B535" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C535" s="2" t="s">
         <v>7</v>
@@ -23715,10 +23712,10 @@
     </row>
     <row r="536" spans="1:26" ht="19.5" customHeight="1">
       <c r="A536" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B536" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C536" s="2" t="s">
         <v>7</v>
@@ -23753,10 +23750,10 @@
     </row>
     <row r="537" spans="1:26" ht="19.5" customHeight="1">
       <c r="A537" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B537" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C537" s="2" t="s">
         <v>7</v>
@@ -23791,10 +23788,10 @@
     </row>
     <row r="538" spans="1:26" ht="19.5" customHeight="1">
       <c r="A538" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B538" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C538" s="2" t="s">
         <v>7</v>
@@ -23829,7 +23826,7 @@
     </row>
     <row r="539" spans="1:26" ht="19.5" customHeight="1">
       <c r="A539" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B539" s="4" t="s">
         <v>6</v>
@@ -23863,10 +23860,10 @@
     </row>
     <row r="540" spans="1:26" ht="19.5" customHeight="1">
       <c r="A540" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B540" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C540" s="2" t="s">
         <v>7</v>
@@ -23897,10 +23894,10 @@
     </row>
     <row r="541" spans="1:26" ht="19.5" customHeight="1">
       <c r="A541" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B541" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C541" s="2" t="s">
         <v>7</v>
@@ -23931,10 +23928,10 @@
     </row>
     <row r="542" spans="1:26" ht="19.5" customHeight="1">
       <c r="A542" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B542" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C542" s="2" t="s">
         <v>7</v>
@@ -23967,10 +23964,10 @@
     </row>
     <row r="543" spans="1:26" ht="19.5" customHeight="1">
       <c r="A543" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B543" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C543" s="2" t="s">
         <v>7</v>
@@ -24001,10 +23998,10 @@
     </row>
     <row r="544" spans="1:26" ht="19.5" customHeight="1">
       <c r="A544" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B544" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C544" s="2" t="s">
         <v>7</v>
@@ -24037,10 +24034,10 @@
     </row>
     <row r="545" spans="1:26" ht="19.5" customHeight="1">
       <c r="A545" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B545" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C545" s="2" t="s">
         <v>7</v>
@@ -24073,10 +24070,10 @@
     </row>
     <row r="546" spans="1:26" ht="19.5" customHeight="1">
       <c r="A546" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B546" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C546" s="2" t="s">
         <v>7</v>
@@ -24109,10 +24106,10 @@
     </row>
     <row r="547" spans="1:26" ht="19.5" customHeight="1">
       <c r="A547" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B547" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C547" s="2" t="s">
         <v>7</v>
@@ -24145,10 +24142,10 @@
     </row>
     <row r="548" spans="1:26" ht="19.5" customHeight="1">
       <c r="A548" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B548" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C548" s="2" t="s">
         <v>7</v>
@@ -24179,10 +24176,10 @@
     </row>
     <row r="549" spans="1:26" ht="19.5" customHeight="1">
       <c r="A549" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B549" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C549" s="2" t="s">
         <v>7</v>
@@ -24215,10 +24212,10 @@
     </row>
     <row r="550" spans="1:26" ht="19.5" customHeight="1">
       <c r="A550" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B550" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C550" s="2" t="s">
         <v>7</v>
@@ -24251,10 +24248,10 @@
     </row>
     <row r="551" spans="1:26" ht="19.5" customHeight="1">
       <c r="A551" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B551" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C551" s="2" t="s">
         <v>7</v>
@@ -24287,10 +24284,10 @@
     </row>
     <row r="552" spans="1:26" ht="19.5" customHeight="1">
       <c r="A552" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B552" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C552" s="2" t="s">
         <v>7</v>
@@ -24323,10 +24320,10 @@
     </row>
     <row r="553" spans="1:26" ht="19.5" customHeight="1">
       <c r="A553" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B553" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C553" s="2" t="s">
         <v>7</v>
@@ -24359,10 +24356,10 @@
     </row>
     <row r="554" spans="1:26" ht="19.5" customHeight="1">
       <c r="A554" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B554" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C554" s="2" t="s">
         <v>7</v>
@@ -24393,10 +24390,10 @@
     </row>
     <row r="555" spans="1:26" ht="19.5" customHeight="1">
       <c r="A555" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B555" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C555" s="2" t="s">
         <v>7</v>
@@ -24429,10 +24426,10 @@
     </row>
     <row r="556" spans="1:26" ht="19.5" customHeight="1">
       <c r="A556" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B556" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C556" s="2" t="s">
         <v>7</v>
@@ -24463,10 +24460,10 @@
     </row>
     <row r="557" spans="1:26" ht="19.5" customHeight="1">
       <c r="A557" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B557" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C557" s="2" t="s">
         <v>7</v>
@@ -24499,10 +24496,10 @@
     </row>
     <row r="558" spans="1:26" ht="19.5" customHeight="1">
       <c r="A558" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B558" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C558" s="2" t="s">
         <v>7</v>
@@ -24535,10 +24532,10 @@
     </row>
     <row r="559" spans="1:26" ht="19.5" customHeight="1">
       <c r="A559" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B559" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C559" s="2" t="s">
         <v>7</v>
@@ -24571,10 +24568,10 @@
     </row>
     <row r="560" spans="1:26" ht="19.5" customHeight="1">
       <c r="A560" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B560" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C560" s="2" t="s">
         <v>7</v>
@@ -24605,10 +24602,10 @@
     </row>
     <row r="561" spans="1:26" ht="19.5" customHeight="1">
       <c r="A561" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B561" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C561" s="2" t="s">
         <v>7</v>
@@ -24641,10 +24638,10 @@
     </row>
     <row r="562" spans="1:26" ht="19.5" customHeight="1">
       <c r="A562" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B562" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C562" s="2" t="s">
         <v>7</v>
@@ -24675,10 +24672,10 @@
     </row>
     <row r="563" spans="1:26" ht="19.5" customHeight="1">
       <c r="A563" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B563" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C563" s="2" t="s">
         <v>7</v>
@@ -24711,10 +24708,10 @@
     </row>
     <row r="564" spans="1:26" ht="19.5" customHeight="1">
       <c r="A564" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B564" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C564" s="2" t="s">
         <v>7</v>
@@ -24747,10 +24744,10 @@
     </row>
     <row r="565" spans="1:26" ht="19.5" customHeight="1">
       <c r="A565" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B565" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C565" s="2" t="s">
         <v>7</v>
@@ -24783,10 +24780,10 @@
     </row>
     <row r="566" spans="1:26" ht="19.5" customHeight="1">
       <c r="A566" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B566" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C566" s="2" t="s">
         <v>7</v>
@@ -24819,10 +24816,10 @@
     </row>
     <row r="567" spans="1:26" ht="19.5" customHeight="1">
       <c r="A567" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B567" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C567" s="2" t="s">
         <v>7</v>
@@ -24855,10 +24852,10 @@
     </row>
     <row r="568" spans="1:26" ht="19.5" customHeight="1">
       <c r="A568" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B568" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C568" s="2" t="s">
         <v>7</v>
@@ -24891,10 +24888,10 @@
     </row>
     <row r="569" spans="1:26" ht="19.5" customHeight="1">
       <c r="A569" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B569" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C569" s="2" t="s">
         <v>7</v>
@@ -24927,10 +24924,10 @@
     </row>
     <row r="570" spans="1:26" ht="19.5" customHeight="1">
       <c r="A570" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B570" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C570" s="2" t="s">
         <v>7</v>
@@ -24961,10 +24958,10 @@
     </row>
     <row r="571" spans="1:26" ht="19.5" customHeight="1">
       <c r="A571" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B571" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C571" s="2" t="s">
         <v>7</v>
@@ -24995,10 +24992,10 @@
     </row>
     <row r="572" spans="1:26" ht="19.5" customHeight="1">
       <c r="A572" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B572" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C572" s="2" t="s">
         <v>7</v>
@@ -25031,10 +25028,10 @@
     </row>
     <row r="573" spans="1:26" ht="19.5" customHeight="1">
       <c r="A573" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B573" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C573" s="2" t="s">
         <v>7</v>
@@ -25067,10 +25064,10 @@
     </row>
     <row r="574" spans="1:26" ht="19.5" customHeight="1">
       <c r="A574" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B574" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C574" s="2" t="s">
         <v>7</v>
@@ -25103,10 +25100,10 @@
     </row>
     <row r="575" spans="1:26" ht="19.5" customHeight="1">
       <c r="A575" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B575" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C575" s="2" t="s">
         <v>7</v>
@@ -25139,10 +25136,10 @@
     </row>
     <row r="576" spans="1:26" ht="19.5" customHeight="1">
       <c r="A576" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B576" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C576" s="2" t="s">
         <v>7</v>
@@ -25175,10 +25172,10 @@
     </row>
     <row r="577" spans="1:26" ht="19.5" customHeight="1">
       <c r="A577" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B577" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C577" s="2" t="s">
         <v>7</v>
@@ -25211,10 +25208,10 @@
     </row>
     <row r="578" spans="1:26" ht="19.5" customHeight="1">
       <c r="A578" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B578" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C578" s="2" t="s">
         <v>7</v>
@@ -25247,10 +25244,10 @@
     </row>
     <row r="579" spans="1:26" ht="19.5" customHeight="1">
       <c r="A579" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B579" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C579" s="2" t="s">
         <v>7</v>
@@ -25281,10 +25278,10 @@
     </row>
     <row r="580" spans="1:26" ht="19.5" customHeight="1">
       <c r="A580" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B580" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C580" s="2" t="s">
         <v>7</v>
@@ -25317,10 +25314,10 @@
     </row>
     <row r="581" spans="1:26" ht="19.5" customHeight="1">
       <c r="A581" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B581" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C581" s="2" t="s">
         <v>7</v>
@@ -25353,10 +25350,10 @@
     </row>
     <row r="582" spans="1:26" ht="19.5" customHeight="1">
       <c r="A582" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B582" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C582" s="2" t="s">
         <v>7</v>
@@ -25389,10 +25386,10 @@
     </row>
     <row r="583" spans="1:26" ht="19.5" customHeight="1">
       <c r="A583" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B583" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C583" s="2" t="s">
         <v>7</v>
@@ -25425,10 +25422,10 @@
     </row>
     <row r="584" spans="1:26" ht="19.5" customHeight="1">
       <c r="A584" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B584" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C584" s="2" t="s">
         <v>7</v>
@@ -25461,10 +25458,10 @@
     </row>
     <row r="585" spans="1:26" ht="19.5" customHeight="1">
       <c r="A585" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B585" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C585" s="2" t="s">
         <v>7</v>
@@ -25497,10 +25494,10 @@
     </row>
     <row r="586" spans="1:26" ht="19.5" customHeight="1">
       <c r="A586" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B586" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C586" s="2" t="s">
         <v>7</v>
@@ -25533,10 +25530,10 @@
     </row>
     <row r="587" spans="1:26" ht="19.5" customHeight="1">
       <c r="A587" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B587" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C587" s="2" t="s">
         <v>7</v>
@@ -25569,10 +25566,10 @@
     </row>
     <row r="588" spans="1:26" ht="19.5" customHeight="1">
       <c r="A588" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B588" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C588" s="2" t="s">
         <v>7</v>
@@ -25605,10 +25602,10 @@
     </row>
     <row r="589" spans="1:26" ht="19.5" customHeight="1">
       <c r="A589" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B589" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C589" s="2" t="s">
         <v>7</v>
@@ -25641,10 +25638,10 @@
     </row>
     <row r="590" spans="1:26" ht="19.5" customHeight="1">
       <c r="A590" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B590" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C590" s="2" t="s">
         <v>7</v>
@@ -25677,10 +25674,10 @@
     </row>
     <row r="591" spans="1:26" ht="19.5" customHeight="1">
       <c r="A591" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B591" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C591" s="2" t="s">
         <v>7</v>
@@ -25711,10 +25708,10 @@
     </row>
     <row r="592" spans="1:26" ht="19.5" customHeight="1">
       <c r="A592" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B592" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C592" s="2" t="s">
         <v>7</v>
@@ -25747,10 +25744,10 @@
     </row>
     <row r="593" spans="1:26" ht="19.5" customHeight="1">
       <c r="A593" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B593" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C593" s="2" t="s">
         <v>7</v>
@@ -25783,10 +25780,10 @@
     </row>
     <row r="594" spans="1:26" ht="19.5" customHeight="1">
       <c r="A594" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B594" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C594" s="2" t="s">
         <v>7</v>
@@ -25819,10 +25816,10 @@
     </row>
     <row r="595" spans="1:26" ht="19.5" customHeight="1">
       <c r="A595" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B595" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C595" s="2" t="s">
         <v>7</v>
@@ -25855,10 +25852,10 @@
     </row>
     <row r="596" spans="1:26" ht="19.5" customHeight="1">
       <c r="A596" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B596" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C596" s="2" t="s">
         <v>7</v>
@@ -25891,10 +25888,10 @@
     </row>
     <row r="597" spans="1:26" ht="19.5" customHeight="1">
       <c r="A597" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B597" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C597" s="2" t="s">
         <v>7</v>
@@ -25925,10 +25922,10 @@
     </row>
     <row r="598" spans="1:26" ht="19.5" customHeight="1">
       <c r="A598" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B598" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C598" s="2" t="s">
         <v>7</v>
@@ -25961,10 +25958,10 @@
     </row>
     <row r="599" spans="1:26" ht="19.5" customHeight="1">
       <c r="A599" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B599" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C599" s="2" t="s">
         <v>7</v>
@@ -25997,10 +25994,10 @@
     </row>
     <row r="600" spans="1:26" ht="19.5" customHeight="1">
       <c r="A600" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B600" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C600" s="2" t="s">
         <v>7</v>
@@ -26033,10 +26030,10 @@
     </row>
     <row r="601" spans="1:26" ht="19.5" customHeight="1">
       <c r="A601" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B601" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C601" s="2" t="s">
         <v>7</v>
@@ -26069,10 +26066,10 @@
     </row>
     <row r="602" spans="1:26" ht="19.5" customHeight="1">
       <c r="A602" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B602" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C602" s="2" t="s">
         <v>7</v>
@@ -26103,10 +26100,10 @@
     </row>
     <row r="603" spans="1:26" ht="19.5" customHeight="1">
       <c r="A603" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B603" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C603" s="2" t="s">
         <v>7</v>
@@ -26139,10 +26136,10 @@
     </row>
     <row r="604" spans="1:26" ht="19.5" customHeight="1">
       <c r="A604" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B604" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C604" s="2" t="s">
         <v>7</v>
@@ -26175,10 +26172,10 @@
     </row>
     <row r="605" spans="1:26" ht="19.5" customHeight="1">
       <c r="A605" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B605" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C605" s="2" t="s">
         <v>7</v>
@@ -26211,10 +26208,10 @@
     </row>
     <row r="606" spans="1:26" ht="19.5" customHeight="1">
       <c r="A606" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B606" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C606" s="2" t="s">
         <v>7</v>
@@ -26247,10 +26244,10 @@
     </row>
     <row r="607" spans="1:26" ht="19.5" customHeight="1">
       <c r="A607" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B607" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C607" s="2" t="s">
         <v>7</v>
@@ -26283,10 +26280,10 @@
     </row>
     <row r="608" spans="1:26" ht="19.5" customHeight="1">
       <c r="A608" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B608" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C608" s="2" t="s">
         <v>7</v>
@@ -26319,10 +26316,10 @@
     </row>
     <row r="609" spans="1:26" ht="19.5" customHeight="1">
       <c r="A609" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B609" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C609" s="2" t="s">
         <v>7</v>
@@ -26355,10 +26352,10 @@
     </row>
     <row r="610" spans="1:26" ht="19.5" customHeight="1">
       <c r="A610" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B610" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C610" s="2" t="s">
         <v>7</v>
@@ -26391,10 +26388,10 @@
     </row>
     <row r="611" spans="1:26" ht="19.5" customHeight="1">
       <c r="A611" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B611" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C611" s="2" t="s">
         <v>7</v>
@@ -26427,10 +26424,10 @@
     </row>
     <row r="612" spans="1:26" ht="19.5" customHeight="1">
       <c r="A612" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B612" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C612" s="2" t="s">
         <v>7</v>
@@ -26463,10 +26460,10 @@
     </row>
     <row r="613" spans="1:26" ht="19.5" customHeight="1">
       <c r="A613" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B613" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C613" s="2" t="s">
         <v>7</v>
@@ -26499,10 +26496,10 @@
     </row>
     <row r="614" spans="1:26" ht="19.5" customHeight="1">
       <c r="A614" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B614" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C614" s="2" t="s">
         <v>7</v>
@@ -26535,10 +26532,10 @@
     </row>
     <row r="615" spans="1:26" ht="19.5" customHeight="1">
       <c r="A615" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B615" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C615" s="2" t="s">
         <v>7</v>
@@ -26571,10 +26568,10 @@
     </row>
     <row r="616" spans="1:26" ht="19.5" customHeight="1">
       <c r="A616" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B616" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C616" s="2" t="s">
         <v>7</v>
@@ -26607,10 +26604,10 @@
     </row>
     <row r="617" spans="1:26" ht="19.5" customHeight="1">
       <c r="A617" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B617" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C617" s="2" t="s">
         <v>7</v>
@@ -26643,10 +26640,10 @@
     </row>
     <row r="618" spans="1:26" ht="19.5" customHeight="1">
       <c r="A618" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B618" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C618" s="2" t="s">
         <v>7</v>
@@ -26677,10 +26674,10 @@
     </row>
     <row r="619" spans="1:26" ht="19.5" customHeight="1">
       <c r="A619" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B619" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C619" s="2" t="s">
         <v>7</v>
@@ -26713,10 +26710,10 @@
     </row>
     <row r="620" spans="1:26" ht="19.5" customHeight="1">
       <c r="A620" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B620" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C620" s="2" t="s">
         <v>7</v>
@@ -26749,10 +26746,10 @@
     </row>
     <row r="621" spans="1:26" ht="19.5" customHeight="1">
       <c r="A621" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B621" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C621" s="2" t="s">
         <v>7</v>
@@ -26785,10 +26782,10 @@
     </row>
     <row r="622" spans="1:26" ht="19.5" customHeight="1">
       <c r="A622" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B622" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C622" s="2" t="s">
         <v>7</v>
@@ -26821,10 +26818,10 @@
     </row>
     <row r="623" spans="1:26" ht="19.5" customHeight="1">
       <c r="A623" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B623" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C623" s="2" t="s">
         <v>7</v>
@@ -26857,10 +26854,10 @@
     </row>
     <row r="624" spans="1:26" ht="19.5" customHeight="1">
       <c r="A624" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B624" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C624" s="2" t="s">
         <v>7</v>
@@ -26893,10 +26890,10 @@
     </row>
     <row r="625" spans="1:26" ht="19.5" customHeight="1">
       <c r="A625" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B625" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C625" s="2" t="s">
         <v>7</v>
@@ -26929,10 +26926,10 @@
     </row>
     <row r="626" spans="1:26" ht="19.5" customHeight="1">
       <c r="A626" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B626" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C626" s="2" t="s">
         <v>7</v>
@@ -26965,10 +26962,10 @@
     </row>
     <row r="627" spans="1:26" ht="19.5" customHeight="1">
       <c r="A627" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B627" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C627" s="2" t="s">
         <v>7</v>
@@ -26999,10 +26996,10 @@
     </row>
     <row r="628" spans="1:26" ht="19.5" customHeight="1">
       <c r="A628" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B628" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C628" s="2" t="s">
         <v>7</v>
@@ -27035,10 +27032,10 @@
     </row>
     <row r="629" spans="1:26" ht="19.5" customHeight="1">
       <c r="A629" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B629" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C629" s="2" t="s">
         <v>7</v>
@@ -27069,10 +27066,10 @@
     </row>
     <row r="630" spans="1:26" ht="19.5" customHeight="1">
       <c r="A630" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B630" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C630" s="2" t="s">
         <v>7</v>
@@ -27103,10 +27100,10 @@
     </row>
     <row r="631" spans="1:26" ht="19.5" customHeight="1">
       <c r="A631" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B631" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C631" s="2" t="s">
         <v>7</v>
@@ -27139,10 +27136,10 @@
     </row>
     <row r="632" spans="1:26" ht="19.5" customHeight="1">
       <c r="A632" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B632" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C632" s="2" t="s">
         <v>7</v>
@@ -27175,10 +27172,10 @@
     </row>
     <row r="633" spans="1:26" ht="19.5" customHeight="1">
       <c r="A633" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B633" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C633" s="2" t="s">
         <v>7</v>
@@ -27211,10 +27208,10 @@
     </row>
     <row r="634" spans="1:26" ht="19.5" customHeight="1">
       <c r="A634" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B634" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C634" s="2" t="s">
         <v>7</v>
@@ -27247,10 +27244,10 @@
     </row>
     <row r="635" spans="1:26" ht="19.5" customHeight="1">
       <c r="A635" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B635" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C635" s="2" t="s">
         <v>7</v>
@@ -27283,10 +27280,10 @@
     </row>
     <row r="636" spans="1:26" ht="19.5" customHeight="1">
       <c r="A636" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B636" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C636" s="2" t="s">
         <v>7</v>
@@ -27319,10 +27316,10 @@
     </row>
     <row r="637" spans="1:26" ht="19.5" customHeight="1">
       <c r="A637" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B637" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C637" s="2" t="s">
         <v>7</v>
@@ -27355,10 +27352,10 @@
     </row>
     <row r="638" spans="1:26" ht="19.5" customHeight="1">
       <c r="A638" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B638" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C638" s="2" t="s">
         <v>7</v>
@@ -27389,10 +27386,10 @@
     </row>
     <row r="639" spans="1:26" ht="19.5" customHeight="1">
       <c r="A639" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B639" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C639" s="2" t="s">
         <v>7</v>
@@ -27425,10 +27422,10 @@
     </row>
     <row r="640" spans="1:26" ht="19.5" customHeight="1">
       <c r="A640" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B640" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C640" s="2" t="s">
         <v>7</v>
@@ -27461,10 +27458,10 @@
     </row>
     <row r="641" spans="1:26" ht="19.5" customHeight="1">
       <c r="A641" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B641" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C641" s="2" t="s">
         <v>7</v>
@@ -27497,10 +27494,10 @@
     </row>
     <row r="642" spans="1:26" ht="19.5" customHeight="1">
       <c r="A642" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B642" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C642" s="2" t="s">
         <v>7</v>
@@ -27533,10 +27530,10 @@
     </row>
     <row r="643" spans="1:26" ht="19.5" customHeight="1">
       <c r="A643" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B643" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C643" s="2" t="s">
         <v>7</v>
@@ -27569,10 +27566,10 @@
     </row>
     <row r="644" spans="1:26" ht="19.5" customHeight="1">
       <c r="A644" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B644" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C644" s="2" t="s">
         <v>7</v>
@@ -27605,10 +27602,10 @@
     </row>
     <row r="645" spans="1:26" ht="19.5" customHeight="1">
       <c r="A645" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B645" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C645" s="2" t="s">
         <v>7</v>
@@ -27641,10 +27638,10 @@
     </row>
     <row r="646" spans="1:26" ht="19.5" customHeight="1">
       <c r="A646" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B646" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C646" s="2" t="s">
         <v>7</v>
@@ -27677,10 +27674,10 @@
     </row>
     <row r="647" spans="1:26" ht="19.5" customHeight="1">
       <c r="A647" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B647" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C647" s="2" t="s">
         <v>7</v>
@@ -27713,10 +27710,10 @@
     </row>
     <row r="648" spans="1:26" ht="19.5" customHeight="1">
       <c r="A648" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B648" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C648" s="2" t="s">
         <v>7</v>
@@ -27747,10 +27744,10 @@
     </row>
     <row r="649" spans="1:26" ht="19.5" customHeight="1">
       <c r="A649" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B649" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C649" s="2" t="s">
         <v>7</v>
@@ -27783,10 +27780,10 @@
     </row>
     <row r="650" spans="1:26" ht="19.5" customHeight="1">
       <c r="A650" s="4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B650" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C650" s="2" t="s">
         <v>7</v>
@@ -27817,10 +27814,10 @@
     </row>
     <row r="651" spans="1:26" ht="19.5" customHeight="1">
       <c r="A651" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B651" s="4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C651" s="2" t="s">
         <v>7</v>
@@ -27853,10 +27850,10 @@
     </row>
     <row r="652" spans="1:26" ht="19.5" customHeight="1">
       <c r="A652" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B652" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C652" s="2" t="s">
         <v>7</v>
@@ -27887,10 +27884,10 @@
     </row>
     <row r="653" spans="1:26" ht="19.5" customHeight="1">
       <c r="A653" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B653" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C653" s="2" t="s">
         <v>7</v>
@@ -27921,10 +27918,10 @@
     </row>
     <row r="654" spans="1:26" ht="19.5" customHeight="1">
       <c r="A654" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B654" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C654" s="2" t="s">
         <v>7</v>
@@ -27957,10 +27954,10 @@
     </row>
     <row r="655" spans="1:26" ht="19.5" customHeight="1">
       <c r="A655" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B655" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C655" s="2" t="s">
         <v>7</v>
@@ -27993,10 +27990,10 @@
     </row>
     <row r="656" spans="1:26" ht="19.5" customHeight="1">
       <c r="A656" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B656" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C656" s="2" t="s">
         <v>7</v>
@@ -28029,10 +28026,10 @@
     </row>
     <row r="657" spans="1:26" ht="19.5" customHeight="1">
       <c r="A657" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B657" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C657" s="2" t="s">
         <v>7</v>
@@ -28065,10 +28062,10 @@
     </row>
     <row r="658" spans="1:26" ht="19.5" customHeight="1">
       <c r="A658" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B658" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C658" s="2" t="s">
         <v>7</v>
@@ -28099,10 +28096,10 @@
     </row>
     <row r="659" spans="1:26" ht="19.5" customHeight="1">
       <c r="A659" s="4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B659" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C659" s="2" t="s">
         <v>7</v>
@@ -28135,10 +28132,10 @@
     </row>
     <row r="660" spans="1:26" ht="19.5" customHeight="1">
       <c r="A660" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B660" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C660" s="2" t="s">
         <v>7</v>
@@ -28171,10 +28168,10 @@
     </row>
     <row r="661" spans="1:26" ht="19.5" customHeight="1">
       <c r="A661" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B661" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C661" s="2" t="s">
         <v>7</v>
@@ -28207,10 +28204,10 @@
     </row>
     <row r="662" spans="1:26" ht="19.5" customHeight="1">
       <c r="A662" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B662" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C662" s="2" t="s">
         <v>7</v>
@@ -28241,10 +28238,10 @@
     </row>
     <row r="663" spans="1:26" ht="19.5" customHeight="1">
       <c r="A663" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B663" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C663" s="2" t="s">
         <v>7</v>
@@ -28277,10 +28274,10 @@
     </row>
     <row r="664" spans="1:26" ht="19.5" customHeight="1">
       <c r="A664" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B664" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C664" s="2" t="s">
         <v>7</v>
@@ -28313,10 +28310,10 @@
     </row>
     <row r="665" spans="1:26" ht="19.5" customHeight="1">
       <c r="A665" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B665" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C665" s="2" t="s">
         <v>7</v>
@@ -28349,10 +28346,10 @@
     </row>
     <row r="666" spans="1:26" ht="19.5" customHeight="1">
       <c r="A666" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B666" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C666" s="2" t="s">
         <v>7</v>
@@ -28385,10 +28382,10 @@
     </row>
     <row r="667" spans="1:26" ht="19.5" customHeight="1">
       <c r="A667" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B667" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C667" s="2" t="s">
         <v>7</v>
@@ -28419,10 +28416,10 @@
     </row>
     <row r="668" spans="1:26" ht="19.5" customHeight="1">
       <c r="A668" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B668" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C668" s="2" t="s">
         <v>7</v>
@@ -28455,10 +28452,10 @@
     </row>
     <row r="669" spans="1:26" ht="19.5" customHeight="1">
       <c r="A669" s="4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B669" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C669" s="2" t="s">
         <v>7</v>
@@ -28491,10 +28488,10 @@
     </row>
     <row r="670" spans="1:26" ht="19.5" customHeight="1">
       <c r="A670" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B670" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C670" s="2" t="s">
         <v>7</v>
@@ -28527,10 +28524,10 @@
     </row>
     <row r="671" spans="1:26" ht="19.5" customHeight="1">
       <c r="A671" s="4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B671" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C671" s="2" t="s">
         <v>7</v>
@@ -28561,10 +28558,10 @@
     </row>
     <row r="672" spans="1:26" ht="19.5" customHeight="1">
       <c r="A672" s="4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B672" s="4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C672" s="2" t="s">
         <v>7</v>
@@ -28597,10 +28594,10 @@
     </row>
     <row r="673" spans="1:26" ht="19.5" customHeight="1">
       <c r="A673" s="4" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B673" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C673" s="2" t="s">
         <v>7</v>
@@ -28631,10 +28628,10 @@
     </row>
     <row r="674" spans="1:26" ht="19.5" customHeight="1">
       <c r="A674" s="4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B674" s="4" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C674" s="2" t="s">
         <v>7</v>
@@ -28667,10 +28664,10 @@
     </row>
     <row r="675" spans="1:26" ht="19.5" customHeight="1">
       <c r="A675" s="4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B675" s="4" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C675" s="2" t="s">
         <v>7</v>
@@ -28703,10 +28700,10 @@
     </row>
     <row r="676" spans="1:26" ht="19.5" customHeight="1">
       <c r="A676" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B676" s="4" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C676" s="2" t="s">
         <v>7</v>
@@ -28739,10 +28736,10 @@
     </row>
     <row r="677" spans="1:26" ht="19.5" customHeight="1">
       <c r="A677" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B677" s="4" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C677" s="2" t="s">
         <v>7</v>
@@ -28775,10 +28772,10 @@
     </row>
     <row r="678" spans="1:26" ht="19.5" customHeight="1">
       <c r="A678" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B678" s="4" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C678" s="2" t="s">
         <v>7</v>
@@ -28811,10 +28808,10 @@
     </row>
     <row r="679" spans="1:26" ht="19.5" customHeight="1">
       <c r="A679" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B679" s="4" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C679" s="2" t="s">
         <v>7</v>
@@ -28847,10 +28844,10 @@
     </row>
     <row r="680" spans="1:26" ht="19.5" customHeight="1">
       <c r="A680" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B680" s="4" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C680" s="2" t="s">
         <v>7</v>
@@ -28883,10 +28880,10 @@
     </row>
     <row r="681" spans="1:26" ht="19.5" customHeight="1">
       <c r="A681" s="4" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B681" s="4" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C681" s="2" t="s">
         <v>7</v>
@@ -28919,10 +28916,10 @@
     </row>
     <row r="682" spans="1:26" ht="19.5" customHeight="1">
       <c r="A682" s="4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B682" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C682" s="2" t="s">
         <v>7</v>
@@ -28953,10 +28950,10 @@
     </row>
     <row r="683" spans="1:26" ht="19.5" customHeight="1">
       <c r="A683" s="4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B683" s="4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C683" s="2" t="s">
         <v>7</v>
@@ -28989,10 +28986,10 @@
     </row>
     <row r="684" spans="1:26" ht="19.5" customHeight="1">
       <c r="A684" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B684" s="4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C684" s="2" t="s">
         <v>7</v>
@@ -29025,10 +29022,10 @@
     </row>
     <row r="685" spans="1:26" ht="19.5" customHeight="1">
       <c r="A685" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B685" s="4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C685" s="2" t="s">
         <v>7</v>
@@ -29061,10 +29058,10 @@
     </row>
     <row r="686" spans="1:26" ht="19.5" customHeight="1">
       <c r="A686" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B686" s="4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C686" s="2" t="s">
         <v>7</v>
@@ -29097,10 +29094,10 @@
     </row>
     <row r="687" spans="1:26" ht="19.5" customHeight="1">
       <c r="A687" s="4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B687" s="4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C687" s="2" t="s">
         <v>7</v>
@@ -29133,10 +29130,10 @@
     </row>
     <row r="688" spans="1:26" ht="19.5" customHeight="1">
       <c r="A688" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B688" s="4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C688" s="2" t="s">
         <v>7</v>
@@ -29169,10 +29166,10 @@
     </row>
     <row r="689" spans="1:26" ht="19.5" customHeight="1">
       <c r="A689" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B689" s="4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C689" s="2" t="s">
         <v>7</v>
@@ -29205,10 +29202,10 @@
     </row>
     <row r="690" spans="1:26" ht="19.5" customHeight="1">
       <c r="A690" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B690" s="4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C690" s="2" t="s">
         <v>7</v>
@@ -29241,10 +29238,10 @@
     </row>
     <row r="691" spans="1:26" ht="19.5" customHeight="1">
       <c r="A691" s="4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B691" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C691" s="2" t="s">
         <v>7</v>
@@ -29275,10 +29272,10 @@
     </row>
     <row r="692" spans="1:26" ht="19.5" customHeight="1">
       <c r="A692" s="4" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B692" s="4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C692" s="2" t="s">
         <v>7</v>
@@ -29311,10 +29308,10 @@
     </row>
     <row r="693" spans="1:26" ht="19.5" customHeight="1">
       <c r="A693" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B693" s="4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C693" s="2" t="s">
         <v>7</v>
@@ -29347,10 +29344,10 @@
     </row>
     <row r="694" spans="1:26" ht="19.5" customHeight="1">
       <c r="A694" s="4" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B694" s="4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C694" s="2" t="s">
         <v>7</v>
@@ -29383,10 +29380,10 @@
     </row>
     <row r="695" spans="1:26" ht="19.5" customHeight="1">
       <c r="A695" s="4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B695" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C695" s="2" t="s">
         <v>7</v>
@@ -29417,10 +29414,10 @@
     </row>
     <row r="696" spans="1:26" ht="19.5" customHeight="1">
       <c r="A696" s="4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B696" s="4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C696" s="2" t="s">
         <v>7</v>
@@ -29453,10 +29450,10 @@
     </row>
     <row r="697" spans="1:26" ht="19.5" customHeight="1">
       <c r="A697" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B697" s="4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C697" s="2" t="s">
         <v>7</v>
@@ -29489,10 +29486,10 @@
     </row>
     <row r="698" spans="1:26" ht="19.5" customHeight="1">
       <c r="A698" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B698" s="4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C698" s="2" t="s">
         <v>7</v>
@@ -29525,7 +29522,7 @@
     </row>
     <row r="699" spans="1:26" ht="19.5" customHeight="1">
       <c r="A699" s="4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B699" s="4" t="s">
         <v>6</v>
@@ -29559,10 +29556,10 @@
     </row>
     <row r="700" spans="1:26" ht="19.5" customHeight="1">
       <c r="A700" s="4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B700" s="4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C700" s="2" t="s">
         <v>7</v>
@@ -29593,10 +29590,10 @@
     </row>
     <row r="701" spans="1:26" ht="19.5" customHeight="1">
       <c r="A701" s="4" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B701" s="4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C701" s="2" t="s">
         <v>7</v>
@@ -29627,10 +29624,10 @@
     </row>
     <row r="702" spans="1:26" ht="19.5" customHeight="1">
       <c r="A702" s="4" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B702" s="4" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C702" s="2" t="s">
         <v>7</v>
@@ -29663,10 +29660,10 @@
     </row>
     <row r="703" spans="1:26" ht="19.5" customHeight="1">
       <c r="A703" s="4" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B703" s="4" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C703" s="2" t="s">
         <v>7</v>
@@ -29699,10 +29696,10 @@
     </row>
     <row r="704" spans="1:26" ht="19.5" customHeight="1">
       <c r="A704" s="4" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B704" s="4" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C704" s="2" t="s">
         <v>7</v>
@@ -29735,10 +29732,10 @@
     </row>
     <row r="705" spans="1:26" ht="19.5" customHeight="1">
       <c r="A705" s="4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B705" s="4" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C705" s="2" t="s">
         <v>7</v>
@@ -29771,10 +29768,10 @@
     </row>
     <row r="706" spans="1:26" ht="19.5" customHeight="1">
       <c r="A706" s="4" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B706" s="4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C706" s="2" t="s">
         <v>7</v>
@@ -29805,10 +29802,10 @@
     </row>
     <row r="707" spans="1:26" ht="19.5" customHeight="1">
       <c r="A707" s="4" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B707" s="4" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C707" s="2" t="s">
         <v>7</v>
@@ -29841,10 +29838,10 @@
     </row>
     <row r="708" spans="1:26" ht="19.5" customHeight="1">
       <c r="A708" s="4" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B708" s="4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C708" s="2" t="s">
         <v>7</v>
@@ -29875,10 +29872,10 @@
     </row>
     <row r="709" spans="1:26" ht="19.5" customHeight="1">
       <c r="A709" s="4" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B709" s="4" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C709" s="2" t="s">
         <v>7</v>
@@ -29911,10 +29908,10 @@
     </row>
     <row r="710" spans="1:26" ht="19.5" customHeight="1">
       <c r="A710" s="4" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B710" s="4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C710" s="2" t="s">
         <v>7</v>
@@ -29945,10 +29942,10 @@
     </row>
     <row r="711" spans="1:26" ht="19.5" customHeight="1">
       <c r="A711" s="4" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B711" s="4" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C711" s="2" t="s">
         <v>7</v>
@@ -29981,10 +29978,10 @@
     </row>
     <row r="712" spans="1:26" ht="19.5" customHeight="1">
       <c r="A712" s="4" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B712" s="4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C712" s="2" t="s">
         <v>7</v>
@@ -30015,10 +30012,10 @@
     </row>
     <row r="713" spans="1:26" ht="19.5" customHeight="1">
       <c r="A713" s="4" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B713" s="4" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C713" s="2" t="s">
         <v>7</v>
@@ -30051,10 +30048,10 @@
     </row>
     <row r="714" spans="1:26" ht="19.5" customHeight="1">
       <c r="A714" s="4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B714" s="4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C714" s="2" t="s">
         <v>7</v>
@@ -30085,10 +30082,10 @@
     </row>
     <row r="715" spans="1:26" ht="19.5" customHeight="1">
       <c r="A715" s="4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B715" s="4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C715" s="2" t="s">
         <v>7</v>
@@ -30121,7 +30118,7 @@
     </row>
     <row r="716" spans="1:26" ht="19.5" customHeight="1">
       <c r="A716" s="4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B716" s="4" t="s">
         <v>6</v>
@@ -30153,10 +30150,10 @@
     </row>
     <row r="717" spans="1:26" ht="19.5" customHeight="1">
       <c r="A717" s="4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B717" s="4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C717" s="3"/>
       <c r="D717" s="3"/>
@@ -30185,10 +30182,10 @@
     </row>
     <row r="718" spans="1:26" ht="19.5" customHeight="1">
       <c r="A718" s="4" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B718" s="4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C718" s="3"/>
       <c r="D718" s="3"/>
@@ -30217,10 +30214,10 @@
     </row>
     <row r="719" spans="1:26" ht="19.5" customHeight="1">
       <c r="A719" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B719" s="4" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C719" s="3"/>
       <c r="D719" s="3"/>
@@ -30251,10 +30248,10 @@
     </row>
     <row r="720" spans="1:26" ht="19.5" customHeight="1">
       <c r="A720" s="4" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B720" s="4" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C720" s="3"/>
       <c r="D720" s="3"/>
@@ -30285,10 +30282,10 @@
     </row>
     <row r="721" spans="1:26" ht="19.5" customHeight="1">
       <c r="A721" s="4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B721" s="4" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C721" s="3"/>
       <c r="D721" s="3"/>
@@ -30319,10 +30316,10 @@
     </row>
     <row r="722" spans="1:26" ht="19.5" customHeight="1">
       <c r="A722" s="4" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B722" s="4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C722" s="3"/>
       <c r="D722" s="3"/>
@@ -30351,10 +30348,10 @@
     </row>
     <row r="723" spans="1:26" ht="19.5" customHeight="1">
       <c r="A723" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B723" s="4" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C723" s="3"/>
       <c r="D723" s="3"/>
@@ -30385,10 +30382,10 @@
     </row>
     <row r="724" spans="1:26" ht="19.5" customHeight="1">
       <c r="A724" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B724" s="4" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C724" s="3"/>
       <c r="D724" s="3"/>
@@ -30419,10 +30416,10 @@
     </row>
     <row r="725" spans="1:26" ht="19.5" customHeight="1">
       <c r="A725" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B725" s="4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C725" s="3"/>
       <c r="D725" s="3"/>
@@ -30451,10 +30448,10 @@
     </row>
     <row r="726" spans="1:26" ht="19.5" customHeight="1">
       <c r="A726" s="4" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B726" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C726" s="3"/>
       <c r="D726" s="3"/>
@@ -30485,10 +30482,10 @@
     </row>
     <row r="727" spans="1:26" ht="19.5" customHeight="1">
       <c r="A727" s="4" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B727" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C727" s="3"/>
       <c r="D727" s="3"/>
@@ -30519,10 +30516,10 @@
     </row>
     <row r="728" spans="1:26" ht="19.5" customHeight="1">
       <c r="A728" s="4" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B728" s="4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C728" s="3"/>
       <c r="D728" s="3"/>
@@ -30551,10 +30548,10 @@
     </row>
     <row r="729" spans="1:26" ht="19.5" customHeight="1">
       <c r="A729" s="4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B729" s="4" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C729" s="3"/>
       <c r="D729" s="3"/>
@@ -30585,10 +30582,10 @@
     </row>
     <row r="730" spans="1:26" ht="19.5" customHeight="1">
       <c r="A730" s="4" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B730" s="4" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C730" s="3"/>
       <c r="D730" s="3"/>
@@ -30619,10 +30616,10 @@
     </row>
     <row r="731" spans="1:26" ht="19.5" customHeight="1">
       <c r="A731" s="4" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B731" s="4" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C731" s="3"/>
       <c r="D731" s="3"/>
@@ -30653,10 +30650,10 @@
     </row>
     <row r="732" spans="1:26" ht="19.5" customHeight="1">
       <c r="A732" s="4" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B732" s="4" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C732" s="3"/>
       <c r="D732" s="3"/>
@@ -30687,10 +30684,10 @@
     </row>
     <row r="733" spans="1:26" ht="19.5" customHeight="1">
       <c r="A733" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B733" s="4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C733" s="3"/>
       <c r="D733" s="3"/>
@@ -30719,10 +30716,10 @@
     </row>
     <row r="734" spans="1:26" ht="19.5" customHeight="1">
       <c r="A734" s="4" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B734" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C734" s="3"/>
       <c r="D734" s="3"/>
@@ -30753,10 +30750,10 @@
     </row>
     <row r="735" spans="1:26" ht="19.5" customHeight="1">
       <c r="A735" s="4" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B735" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C735" s="3"/>
       <c r="D735" s="3"/>
@@ -30787,10 +30784,10 @@
     </row>
     <row r="736" spans="1:26" ht="19.5" customHeight="1">
       <c r="A736" s="4" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B736" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C736" s="3"/>
       <c r="D736" s="3"/>
@@ -30821,10 +30818,10 @@
     </row>
     <row r="737" spans="1:26" ht="19.5" customHeight="1">
       <c r="A737" s="4" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B737" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C737" s="3"/>
       <c r="D737" s="3"/>
@@ -30855,10 +30852,10 @@
     </row>
     <row r="738" spans="1:26" ht="19.5" customHeight="1">
       <c r="A738" s="4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B738" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C738" s="3"/>
       <c r="D738" s="3"/>
@@ -30889,10 +30886,10 @@
     </row>
     <row r="739" spans="1:26" ht="19.5" customHeight="1">
       <c r="A739" s="4" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B739" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C739" s="3"/>
       <c r="D739" s="3"/>
@@ -30923,10 +30920,10 @@
     </row>
     <row r="740" spans="1:26" ht="19.5" customHeight="1">
       <c r="A740" s="4" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B740" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C740" s="3"/>
       <c r="D740" s="3"/>
@@ -30957,10 +30954,10 @@
     </row>
     <row r="741" spans="1:26" ht="19.5" customHeight="1">
       <c r="A741" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B741" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C741" s="3"/>
       <c r="D741" s="3"/>
@@ -30991,10 +30988,10 @@
     </row>
     <row r="742" spans="1:26" ht="19.5" customHeight="1">
       <c r="A742" s="4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B742" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C742" s="3"/>
       <c r="D742" s="3"/>
@@ -31025,10 +31022,10 @@
     </row>
     <row r="743" spans="1:26" ht="19.5" customHeight="1">
       <c r="A743" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B743" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C743" s="3"/>
       <c r="D743" s="3"/>
@@ -31059,10 +31056,10 @@
     </row>
     <row r="744" spans="1:26" ht="19.5" customHeight="1">
       <c r="A744" s="4" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B744" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C744" s="3"/>
       <c r="D744" s="3"/>
@@ -31093,10 +31090,10 @@
     </row>
     <row r="745" spans="1:26" ht="19.5" customHeight="1">
       <c r="A745" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B745" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C745" s="3"/>
       <c r="D745" s="3"/>
@@ -31127,10 +31124,10 @@
     </row>
     <row r="746" spans="1:26" ht="19.5" customHeight="1">
       <c r="A746" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B746" s="4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C746" s="3"/>
       <c r="D746" s="3"/>
@@ -31159,10 +31156,10 @@
     </row>
     <row r="747" spans="1:26" ht="19.5" customHeight="1">
       <c r="A747" s="4" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B747" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C747" s="3"/>
       <c r="D747" s="3"/>
@@ -31193,10 +31190,10 @@
     </row>
     <row r="748" spans="1:26" ht="19.5" customHeight="1">
       <c r="A748" s="4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B748" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C748" s="3"/>
       <c r="D748" s="3"/>
@@ -31227,10 +31224,10 @@
     </row>
     <row r="749" spans="1:26" ht="19.5" customHeight="1">
       <c r="A749" s="4" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B749" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C749" s="3"/>
       <c r="D749" s="3"/>
@@ -31261,10 +31258,10 @@
     </row>
     <row r="750" spans="1:26" ht="19.5" customHeight="1">
       <c r="A750" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B750" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C750" s="3"/>
       <c r="D750" s="3"/>
@@ -31295,10 +31292,10 @@
     </row>
     <row r="751" spans="1:26" ht="19.5" customHeight="1">
       <c r="A751" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B751" s="4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C751" s="3"/>
       <c r="D751" s="3"/>
@@ -31327,10 +31324,10 @@
     </row>
     <row r="752" spans="1:26" ht="19.5" customHeight="1">
       <c r="A752" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B752" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C752" s="3"/>
       <c r="D752" s="3"/>
@@ -31361,10 +31358,10 @@
     </row>
     <row r="753" spans="1:26" ht="19.5" customHeight="1">
       <c r="A753" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B753" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C753" s="3"/>
       <c r="D753" s="3"/>
@@ -31395,10 +31392,10 @@
     </row>
     <row r="754" spans="1:26" ht="19.5" customHeight="1">
       <c r="A754" s="4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B754" s="4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C754" s="3"/>
       <c r="D754" s="3"/>
@@ -31427,10 +31424,10 @@
     </row>
     <row r="755" spans="1:26" ht="19.5" customHeight="1">
       <c r="A755" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B755" s="4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C755" s="3"/>
       <c r="D755" s="3"/>
@@ -31461,10 +31458,10 @@
     </row>
     <row r="756" spans="1:26" ht="19.5" customHeight="1">
       <c r="A756" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B756" s="4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C756" s="3"/>
       <c r="D756" s="3"/>
@@ -31495,10 +31492,10 @@
     </row>
     <row r="757" spans="1:26" ht="19.5" customHeight="1">
       <c r="A757" s="4" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B757" s="4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C757" s="3"/>
       <c r="D757" s="3"/>
@@ -31529,10 +31526,10 @@
     </row>
     <row r="758" spans="1:26" ht="19.5" customHeight="1">
       <c r="A758" s="4" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B758" s="4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C758" s="3"/>
       <c r="D758" s="3"/>
@@ -31563,10 +31560,10 @@
     </row>
     <row r="759" spans="1:26" ht="19.5" customHeight="1">
       <c r="A759" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B759" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C759" s="3"/>
       <c r="D759" s="3"/>
@@ -31597,10 +31594,10 @@
     </row>
     <row r="760" spans="1:26" ht="19.5" customHeight="1">
       <c r="A760" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B760" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C760" s="3"/>
       <c r="D760" s="3"/>
@@ -31631,10 +31628,10 @@
     </row>
     <row r="761" spans="1:26" ht="19.5" customHeight="1">
       <c r="A761" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B761" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C761" s="3"/>
       <c r="D761" s="3"/>
@@ -31665,10 +31662,10 @@
     </row>
     <row r="762" spans="1:26" ht="19.5" customHeight="1">
       <c r="A762" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B762" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C762" s="3"/>
       <c r="D762" s="3"/>
@@ -31699,10 +31696,10 @@
     </row>
     <row r="763" spans="1:26" ht="19.5" customHeight="1">
       <c r="A763" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B763" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C763" s="3"/>
       <c r="D763" s="3"/>
@@ -31733,10 +31730,10 @@
     </row>
     <row r="764" spans="1:26" ht="19.5" customHeight="1">
       <c r="A764" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B764" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C764" s="3"/>
       <c r="D764" s="3"/>
@@ -31767,10 +31764,10 @@
     </row>
     <row r="765" spans="1:26" ht="19.5" customHeight="1">
       <c r="A765" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B765" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C765" s="3"/>
       <c r="D765" s="3"/>
@@ -31801,10 +31798,10 @@
     </row>
     <row r="766" spans="1:26" ht="19.5" customHeight="1">
       <c r="A766" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B766" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C766" s="3"/>
       <c r="D766" s="3"/>
@@ -31835,10 +31832,10 @@
     </row>
     <row r="767" spans="1:26" ht="19.5" customHeight="1">
       <c r="A767" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B767" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C767" s="3"/>
       <c r="D767" s="3"/>
@@ -31869,10 +31866,10 @@
     </row>
     <row r="768" spans="1:26" ht="19.5" customHeight="1">
       <c r="A768" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B768" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C768" s="3"/>
       <c r="D768" s="3"/>
@@ -31903,10 +31900,10 @@
     </row>
     <row r="769" spans="1:26" ht="19.5" customHeight="1">
       <c r="A769" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B769" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C769" s="3"/>
       <c r="D769" s="3"/>
@@ -31937,10 +31934,10 @@
     </row>
     <row r="770" spans="1:26" ht="19.5" customHeight="1">
       <c r="A770" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B770" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C770" s="3"/>
       <c r="D770" s="3"/>
@@ -31969,10 +31966,10 @@
     </row>
     <row r="771" spans="1:26" ht="19.5" customHeight="1">
       <c r="A771" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B771" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C771" s="3"/>
       <c r="D771" s="3"/>
@@ -32003,10 +32000,10 @@
     </row>
     <row r="772" spans="1:26" ht="19.5" customHeight="1">
       <c r="A772" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B772" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C772" s="3"/>
       <c r="D772" s="3"/>
@@ -32037,10 +32034,10 @@
     </row>
     <row r="773" spans="1:26" ht="19.5" customHeight="1">
       <c r="A773" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B773" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C773" s="3"/>
       <c r="D773" s="3"/>
@@ -32069,10 +32066,10 @@
     </row>
     <row r="774" spans="1:26" ht="19.5" customHeight="1">
       <c r="A774" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B774" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C774" s="3"/>
       <c r="D774" s="3"/>
@@ -32103,10 +32100,10 @@
     </row>
     <row r="775" spans="1:26" ht="19.5" customHeight="1">
       <c r="A775" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B775" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C775" s="3"/>
       <c r="D775" s="3"/>

--- a/Data_file/product_category_import.xlsx
+++ b/Data_file/product_category_import.xlsx
@@ -3373,8 +3373,8 @@
   </sheetPr>
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A271" workbookViewId="0">
-      <selection activeCell="A271" sqref="A271"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A767" workbookViewId="0">
+      <selection activeCell="D778" sqref="D778"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.95" customHeight="1"/>
@@ -3466,12 +3466,8 @@
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="6">
-        <v>411000</v>
-      </c>
-      <c r="E3" s="6">
-        <v>518600</v>
-      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -3508,7 +3504,7 @@
         <v>411000</v>
       </c>
       <c r="E4" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -3546,7 +3542,7 @@
         <v>411000</v>
       </c>
       <c r="E5" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -3584,7 +3580,7 @@
         <v>411000</v>
       </c>
       <c r="E6" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -3622,7 +3618,7 @@
         <v>411000</v>
       </c>
       <c r="E7" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -3660,7 +3656,7 @@
         <v>411000</v>
       </c>
       <c r="E8" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -3698,7 +3694,7 @@
         <v>411000</v>
       </c>
       <c r="E9" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -3736,7 +3732,7 @@
         <v>411000</v>
       </c>
       <c r="E10" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -3774,7 +3770,7 @@
         <v>411000</v>
       </c>
       <c r="E11" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -3812,7 +3808,7 @@
         <v>411000</v>
       </c>
       <c r="E12" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -3850,7 +3846,7 @@
         <v>411000</v>
       </c>
       <c r="E13" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -3888,7 +3884,7 @@
         <v>411000</v>
       </c>
       <c r="E14" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -3926,7 +3922,7 @@
         <v>411000</v>
       </c>
       <c r="E15" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -3964,7 +3960,7 @@
         <v>411000</v>
       </c>
       <c r="E16" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -4002,7 +3998,7 @@
         <v>411000</v>
       </c>
       <c r="E17" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -4040,7 +4036,7 @@
         <v>411000</v>
       </c>
       <c r="E18" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -4078,7 +4074,7 @@
         <v>411000</v>
       </c>
       <c r="E19" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -4116,7 +4112,7 @@
         <v>411000</v>
       </c>
       <c r="E20" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -4154,7 +4150,7 @@
         <v>411000</v>
       </c>
       <c r="E21" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -4192,7 +4188,7 @@
         <v>411000</v>
       </c>
       <c r="E22" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -4230,7 +4226,7 @@
         <v>411000</v>
       </c>
       <c r="E23" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -4268,7 +4264,7 @@
         <v>411000</v>
       </c>
       <c r="E24" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -4306,7 +4302,7 @@
         <v>411000</v>
       </c>
       <c r="E25" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -4344,7 +4340,7 @@
         <v>411000</v>
       </c>
       <c r="E26" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -4382,7 +4378,7 @@
         <v>411000</v>
       </c>
       <c r="E27" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -4420,7 +4416,7 @@
         <v>411000</v>
       </c>
       <c r="E28" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -4458,7 +4454,7 @@
         <v>411000</v>
       </c>
       <c r="E29" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -4496,7 +4492,7 @@
         <v>411000</v>
       </c>
       <c r="E30" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -4534,7 +4530,7 @@
         <v>411000</v>
       </c>
       <c r="E31" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -4572,7 +4568,7 @@
         <v>411000</v>
       </c>
       <c r="E32" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -4610,7 +4606,7 @@
         <v>411000</v>
       </c>
       <c r="E33" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -4648,7 +4644,7 @@
         <v>411000</v>
       </c>
       <c r="E34" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -4686,7 +4682,7 @@
         <v>411000</v>
       </c>
       <c r="E35" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -4724,7 +4720,7 @@
         <v>411000</v>
       </c>
       <c r="E36" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -4762,7 +4758,7 @@
         <v>411000</v>
       </c>
       <c r="E37" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
@@ -4800,7 +4796,7 @@
         <v>411000</v>
       </c>
       <c r="E38" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -4838,7 +4834,7 @@
         <v>411000</v>
       </c>
       <c r="E39" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -4876,7 +4872,7 @@
         <v>411000</v>
       </c>
       <c r="E40" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
@@ -4914,7 +4910,7 @@
         <v>411000</v>
       </c>
       <c r="E41" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
@@ -4952,7 +4948,7 @@
         <v>411000</v>
       </c>
       <c r="E42" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -4990,7 +4986,7 @@
         <v>411000</v>
       </c>
       <c r="E43" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
@@ -5028,7 +5024,7 @@
         <v>411000</v>
       </c>
       <c r="E44" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -5066,7 +5062,7 @@
         <v>411000</v>
       </c>
       <c r="E45" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
@@ -5104,7 +5100,7 @@
         <v>411000</v>
       </c>
       <c r="E46" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
@@ -5142,7 +5138,7 @@
         <v>411000</v>
       </c>
       <c r="E47" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
@@ -5180,7 +5176,7 @@
         <v>411000</v>
       </c>
       <c r="E48" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
@@ -5218,7 +5214,7 @@
         <v>411000</v>
       </c>
       <c r="E49" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
@@ -5256,7 +5252,7 @@
         <v>411000</v>
       </c>
       <c r="E50" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
@@ -5294,7 +5290,7 @@
         <v>411000</v>
       </c>
       <c r="E51" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
@@ -5332,7 +5328,7 @@
         <v>411000</v>
       </c>
       <c r="E52" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
@@ -5370,7 +5366,7 @@
         <v>411000</v>
       </c>
       <c r="E53" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -5408,7 +5404,7 @@
         <v>411000</v>
       </c>
       <c r="E54" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -5446,7 +5442,7 @@
         <v>411000</v>
       </c>
       <c r="E55" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
@@ -5484,7 +5480,7 @@
         <v>411000</v>
       </c>
       <c r="E56" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
@@ -5522,7 +5518,7 @@
         <v>411000</v>
       </c>
       <c r="E57" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
@@ -5560,7 +5556,7 @@
         <v>411000</v>
       </c>
       <c r="E58" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
@@ -5598,7 +5594,7 @@
         <v>411000</v>
       </c>
       <c r="E59" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
@@ -5636,7 +5632,7 @@
         <v>411000</v>
       </c>
       <c r="E60" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
@@ -5674,7 +5670,7 @@
         <v>411000</v>
       </c>
       <c r="E61" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
@@ -5712,7 +5708,7 @@
         <v>411000</v>
       </c>
       <c r="E62" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
@@ -5750,7 +5746,7 @@
         <v>411000</v>
       </c>
       <c r="E63" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
@@ -5788,7 +5784,7 @@
         <v>411000</v>
       </c>
       <c r="E64" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -5826,7 +5822,7 @@
         <v>411000</v>
       </c>
       <c r="E65" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
@@ -5864,7 +5860,7 @@
         <v>411000</v>
       </c>
       <c r="E66" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
@@ -5902,7 +5898,7 @@
         <v>411000</v>
       </c>
       <c r="E67" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
@@ -5940,7 +5936,7 @@
         <v>411000</v>
       </c>
       <c r="E68" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
@@ -5978,7 +5974,7 @@
         <v>411000</v>
       </c>
       <c r="E69" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
@@ -6016,7 +6012,7 @@
         <v>411000</v>
       </c>
       <c r="E70" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
@@ -6054,7 +6050,7 @@
         <v>411000</v>
       </c>
       <c r="E71" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
@@ -6092,7 +6088,7 @@
         <v>411000</v>
       </c>
       <c r="E72" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
@@ -6130,7 +6126,7 @@
         <v>411000</v>
       </c>
       <c r="E73" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
@@ -6168,7 +6164,7 @@
         <v>411000</v>
       </c>
       <c r="E74" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -6206,7 +6202,7 @@
         <v>411000</v>
       </c>
       <c r="E75" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
@@ -6244,7 +6240,7 @@
         <v>411000</v>
       </c>
       <c r="E76" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
@@ -6282,7 +6278,7 @@
         <v>411000</v>
       </c>
       <c r="E77" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
@@ -6320,7 +6316,7 @@
         <v>411000</v>
       </c>
       <c r="E78" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
@@ -6358,7 +6354,7 @@
         <v>411000</v>
       </c>
       <c r="E79" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
@@ -6396,7 +6392,7 @@
         <v>411000</v>
       </c>
       <c r="E80" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
@@ -6434,7 +6430,7 @@
         <v>411000</v>
       </c>
       <c r="E81" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
@@ -6472,7 +6468,7 @@
         <v>411000</v>
       </c>
       <c r="E82" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
@@ -6510,7 +6506,7 @@
         <v>411000</v>
       </c>
       <c r="E83" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
@@ -6548,7 +6544,7 @@
         <v>411000</v>
       </c>
       <c r="E84" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -6586,7 +6582,7 @@
         <v>411000</v>
       </c>
       <c r="E85" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
@@ -6624,7 +6620,7 @@
         <v>411000</v>
       </c>
       <c r="E86" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
@@ -6662,7 +6658,7 @@
         <v>411000</v>
       </c>
       <c r="E87" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
@@ -6700,7 +6696,7 @@
         <v>411000</v>
       </c>
       <c r="E88" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
@@ -6738,7 +6734,7 @@
         <v>411000</v>
       </c>
       <c r="E89" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
@@ -6776,7 +6772,7 @@
         <v>411000</v>
       </c>
       <c r="E90" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
@@ -6814,7 +6810,7 @@
         <v>411000</v>
       </c>
       <c r="E91" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
@@ -6852,7 +6848,7 @@
         <v>411000</v>
       </c>
       <c r="E92" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
@@ -6890,7 +6886,7 @@
         <v>411000</v>
       </c>
       <c r="E93" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
@@ -6928,7 +6924,7 @@
         <v>411000</v>
       </c>
       <c r="E94" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -6966,7 +6962,7 @@
         <v>411000</v>
       </c>
       <c r="E95" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
@@ -7004,7 +7000,7 @@
         <v>411000</v>
       </c>
       <c r="E96" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
@@ -7042,7 +7038,7 @@
         <v>411000</v>
       </c>
       <c r="E97" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
@@ -7080,7 +7076,7 @@
         <v>411000</v>
       </c>
       <c r="E98" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
@@ -7118,7 +7114,7 @@
         <v>411000</v>
       </c>
       <c r="E99" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
@@ -7156,7 +7152,7 @@
         <v>411000</v>
       </c>
       <c r="E100" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
@@ -7194,7 +7190,7 @@
         <v>411000</v>
       </c>
       <c r="E101" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
@@ -7232,7 +7228,7 @@
         <v>411000</v>
       </c>
       <c r="E102" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
@@ -7270,7 +7266,7 @@
         <v>411000</v>
       </c>
       <c r="E103" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
@@ -7308,7 +7304,7 @@
         <v>411000</v>
       </c>
       <c r="E104" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -7346,7 +7342,7 @@
         <v>411000</v>
       </c>
       <c r="E105" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
@@ -7384,7 +7380,7 @@
         <v>411000</v>
       </c>
       <c r="E106" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
@@ -7422,7 +7418,7 @@
         <v>411000</v>
       </c>
       <c r="E107" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
@@ -7460,7 +7456,7 @@
         <v>411000</v>
       </c>
       <c r="E108" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
@@ -7498,7 +7494,7 @@
         <v>411000</v>
       </c>
       <c r="E109" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
@@ -7536,7 +7532,7 @@
         <v>411000</v>
       </c>
       <c r="E110" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
@@ -7574,7 +7570,7 @@
         <v>411000</v>
       </c>
       <c r="E111" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
@@ -7612,7 +7608,7 @@
         <v>411000</v>
       </c>
       <c r="E112" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
@@ -7650,7 +7646,7 @@
         <v>411000</v>
       </c>
       <c r="E113" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
@@ -7688,7 +7684,7 @@
         <v>411000</v>
       </c>
       <c r="E114" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -7726,7 +7722,7 @@
         <v>411000</v>
       </c>
       <c r="E115" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
@@ -7764,7 +7760,7 @@
         <v>411000</v>
       </c>
       <c r="E116" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
@@ -7802,7 +7798,7 @@
         <v>411000</v>
       </c>
       <c r="E117" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
@@ -7840,7 +7836,7 @@
         <v>411000</v>
       </c>
       <c r="E118" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
@@ -7878,7 +7874,7 @@
         <v>411000</v>
       </c>
       <c r="E119" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
@@ -7916,7 +7912,7 @@
         <v>411000</v>
       </c>
       <c r="E120" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
@@ -7954,7 +7950,7 @@
         <v>411000</v>
       </c>
       <c r="E121" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
@@ -7992,7 +7988,7 @@
         <v>411000</v>
       </c>
       <c r="E122" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
@@ -8030,7 +8026,7 @@
         <v>411000</v>
       </c>
       <c r="E123" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
@@ -8068,7 +8064,7 @@
         <v>411000</v>
       </c>
       <c r="E124" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -8106,7 +8102,7 @@
         <v>411000</v>
       </c>
       <c r="E125" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
@@ -8144,7 +8140,7 @@
         <v>411000</v>
       </c>
       <c r="E126" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
@@ -8182,7 +8178,7 @@
         <v>411000</v>
       </c>
       <c r="E127" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
@@ -8220,7 +8216,7 @@
         <v>411000</v>
       </c>
       <c r="E128" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
@@ -8258,7 +8254,7 @@
         <v>411000</v>
       </c>
       <c r="E129" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
@@ -8296,7 +8292,7 @@
         <v>411000</v>
       </c>
       <c r="E130" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
@@ -8334,7 +8330,7 @@
         <v>411000</v>
       </c>
       <c r="E131" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
@@ -8372,7 +8368,7 @@
         <v>411000</v>
       </c>
       <c r="E132" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
@@ -8410,7 +8406,7 @@
         <v>411000</v>
       </c>
       <c r="E133" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
@@ -8448,7 +8444,7 @@
         <v>411000</v>
       </c>
       <c r="E134" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -8486,7 +8482,7 @@
         <v>411000</v>
       </c>
       <c r="E135" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
@@ -8524,7 +8520,7 @@
         <v>411000</v>
       </c>
       <c r="E136" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
@@ -8562,7 +8558,7 @@
         <v>411000</v>
       </c>
       <c r="E137" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
@@ -8600,7 +8596,7 @@
         <v>411000</v>
       </c>
       <c r="E138" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F138" s="3"/>
       <c r="G138" s="3"/>
@@ -8638,7 +8634,7 @@
         <v>411000</v>
       </c>
       <c r="E139" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
@@ -8676,7 +8672,7 @@
         <v>411000</v>
       </c>
       <c r="E140" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
@@ -8714,7 +8710,7 @@
         <v>411000</v>
       </c>
       <c r="E141" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
@@ -8752,7 +8748,7 @@
         <v>411000</v>
       </c>
       <c r="E142" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
@@ -8790,7 +8786,7 @@
         <v>411000</v>
       </c>
       <c r="E143" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
@@ -8828,7 +8824,7 @@
         <v>411000</v>
       </c>
       <c r="E144" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -8866,7 +8862,7 @@
         <v>411000</v>
       </c>
       <c r="E145" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
@@ -8904,7 +8900,7 @@
         <v>411000</v>
       </c>
       <c r="E146" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
@@ -8942,7 +8938,7 @@
         <v>411000</v>
       </c>
       <c r="E147" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
@@ -8980,7 +8976,7 @@
         <v>411000</v>
       </c>
       <c r="E148" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
@@ -9018,7 +9014,7 @@
         <v>411000</v>
       </c>
       <c r="E149" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F149" s="3"/>
       <c r="G149" s="3"/>
@@ -9056,7 +9052,7 @@
         <v>411000</v>
       </c>
       <c r="E150" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F150" s="3"/>
       <c r="G150" s="3"/>
@@ -9094,7 +9090,7 @@
         <v>411000</v>
       </c>
       <c r="E151" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F151" s="3"/>
       <c r="G151" s="3"/>
@@ -9132,7 +9128,7 @@
         <v>411000</v>
       </c>
       <c r="E152" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F152" s="3"/>
       <c r="G152" s="3"/>
@@ -9170,7 +9166,7 @@
         <v>411000</v>
       </c>
       <c r="E153" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F153" s="3"/>
       <c r="G153" s="3"/>
@@ -9208,7 +9204,7 @@
         <v>411000</v>
       </c>
       <c r="E154" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -9246,7 +9242,7 @@
         <v>411000</v>
       </c>
       <c r="E155" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F155" s="3"/>
       <c r="G155" s="3"/>
@@ -9284,7 +9280,7 @@
         <v>411000</v>
       </c>
       <c r="E156" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F156" s="3"/>
       <c r="G156" s="3"/>
@@ -9322,7 +9318,7 @@
         <v>411000</v>
       </c>
       <c r="E157" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F157" s="3"/>
       <c r="G157" s="3"/>
@@ -9360,7 +9356,7 @@
         <v>411000</v>
       </c>
       <c r="E158" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F158" s="3"/>
       <c r="G158" s="3"/>
@@ -9398,7 +9394,7 @@
         <v>411000</v>
       </c>
       <c r="E159" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F159" s="3"/>
       <c r="G159" s="3"/>
@@ -9436,7 +9432,7 @@
         <v>411000</v>
       </c>
       <c r="E160" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F160" s="3"/>
       <c r="G160" s="3"/>
@@ -9474,7 +9470,7 @@
         <v>411000</v>
       </c>
       <c r="E161" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F161" s="3"/>
       <c r="G161" s="3"/>
@@ -9512,7 +9508,7 @@
         <v>411000</v>
       </c>
       <c r="E162" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F162" s="3"/>
       <c r="G162" s="3"/>
@@ -9550,7 +9546,7 @@
         <v>411000</v>
       </c>
       <c r="E163" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F163" s="3"/>
       <c r="G163" s="3"/>
@@ -9588,7 +9584,7 @@
         <v>411000</v>
       </c>
       <c r="E164" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -9626,7 +9622,7 @@
         <v>411000</v>
       </c>
       <c r="E165" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F165" s="3"/>
       <c r="G165" s="3"/>
@@ -9664,7 +9660,7 @@
         <v>411000</v>
       </c>
       <c r="E166" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F166" s="3"/>
       <c r="G166" s="3"/>
@@ -9702,7 +9698,7 @@
         <v>411000</v>
       </c>
       <c r="E167" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F167" s="3"/>
       <c r="G167" s="3"/>
@@ -9740,7 +9736,7 @@
         <v>411000</v>
       </c>
       <c r="E168" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F168" s="3"/>
       <c r="G168" s="3"/>
@@ -9778,7 +9774,7 @@
         <v>411000</v>
       </c>
       <c r="E169" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F169" s="3"/>
       <c r="G169" s="3"/>
@@ -9816,7 +9812,7 @@
         <v>411000</v>
       </c>
       <c r="E170" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F170" s="3"/>
       <c r="G170" s="3"/>
@@ -9854,7 +9850,7 @@
         <v>411000</v>
       </c>
       <c r="E171" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F171" s="3"/>
       <c r="G171" s="3"/>
@@ -9892,7 +9888,7 @@
         <v>411000</v>
       </c>
       <c r="E172" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F172" s="3"/>
       <c r="G172" s="3"/>
@@ -9930,7 +9926,7 @@
         <v>411000</v>
       </c>
       <c r="E173" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F173" s="3"/>
       <c r="G173" s="3"/>
@@ -9968,7 +9964,7 @@
         <v>411000</v>
       </c>
       <c r="E174" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -10006,7 +10002,7 @@
         <v>411000</v>
       </c>
       <c r="E175" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F175" s="3"/>
       <c r="G175" s="3"/>
@@ -10044,7 +10040,7 @@
         <v>411000</v>
       </c>
       <c r="E176" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F176" s="3"/>
       <c r="G176" s="3"/>
@@ -10082,7 +10078,7 @@
         <v>411000</v>
       </c>
       <c r="E177" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F177" s="3"/>
       <c r="G177" s="3"/>
@@ -10120,7 +10116,7 @@
         <v>411000</v>
       </c>
       <c r="E178" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F178" s="3"/>
       <c r="G178" s="3"/>
@@ -10158,7 +10154,7 @@
         <v>411000</v>
       </c>
       <c r="E179" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
@@ -10196,7 +10192,7 @@
         <v>411000</v>
       </c>
       <c r="E180" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F180" s="3"/>
       <c r="G180" s="3"/>
@@ -10234,7 +10230,7 @@
         <v>411000</v>
       </c>
       <c r="E181" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F181" s="3"/>
       <c r="G181" s="3"/>
@@ -10272,7 +10268,7 @@
         <v>411000</v>
       </c>
       <c r="E182" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F182" s="3"/>
       <c r="G182" s="3"/>
@@ -10310,7 +10306,7 @@
         <v>411000</v>
       </c>
       <c r="E183" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F183" s="3"/>
       <c r="G183" s="3"/>
@@ -10348,7 +10344,7 @@
         <v>411000</v>
       </c>
       <c r="E184" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
@@ -10386,7 +10382,7 @@
         <v>411000</v>
       </c>
       <c r="E185" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F185" s="3"/>
       <c r="G185" s="3"/>
@@ -10424,7 +10420,7 @@
         <v>411000</v>
       </c>
       <c r="E186" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F186" s="3"/>
       <c r="G186" s="3"/>
@@ -10462,7 +10458,7 @@
         <v>411000</v>
       </c>
       <c r="E187" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F187" s="3"/>
       <c r="G187" s="3"/>
@@ -10500,7 +10496,7 @@
         <v>411000</v>
       </c>
       <c r="E188" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F188" s="3"/>
       <c r="G188" s="3"/>
@@ -10538,7 +10534,7 @@
         <v>411000</v>
       </c>
       <c r="E189" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F189" s="3"/>
       <c r="G189" s="3"/>
@@ -10576,7 +10572,7 @@
         <v>411000</v>
       </c>
       <c r="E190" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F190" s="3"/>
       <c r="G190" s="3"/>
@@ -10614,7 +10610,7 @@
         <v>411000</v>
       </c>
       <c r="E191" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F191" s="3"/>
       <c r="G191" s="3"/>
@@ -10652,7 +10648,7 @@
         <v>411000</v>
       </c>
       <c r="E192" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F192" s="3"/>
       <c r="G192" s="3"/>
@@ -10690,7 +10686,7 @@
         <v>411000</v>
       </c>
       <c r="E193" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F193" s="3"/>
       <c r="G193" s="3"/>
@@ -10728,7 +10724,7 @@
         <v>411000</v>
       </c>
       <c r="E194" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F194" s="3"/>
       <c r="G194" s="3"/>
@@ -10766,7 +10762,7 @@
         <v>411000</v>
       </c>
       <c r="E195" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F195" s="3"/>
       <c r="G195" s="3"/>
@@ -10804,7 +10800,7 @@
         <v>411000</v>
       </c>
       <c r="E196" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F196" s="3"/>
       <c r="G196" s="3"/>
@@ -10842,7 +10838,7 @@
         <v>411000</v>
       </c>
       <c r="E197" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F197" s="3"/>
       <c r="G197" s="3"/>
@@ -10880,7 +10876,7 @@
         <v>411000</v>
       </c>
       <c r="E198" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F198" s="3"/>
       <c r="G198" s="3"/>
@@ -10918,7 +10914,7 @@
         <v>411000</v>
       </c>
       <c r="E199" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F199" s="3"/>
       <c r="G199" s="3"/>
@@ -10956,7 +10952,7 @@
         <v>411000</v>
       </c>
       <c r="E200" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F200" s="3"/>
       <c r="G200" s="3"/>
@@ -10994,7 +10990,7 @@
         <v>411000</v>
       </c>
       <c r="E201" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F201" s="3"/>
       <c r="G201" s="3"/>
@@ -11032,7 +11028,7 @@
         <v>411000</v>
       </c>
       <c r="E202" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F202" s="3"/>
       <c r="G202" s="3"/>
@@ -11070,7 +11066,7 @@
         <v>411000</v>
       </c>
       <c r="E203" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F203" s="3"/>
       <c r="G203" s="3"/>
@@ -11108,7 +11104,7 @@
         <v>411000</v>
       </c>
       <c r="E204" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F204" s="3"/>
       <c r="G204" s="3"/>
@@ -11146,7 +11142,7 @@
         <v>411000</v>
       </c>
       <c r="E205" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F205" s="3"/>
       <c r="G205" s="3"/>
@@ -11184,7 +11180,7 @@
         <v>411000</v>
       </c>
       <c r="E206" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F206" s="3"/>
       <c r="G206" s="3"/>
@@ -11222,7 +11218,7 @@
         <v>411000</v>
       </c>
       <c r="E207" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F207" s="3"/>
       <c r="G207" s="3"/>
@@ -11260,7 +11256,7 @@
         <v>411000</v>
       </c>
       <c r="E208" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F208" s="3"/>
       <c r="G208" s="3"/>
@@ -11298,7 +11294,7 @@
         <v>411000</v>
       </c>
       <c r="E209" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F209" s="3"/>
       <c r="G209" s="3"/>
@@ -11336,7 +11332,7 @@
         <v>411000</v>
       </c>
       <c r="E210" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F210" s="3"/>
       <c r="G210" s="3"/>
@@ -11374,7 +11370,7 @@
         <v>411000</v>
       </c>
       <c r="E211" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F211" s="3"/>
       <c r="G211" s="3"/>
@@ -11412,7 +11408,7 @@
         <v>411000</v>
       </c>
       <c r="E212" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F212" s="3"/>
       <c r="G212" s="3"/>
@@ -11450,7 +11446,7 @@
         <v>411000</v>
       </c>
       <c r="E213" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F213" s="3"/>
       <c r="G213" s="3"/>
@@ -11488,7 +11484,7 @@
         <v>411000</v>
       </c>
       <c r="E214" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F214" s="3"/>
       <c r="G214" s="3"/>
@@ -11526,7 +11522,7 @@
         <v>411000</v>
       </c>
       <c r="E215" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F215" s="3"/>
       <c r="G215" s="3"/>
@@ -11564,7 +11560,7 @@
         <v>411000</v>
       </c>
       <c r="E216" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F216" s="3"/>
       <c r="G216" s="3"/>
@@ -11602,7 +11598,7 @@
         <v>411000</v>
       </c>
       <c r="E217" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F217" s="3"/>
       <c r="G217" s="3"/>
@@ -11640,7 +11636,7 @@
         <v>411000</v>
       </c>
       <c r="E218" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F218" s="3"/>
       <c r="G218" s="3"/>
@@ -11678,7 +11674,7 @@
         <v>411000</v>
       </c>
       <c r="E219" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F219" s="3"/>
       <c r="G219" s="3"/>
@@ -11716,7 +11712,7 @@
         <v>411000</v>
       </c>
       <c r="E220" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F220" s="3"/>
       <c r="G220" s="3"/>
@@ -11754,7 +11750,7 @@
         <v>411000</v>
       </c>
       <c r="E221" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F221" s="3"/>
       <c r="G221" s="3"/>
@@ -11792,7 +11788,7 @@
         <v>411000</v>
       </c>
       <c r="E222" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F222" s="3"/>
       <c r="G222" s="3"/>
@@ -11830,7 +11826,7 @@
         <v>411000</v>
       </c>
       <c r="E223" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F223" s="3"/>
       <c r="G223" s="3"/>
@@ -11868,7 +11864,7 @@
         <v>411000</v>
       </c>
       <c r="E224" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F224" s="3"/>
       <c r="G224" s="3"/>
@@ -11906,7 +11902,7 @@
         <v>411000</v>
       </c>
       <c r="E225" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F225" s="3"/>
       <c r="G225" s="3"/>
@@ -11944,7 +11940,7 @@
         <v>411000</v>
       </c>
       <c r="E226" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F226" s="3"/>
       <c r="G226" s="3"/>
@@ -11982,7 +11978,7 @@
         <v>411000</v>
       </c>
       <c r="E227" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F227" s="3"/>
       <c r="G227" s="3"/>
@@ -12020,7 +12016,7 @@
         <v>411000</v>
       </c>
       <c r="E228" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F228" s="3"/>
       <c r="G228" s="3"/>
@@ -12058,7 +12054,7 @@
         <v>411000</v>
       </c>
       <c r="E229" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F229" s="3"/>
       <c r="G229" s="3"/>
@@ -12096,7 +12092,7 @@
         <v>411000</v>
       </c>
       <c r="E230" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F230" s="3"/>
       <c r="G230" s="3"/>
@@ -12134,7 +12130,7 @@
         <v>411000</v>
       </c>
       <c r="E231" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F231" s="3"/>
       <c r="G231" s="3"/>
@@ -12172,7 +12168,7 @@
         <v>411000</v>
       </c>
       <c r="E232" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F232" s="3"/>
       <c r="G232" s="3"/>
@@ -12210,7 +12206,7 @@
         <v>411000</v>
       </c>
       <c r="E233" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F233" s="3"/>
       <c r="G233" s="3"/>
@@ -12248,7 +12244,7 @@
         <v>411000</v>
       </c>
       <c r="E234" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F234" s="3"/>
       <c r="G234" s="3"/>
@@ -12286,7 +12282,7 @@
         <v>411000</v>
       </c>
       <c r="E235" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F235" s="3"/>
       <c r="G235" s="3"/>
@@ -12324,7 +12320,7 @@
         <v>411000</v>
       </c>
       <c r="E236" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F236" s="3"/>
       <c r="G236" s="3"/>
@@ -12362,7 +12358,7 @@
         <v>411000</v>
       </c>
       <c r="E237" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F237" s="3"/>
       <c r="G237" s="3"/>
@@ -12400,7 +12396,7 @@
         <v>411000</v>
       </c>
       <c r="E238" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F238" s="3"/>
       <c r="G238" s="3"/>
@@ -12438,7 +12434,7 @@
         <v>411000</v>
       </c>
       <c r="E239" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F239" s="3"/>
       <c r="G239" s="3"/>
@@ -12476,7 +12472,7 @@
         <v>411000</v>
       </c>
       <c r="E240" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F240" s="3"/>
       <c r="G240" s="3"/>
@@ -12514,7 +12510,7 @@
         <v>411000</v>
       </c>
       <c r="E241" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F241" s="3"/>
       <c r="G241" s="3"/>
@@ -12552,7 +12548,7 @@
         <v>411000</v>
       </c>
       <c r="E242" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F242" s="3"/>
       <c r="G242" s="3"/>
@@ -12590,7 +12586,7 @@
         <v>411000</v>
       </c>
       <c r="E243" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F243" s="3"/>
       <c r="G243" s="3"/>
@@ -12628,7 +12624,7 @@
         <v>411000</v>
       </c>
       <c r="E244" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F244" s="3"/>
       <c r="G244" s="3"/>
@@ -12666,7 +12662,7 @@
         <v>411000</v>
       </c>
       <c r="E245" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F245" s="3"/>
       <c r="G245" s="3"/>
@@ -12704,7 +12700,7 @@
         <v>411000</v>
       </c>
       <c r="E246" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F246" s="3"/>
       <c r="G246" s="3"/>
@@ -12742,7 +12738,7 @@
         <v>411000</v>
       </c>
       <c r="E247" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F247" s="3"/>
       <c r="G247" s="3"/>
@@ -12780,7 +12776,7 @@
         <v>411000</v>
       </c>
       <c r="E248" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F248" s="3"/>
       <c r="G248" s="3"/>
@@ -12818,7 +12814,7 @@
         <v>411000</v>
       </c>
       <c r="E249" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F249" s="3"/>
       <c r="G249" s="3"/>
@@ -12856,7 +12852,7 @@
         <v>411000</v>
       </c>
       <c r="E250" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F250" s="3"/>
       <c r="G250" s="3"/>
@@ -12894,7 +12890,7 @@
         <v>411000</v>
       </c>
       <c r="E251" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F251" s="3"/>
       <c r="G251" s="3"/>
@@ -12932,7 +12928,7 @@
         <v>411000</v>
       </c>
       <c r="E252" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F252" s="3"/>
       <c r="G252" s="3"/>
@@ -12970,7 +12966,7 @@
         <v>411000</v>
       </c>
       <c r="E253" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F253" s="3"/>
       <c r="G253" s="3"/>
@@ -13008,7 +13004,7 @@
         <v>411000</v>
       </c>
       <c r="E254" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F254" s="3"/>
       <c r="G254" s="3"/>
@@ -13046,7 +13042,7 @@
         <v>411000</v>
       </c>
       <c r="E255" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F255" s="3"/>
       <c r="G255" s="3"/>
@@ -13084,7 +13080,7 @@
         <v>411000</v>
       </c>
       <c r="E256" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F256" s="3"/>
       <c r="G256" s="3"/>
@@ -13122,7 +13118,7 @@
         <v>411000</v>
       </c>
       <c r="E257" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F257" s="3"/>
       <c r="G257" s="3"/>
@@ -13160,7 +13156,7 @@
         <v>411000</v>
       </c>
       <c r="E258" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F258" s="3"/>
       <c r="G258" s="3"/>
@@ -13198,7 +13194,7 @@
         <v>411000</v>
       </c>
       <c r="E259" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F259" s="3"/>
       <c r="G259" s="3"/>
@@ -13236,7 +13232,7 @@
         <v>411000</v>
       </c>
       <c r="E260" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F260" s="3"/>
       <c r="G260" s="3"/>
@@ -13274,7 +13270,7 @@
         <v>411000</v>
       </c>
       <c r="E261" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F261" s="3"/>
       <c r="G261" s="3"/>
@@ -13312,7 +13308,7 @@
         <v>411000</v>
       </c>
       <c r="E262" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F262" s="3"/>
       <c r="G262" s="3"/>
@@ -13350,7 +13346,7 @@
         <v>411000</v>
       </c>
       <c r="E263" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F263" s="3"/>
       <c r="G263" s="3"/>
@@ -13388,7 +13384,7 @@
         <v>411000</v>
       </c>
       <c r="E264" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F264" s="3"/>
       <c r="G264" s="3"/>
@@ -13426,7 +13422,7 @@
         <v>411000</v>
       </c>
       <c r="E265" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F265" s="3"/>
       <c r="G265" s="3"/>
@@ -13464,7 +13460,7 @@
         <v>411000</v>
       </c>
       <c r="E266" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F266" s="3"/>
       <c r="G266" s="3"/>
@@ -13502,7 +13498,7 @@
         <v>411000</v>
       </c>
       <c r="E267" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F267" s="3"/>
       <c r="G267" s="3"/>
@@ -13540,7 +13536,7 @@
         <v>411000</v>
       </c>
       <c r="E268" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F268" s="3"/>
       <c r="G268" s="3"/>
@@ -13578,7 +13574,7 @@
         <v>411000</v>
       </c>
       <c r="E269" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F269" s="3"/>
       <c r="G269" s="3"/>
@@ -13616,7 +13612,7 @@
         <v>411000</v>
       </c>
       <c r="E270" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F270" s="3"/>
       <c r="G270" s="3"/>
@@ -13654,7 +13650,7 @@
         <v>411000</v>
       </c>
       <c r="E271" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F271" s="3"/>
       <c r="G271" s="3"/>
@@ -13692,7 +13688,7 @@
         <v>411000</v>
       </c>
       <c r="E272" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F272" s="3"/>
       <c r="G272" s="3"/>
@@ -13730,7 +13726,7 @@
         <v>411000</v>
       </c>
       <c r="E273" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F273" s="3"/>
       <c r="G273" s="3"/>
@@ -13768,7 +13764,7 @@
         <v>411000</v>
       </c>
       <c r="E274" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F274" s="3"/>
       <c r="G274" s="3"/>
@@ -13806,7 +13802,7 @@
         <v>411000</v>
       </c>
       <c r="E275" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F275" s="3"/>
       <c r="G275" s="3"/>
@@ -13844,7 +13840,7 @@
         <v>411000</v>
       </c>
       <c r="E276" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F276" s="3"/>
       <c r="G276" s="3"/>
@@ -13882,7 +13878,7 @@
         <v>411000</v>
       </c>
       <c r="E277" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F277" s="3"/>
       <c r="G277" s="3"/>
@@ -13920,7 +13916,7 @@
         <v>411000</v>
       </c>
       <c r="E278" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F278" s="3"/>
       <c r="G278" s="3"/>
@@ -13958,7 +13954,7 @@
         <v>411000</v>
       </c>
       <c r="E279" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F279" s="3"/>
       <c r="G279" s="3"/>
@@ -13996,7 +13992,7 @@
         <v>411000</v>
       </c>
       <c r="E280" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F280" s="3"/>
       <c r="G280" s="3"/>
@@ -14034,7 +14030,7 @@
         <v>411000</v>
       </c>
       <c r="E281" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F281" s="3"/>
       <c r="G281" s="3"/>
@@ -14072,7 +14068,7 @@
         <v>411000</v>
       </c>
       <c r="E282" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F282" s="3"/>
       <c r="G282" s="3"/>
@@ -14110,7 +14106,7 @@
         <v>411000</v>
       </c>
       <c r="E283" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F283" s="3"/>
       <c r="G283" s="3"/>
@@ -14148,7 +14144,7 @@
         <v>411000</v>
       </c>
       <c r="E284" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F284" s="3"/>
       <c r="G284" s="3"/>
@@ -14186,7 +14182,7 @@
         <v>411000</v>
       </c>
       <c r="E285" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F285" s="3"/>
       <c r="G285" s="3"/>
@@ -14224,7 +14220,7 @@
         <v>411000</v>
       </c>
       <c r="E286" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F286" s="3"/>
       <c r="G286" s="3"/>
@@ -14262,7 +14258,7 @@
         <v>411000</v>
       </c>
       <c r="E287" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F287" s="3"/>
       <c r="G287" s="3"/>
@@ -14300,7 +14296,7 @@
         <v>411000</v>
       </c>
       <c r="E288" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F288" s="3"/>
       <c r="G288" s="3"/>
@@ -14338,7 +14334,7 @@
         <v>411000</v>
       </c>
       <c r="E289" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F289" s="3"/>
       <c r="G289" s="3"/>
@@ -14376,7 +14372,7 @@
         <v>411000</v>
       </c>
       <c r="E290" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F290" s="3"/>
       <c r="G290" s="3"/>
@@ -14414,7 +14410,7 @@
         <v>411000</v>
       </c>
       <c r="E291" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F291" s="3"/>
       <c r="G291" s="3"/>
@@ -14452,7 +14448,7 @@
         <v>411000</v>
       </c>
       <c r="E292" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F292" s="3"/>
       <c r="G292" s="3"/>
@@ -14490,7 +14486,7 @@
         <v>411000</v>
       </c>
       <c r="E293" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F293" s="3"/>
       <c r="G293" s="3"/>
@@ -14528,7 +14524,7 @@
         <v>411000</v>
       </c>
       <c r="E294" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F294" s="3"/>
       <c r="G294" s="3"/>
@@ -14566,7 +14562,7 @@
         <v>411000</v>
       </c>
       <c r="E295" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F295" s="3"/>
       <c r="G295" s="3"/>
@@ -14604,7 +14600,7 @@
         <v>411000</v>
       </c>
       <c r="E296" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F296" s="3"/>
       <c r="G296" s="3"/>
@@ -14642,7 +14638,7 @@
         <v>411000</v>
       </c>
       <c r="E297" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F297" s="3"/>
       <c r="G297" s="3"/>
@@ -14680,7 +14676,7 @@
         <v>411000</v>
       </c>
       <c r="E298" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F298" s="3"/>
       <c r="G298" s="3"/>
@@ -14718,7 +14714,7 @@
         <v>411000</v>
       </c>
       <c r="E299" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F299" s="3"/>
       <c r="G299" s="3"/>
@@ -14756,7 +14752,7 @@
         <v>411000</v>
       </c>
       <c r="E300" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F300" s="3"/>
       <c r="G300" s="3"/>
@@ -14794,7 +14790,7 @@
         <v>411000</v>
       </c>
       <c r="E301" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F301" s="3"/>
       <c r="G301" s="3"/>
@@ -14832,7 +14828,7 @@
         <v>411000</v>
       </c>
       <c r="E302" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F302" s="3"/>
       <c r="G302" s="3"/>
@@ -14870,7 +14866,7 @@
         <v>411000</v>
       </c>
       <c r="E303" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F303" s="3"/>
       <c r="G303" s="3"/>
@@ -14908,7 +14904,7 @@
         <v>411000</v>
       </c>
       <c r="E304" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F304" s="3"/>
       <c r="G304" s="3"/>
@@ -14946,7 +14942,7 @@
         <v>411000</v>
       </c>
       <c r="E305" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F305" s="3"/>
       <c r="G305" s="3"/>
@@ -14984,7 +14980,7 @@
         <v>411000</v>
       </c>
       <c r="E306" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F306" s="3"/>
       <c r="G306" s="3"/>
@@ -15022,7 +15018,7 @@
         <v>411000</v>
       </c>
       <c r="E307" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F307" s="3"/>
       <c r="G307" s="3"/>
@@ -15060,7 +15056,7 @@
         <v>411000</v>
       </c>
       <c r="E308" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F308" s="3"/>
       <c r="G308" s="3"/>
@@ -15098,7 +15094,7 @@
         <v>411000</v>
       </c>
       <c r="E309" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F309" s="3"/>
       <c r="G309" s="3"/>
@@ -15136,7 +15132,7 @@
         <v>411000</v>
       </c>
       <c r="E310" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F310" s="3"/>
       <c r="G310" s="3"/>
@@ -15174,7 +15170,7 @@
         <v>411000</v>
       </c>
       <c r="E311" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F311" s="3"/>
       <c r="G311" s="3"/>
@@ -15212,7 +15208,7 @@
         <v>411000</v>
       </c>
       <c r="E312" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F312" s="3"/>
       <c r="G312" s="3"/>
@@ -15250,7 +15246,7 @@
         <v>411000</v>
       </c>
       <c r="E313" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F313" s="3"/>
       <c r="G313" s="3"/>
@@ -15288,7 +15284,7 @@
         <v>411000</v>
       </c>
       <c r="E314" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F314" s="3"/>
       <c r="G314" s="3"/>
@@ -15326,7 +15322,7 @@
         <v>411000</v>
       </c>
       <c r="E315" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F315" s="3"/>
       <c r="G315" s="3"/>
@@ -15364,7 +15360,7 @@
         <v>411000</v>
       </c>
       <c r="E316" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F316" s="3"/>
       <c r="G316" s="3"/>
@@ -15402,7 +15398,7 @@
         <v>411000</v>
       </c>
       <c r="E317" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F317" s="3"/>
       <c r="G317" s="3"/>
@@ -15440,7 +15436,7 @@
         <v>411000</v>
       </c>
       <c r="E318" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F318" s="3"/>
       <c r="G318" s="3"/>
@@ -15478,7 +15474,7 @@
         <v>411000</v>
       </c>
       <c r="E319" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F319" s="3"/>
       <c r="G319" s="3"/>
@@ -15516,7 +15512,7 @@
         <v>411000</v>
       </c>
       <c r="E320" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F320" s="3"/>
       <c r="G320" s="3"/>
@@ -15554,7 +15550,7 @@
         <v>411000</v>
       </c>
       <c r="E321" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F321" s="3"/>
       <c r="G321" s="3"/>
@@ -15592,7 +15588,7 @@
         <v>411000</v>
       </c>
       <c r="E322" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F322" s="3"/>
       <c r="G322" s="3"/>
@@ -15630,7 +15626,7 @@
         <v>411000</v>
       </c>
       <c r="E323" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F323" s="3"/>
       <c r="G323" s="3"/>
@@ -15668,7 +15664,7 @@
         <v>411000</v>
       </c>
       <c r="E324" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F324" s="3"/>
       <c r="G324" s="3"/>
@@ -15706,7 +15702,7 @@
         <v>411000</v>
       </c>
       <c r="E325" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F325" s="3"/>
       <c r="G325" s="3"/>
@@ -15744,7 +15740,7 @@
         <v>411000</v>
       </c>
       <c r="E326" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F326" s="3"/>
       <c r="G326" s="3"/>
@@ -15782,7 +15778,7 @@
         <v>411000</v>
       </c>
       <c r="E327" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F327" s="3"/>
       <c r="G327" s="3"/>
@@ -15820,7 +15816,7 @@
         <v>411000</v>
       </c>
       <c r="E328" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F328" s="3"/>
       <c r="G328" s="3"/>
@@ -15858,7 +15854,7 @@
         <v>411000</v>
       </c>
       <c r="E329" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F329" s="3"/>
       <c r="G329" s="3"/>
@@ -15896,7 +15892,7 @@
         <v>411000</v>
       </c>
       <c r="E330" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F330" s="3"/>
       <c r="G330" s="3"/>
@@ -15934,7 +15930,7 @@
         <v>411000</v>
       </c>
       <c r="E331" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F331" s="3"/>
       <c r="G331" s="3"/>
@@ -15972,7 +15968,7 @@
         <v>411000</v>
       </c>
       <c r="E332" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F332" s="3"/>
       <c r="G332" s="3"/>
@@ -16010,7 +16006,7 @@
         <v>411000</v>
       </c>
       <c r="E333" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F333" s="3"/>
       <c r="G333" s="3"/>
@@ -16048,7 +16044,7 @@
         <v>411000</v>
       </c>
       <c r="E334" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F334" s="3"/>
       <c r="G334" s="3"/>
@@ -16086,7 +16082,7 @@
         <v>411000</v>
       </c>
       <c r="E335" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F335" s="3"/>
       <c r="G335" s="3"/>
@@ -16124,7 +16120,7 @@
         <v>411000</v>
       </c>
       <c r="E336" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F336" s="3"/>
       <c r="G336" s="3"/>
@@ -16162,7 +16158,7 @@
         <v>411000</v>
       </c>
       <c r="E337" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F337" s="3"/>
       <c r="G337" s="3"/>
@@ -16200,7 +16196,7 @@
         <v>411000</v>
       </c>
       <c r="E338" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F338" s="3"/>
       <c r="G338" s="3"/>
@@ -16238,7 +16234,7 @@
         <v>411000</v>
       </c>
       <c r="E339" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F339" s="3"/>
       <c r="G339" s="3"/>
@@ -16276,7 +16272,7 @@
         <v>411000</v>
       </c>
       <c r="E340" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F340" s="3"/>
       <c r="G340" s="3"/>
@@ -16314,7 +16310,7 @@
         <v>411000</v>
       </c>
       <c r="E341" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F341" s="3"/>
       <c r="G341" s="3"/>
@@ -16352,7 +16348,7 @@
         <v>411000</v>
       </c>
       <c r="E342" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F342" s="3"/>
       <c r="G342" s="3"/>
@@ -16390,7 +16386,7 @@
         <v>411000</v>
       </c>
       <c r="E343" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F343" s="3"/>
       <c r="G343" s="3"/>
@@ -16428,7 +16424,7 @@
         <v>411000</v>
       </c>
       <c r="E344" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F344" s="3"/>
       <c r="G344" s="3"/>
@@ -16466,7 +16462,7 @@
         <v>411000</v>
       </c>
       <c r="E345" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F345" s="3"/>
       <c r="G345" s="3"/>
@@ -16504,7 +16500,7 @@
         <v>411000</v>
       </c>
       <c r="E346" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F346" s="3"/>
       <c r="G346" s="3"/>
@@ -16542,7 +16538,7 @@
         <v>411000</v>
       </c>
       <c r="E347" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F347" s="3"/>
       <c r="G347" s="3"/>
@@ -16580,7 +16576,7 @@
         <v>411000</v>
       </c>
       <c r="E348" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F348" s="3"/>
       <c r="G348" s="3"/>
@@ -16618,7 +16614,7 @@
         <v>411000</v>
       </c>
       <c r="E349" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F349" s="3"/>
       <c r="G349" s="3"/>
@@ -16656,7 +16652,7 @@
         <v>411000</v>
       </c>
       <c r="E350" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F350" s="3"/>
       <c r="G350" s="3"/>
@@ -16694,7 +16690,7 @@
         <v>411000</v>
       </c>
       <c r="E351" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F351" s="3"/>
       <c r="G351" s="3"/>
@@ -16732,7 +16728,7 @@
         <v>411000</v>
       </c>
       <c r="E352" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F352" s="3"/>
       <c r="G352" s="3"/>
@@ -16770,7 +16766,7 @@
         <v>411000</v>
       </c>
       <c r="E353" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F353" s="3"/>
       <c r="G353" s="3"/>
@@ -16808,7 +16804,7 @@
         <v>411000</v>
       </c>
       <c r="E354" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F354" s="3"/>
       <c r="G354" s="3"/>
@@ -16846,7 +16842,7 @@
         <v>411000</v>
       </c>
       <c r="E355" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F355" s="3"/>
       <c r="G355" s="3"/>
@@ -16884,7 +16880,7 @@
         <v>411000</v>
       </c>
       <c r="E356" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F356" s="3"/>
       <c r="G356" s="3"/>
@@ -16922,7 +16918,7 @@
         <v>411000</v>
       </c>
       <c r="E357" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F357" s="3"/>
       <c r="G357" s="3"/>
@@ -16960,7 +16956,7 @@
         <v>411000</v>
       </c>
       <c r="E358" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F358" s="3"/>
       <c r="G358" s="3"/>
@@ -16998,7 +16994,7 @@
         <v>411000</v>
       </c>
       <c r="E359" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F359" s="3"/>
       <c r="G359" s="3"/>
@@ -17036,7 +17032,7 @@
         <v>411000</v>
       </c>
       <c r="E360" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F360" s="3"/>
       <c r="G360" s="3"/>
@@ -17074,7 +17070,7 @@
         <v>411000</v>
       </c>
       <c r="E361" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F361" s="3"/>
       <c r="G361" s="3"/>
@@ -17112,7 +17108,7 @@
         <v>411000</v>
       </c>
       <c r="E362" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F362" s="3"/>
       <c r="G362" s="3"/>
@@ -17150,7 +17146,7 @@
         <v>411000</v>
       </c>
       <c r="E363" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F363" s="3"/>
       <c r="G363" s="3"/>
@@ -17188,7 +17184,7 @@
         <v>411000</v>
       </c>
       <c r="E364" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F364" s="3"/>
       <c r="G364" s="3"/>
@@ -17226,7 +17222,7 @@
         <v>411000</v>
       </c>
       <c r="E365" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F365" s="3"/>
       <c r="G365" s="3"/>
@@ -17264,7 +17260,7 @@
         <v>411000</v>
       </c>
       <c r="E366" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F366" s="3"/>
       <c r="G366" s="3"/>
@@ -17302,7 +17298,7 @@
         <v>411000</v>
       </c>
       <c r="E367" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F367" s="3"/>
       <c r="G367" s="3"/>
@@ -17340,7 +17336,7 @@
         <v>411000</v>
       </c>
       <c r="E368" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F368" s="3"/>
       <c r="G368" s="3"/>
@@ -17378,7 +17374,7 @@
         <v>411000</v>
       </c>
       <c r="E369" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F369" s="3"/>
       <c r="G369" s="3"/>
@@ -17416,7 +17412,7 @@
         <v>411000</v>
       </c>
       <c r="E370" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F370" s="3"/>
       <c r="G370" s="3"/>
@@ -17454,7 +17450,7 @@
         <v>411000</v>
       </c>
       <c r="E371" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F371" s="3"/>
       <c r="G371" s="3"/>
@@ -17492,7 +17488,7 @@
         <v>411000</v>
       </c>
       <c r="E372" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F372" s="3"/>
       <c r="G372" s="3"/>
@@ -17530,7 +17526,7 @@
         <v>411000</v>
       </c>
       <c r="E373" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F373" s="3"/>
       <c r="G373" s="3"/>
@@ -17568,7 +17564,7 @@
         <v>411000</v>
       </c>
       <c r="E374" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F374" s="3"/>
       <c r="G374" s="3"/>
@@ -17606,7 +17602,7 @@
         <v>411000</v>
       </c>
       <c r="E375" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F375" s="3"/>
       <c r="G375" s="3"/>
@@ -17644,7 +17640,7 @@
         <v>411000</v>
       </c>
       <c r="E376" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F376" s="3"/>
       <c r="G376" s="3"/>
@@ -17682,7 +17678,7 @@
         <v>411000</v>
       </c>
       <c r="E377" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F377" s="3"/>
       <c r="G377" s="3"/>
@@ -17720,7 +17716,7 @@
         <v>411000</v>
       </c>
       <c r="E378" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F378" s="3"/>
       <c r="G378" s="3"/>
@@ -17758,7 +17754,7 @@
         <v>411000</v>
       </c>
       <c r="E379" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F379" s="3"/>
       <c r="G379" s="3"/>
@@ -17796,7 +17792,7 @@
         <v>411000</v>
       </c>
       <c r="E380" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F380" s="3"/>
       <c r="G380" s="3"/>
@@ -17834,7 +17830,7 @@
         <v>411000</v>
       </c>
       <c r="E381" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F381" s="3"/>
       <c r="G381" s="3"/>
@@ -17872,7 +17868,7 @@
         <v>411000</v>
       </c>
       <c r="E382" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F382" s="3"/>
       <c r="G382" s="3"/>
@@ -17910,7 +17906,7 @@
         <v>411000</v>
       </c>
       <c r="E383" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F383" s="3"/>
       <c r="G383" s="3"/>
@@ -17948,7 +17944,7 @@
         <v>411000</v>
       </c>
       <c r="E384" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F384" s="3"/>
       <c r="G384" s="3"/>
@@ -17986,7 +17982,7 @@
         <v>411000</v>
       </c>
       <c r="E385" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F385" s="3"/>
       <c r="G385" s="3"/>
@@ -18024,7 +18020,7 @@
         <v>411000</v>
       </c>
       <c r="E386" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F386" s="3"/>
       <c r="G386" s="3"/>
@@ -18062,7 +18058,7 @@
         <v>411000</v>
       </c>
       <c r="E387" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F387" s="3"/>
       <c r="G387" s="3"/>
@@ -18100,7 +18096,7 @@
         <v>411000</v>
       </c>
       <c r="E388" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F388" s="3"/>
       <c r="G388" s="3"/>
@@ -18138,7 +18134,7 @@
         <v>411000</v>
       </c>
       <c r="E389" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F389" s="3"/>
       <c r="G389" s="3"/>
@@ -18176,7 +18172,7 @@
         <v>411000</v>
       </c>
       <c r="E390" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F390" s="3"/>
       <c r="G390" s="3"/>
@@ -18214,7 +18210,7 @@
         <v>411000</v>
       </c>
       <c r="E391" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F391" s="3"/>
       <c r="G391" s="3"/>
@@ -18252,7 +18248,7 @@
         <v>411000</v>
       </c>
       <c r="E392" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F392" s="3"/>
       <c r="G392" s="3"/>
@@ -18290,7 +18286,7 @@
         <v>411000</v>
       </c>
       <c r="E393" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F393" s="3"/>
       <c r="G393" s="3"/>
@@ -18328,7 +18324,7 @@
         <v>411000</v>
       </c>
       <c r="E394" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F394" s="3"/>
       <c r="G394" s="3"/>
@@ -18366,7 +18362,7 @@
         <v>411000</v>
       </c>
       <c r="E395" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F395" s="3"/>
       <c r="G395" s="3"/>
@@ -18404,7 +18400,7 @@
         <v>411000</v>
       </c>
       <c r="E396" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F396" s="3"/>
       <c r="G396" s="3"/>
@@ -18442,7 +18438,7 @@
         <v>411000</v>
       </c>
       <c r="E397" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F397" s="3"/>
       <c r="G397" s="3"/>
@@ -18480,7 +18476,7 @@
         <v>411000</v>
       </c>
       <c r="E398" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F398" s="3"/>
       <c r="G398" s="3"/>
@@ -18518,7 +18514,7 @@
         <v>411000</v>
       </c>
       <c r="E399" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F399" s="3"/>
       <c r="G399" s="3"/>
@@ -18556,7 +18552,7 @@
         <v>411000</v>
       </c>
       <c r="E400" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F400" s="3"/>
       <c r="G400" s="3"/>
@@ -18594,7 +18590,7 @@
         <v>411000</v>
       </c>
       <c r="E401" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F401" s="3"/>
       <c r="G401" s="3"/>
@@ -18632,7 +18628,7 @@
         <v>411000</v>
       </c>
       <c r="E402" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F402" s="3"/>
       <c r="G402" s="3"/>
@@ -18670,7 +18666,7 @@
         <v>411000</v>
       </c>
       <c r="E403" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F403" s="3"/>
       <c r="G403" s="3"/>
@@ -18708,7 +18704,7 @@
         <v>411000</v>
       </c>
       <c r="E404" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F404" s="3"/>
       <c r="G404" s="3"/>
@@ -18746,7 +18742,7 @@
         <v>411000</v>
       </c>
       <c r="E405" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F405" s="3"/>
       <c r="G405" s="3"/>
@@ -18784,7 +18780,7 @@
         <v>411000</v>
       </c>
       <c r="E406" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F406" s="3"/>
       <c r="G406" s="3"/>
@@ -18822,7 +18818,7 @@
         <v>411000</v>
       </c>
       <c r="E407" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F407" s="3"/>
       <c r="G407" s="3"/>
@@ -18860,7 +18856,7 @@
         <v>411000</v>
       </c>
       <c r="E408" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F408" s="3"/>
       <c r="G408" s="3"/>
@@ -18898,7 +18894,7 @@
         <v>411000</v>
       </c>
       <c r="E409" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F409" s="3"/>
       <c r="G409" s="3"/>
@@ -18936,7 +18932,7 @@
         <v>411000</v>
       </c>
       <c r="E410" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F410" s="3"/>
       <c r="G410" s="3"/>
@@ -18974,7 +18970,7 @@
         <v>411000</v>
       </c>
       <c r="E411" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F411" s="3"/>
       <c r="G411" s="3"/>
@@ -19012,7 +19008,7 @@
         <v>411000</v>
       </c>
       <c r="E412" s="6">
-        <v>518600</v>
+        <v>513000</v>
       </c>
       <c r="F412" s="3"/>
       <c r="G412" s="3"/>
@@ -19050,7 +19046,7 @@
         <v>411000</v>
       </c>
       <c r="E413" s="6">
-        <v>518600</v>
+        <v>513000</v>
       </c>
       <c r="F413" s="3"/>
       <c r="G413" s="3"/>
@@ -19088,7 +19084,7 @@
         <v>411000</v>
       </c>
       <c r="E414" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F414" s="3"/>
       <c r="G414" s="3"/>
@@ -19126,7 +19122,7 @@
         <v>411000</v>
       </c>
       <c r="E415" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F415" s="3"/>
       <c r="G415" s="3"/>
@@ -19164,7 +19160,7 @@
         <v>411000</v>
       </c>
       <c r="E416" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F416" s="3"/>
       <c r="G416" s="3"/>
@@ -19202,7 +19198,7 @@
         <v>411000</v>
       </c>
       <c r="E417" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F417" s="3"/>
       <c r="G417" s="3"/>
@@ -19240,7 +19236,7 @@
         <v>411000</v>
       </c>
       <c r="E418" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F418" s="3"/>
       <c r="G418" s="3"/>
@@ -19278,7 +19274,7 @@
         <v>411000</v>
       </c>
       <c r="E419" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F419" s="3"/>
       <c r="G419" s="3"/>
@@ -19316,7 +19312,7 @@
         <v>411000</v>
       </c>
       <c r="E420" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F420" s="3"/>
       <c r="G420" s="3"/>
@@ -19354,7 +19350,7 @@
         <v>411000</v>
       </c>
       <c r="E421" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F421" s="3"/>
       <c r="G421" s="3"/>
@@ -19392,7 +19388,7 @@
         <v>411000</v>
       </c>
       <c r="E422" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F422" s="3"/>
       <c r="G422" s="3"/>
@@ -19430,7 +19426,7 @@
         <v>411000</v>
       </c>
       <c r="E423" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F423" s="3"/>
       <c r="G423" s="3"/>
@@ -19468,7 +19464,7 @@
         <v>411000</v>
       </c>
       <c r="E424" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F424" s="3"/>
       <c r="G424" s="3"/>
@@ -19506,7 +19502,7 @@
         <v>411000</v>
       </c>
       <c r="E425" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F425" s="3"/>
       <c r="G425" s="3"/>
@@ -19544,7 +19540,7 @@
         <v>411000</v>
       </c>
       <c r="E426" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F426" s="3"/>
       <c r="G426" s="3"/>
@@ -19582,7 +19578,7 @@
         <v>411000</v>
       </c>
       <c r="E427" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F427" s="3"/>
       <c r="G427" s="3"/>
@@ -19620,7 +19616,7 @@
         <v>411000</v>
       </c>
       <c r="E428" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F428" s="3"/>
       <c r="G428" s="3"/>
@@ -19658,7 +19654,7 @@
         <v>411000</v>
       </c>
       <c r="E429" s="6">
-        <v>518600</v>
+        <v>512000</v>
       </c>
       <c r="F429" s="3"/>
       <c r="G429" s="3"/>
@@ -19696,7 +19692,7 @@
         <v>411000</v>
       </c>
       <c r="E430" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F430" s="3"/>
       <c r="G430" s="3"/>
@@ -19734,7 +19730,7 @@
         <v>411000</v>
       </c>
       <c r="E431" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F431" s="3"/>
       <c r="G431" s="3"/>
@@ -19772,7 +19768,7 @@
         <v>411000</v>
       </c>
       <c r="E432" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F432" s="3"/>
       <c r="G432" s="3"/>
@@ -19810,7 +19806,7 @@
         <v>411000</v>
       </c>
       <c r="E433" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F433" s="3"/>
       <c r="G433" s="3"/>
@@ -19848,7 +19844,7 @@
         <v>411000</v>
       </c>
       <c r="E434" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F434" s="3"/>
       <c r="G434" s="3"/>
@@ -19886,7 +19882,7 @@
         <v>411000</v>
       </c>
       <c r="E435" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F435" s="3"/>
       <c r="G435" s="3"/>
@@ -19924,7 +19920,7 @@
         <v>411000</v>
       </c>
       <c r="E436" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F436" s="3"/>
       <c r="G436" s="3"/>
@@ -19962,7 +19958,7 @@
         <v>411000</v>
       </c>
       <c r="E437" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F437" s="3"/>
       <c r="G437" s="3"/>
@@ -20000,7 +19996,7 @@
         <v>411000</v>
       </c>
       <c r="E438" s="6">
-        <v>518600</v>
+        <v>511100</v>
       </c>
       <c r="F438" s="3"/>
       <c r="G438" s="3"/>
@@ -20038,7 +20034,7 @@
         <v>411000</v>
       </c>
       <c r="E439" s="6">
-        <v>518600</v>
+        <v>514000</v>
       </c>
       <c r="F439" s="3"/>
       <c r="G439" s="3"/>
@@ -20076,7 +20072,7 @@
         <v>411000</v>
       </c>
       <c r="E440" s="6">
-        <v>518600</v>
+        <v>514000</v>
       </c>
       <c r="F440" s="3"/>
       <c r="G440" s="3"/>
@@ -20114,7 +20110,7 @@
         <v>411000</v>
       </c>
       <c r="E441" s="6">
-        <v>518600</v>
+        <v>514000</v>
       </c>
       <c r="F441" s="3"/>
       <c r="G441" s="3"/>
@@ -20152,7 +20148,7 @@
         <v>411000</v>
       </c>
       <c r="E442" s="6">
-        <v>518600</v>
+        <v>514000</v>
       </c>
       <c r="F442" s="3"/>
       <c r="G442" s="3"/>
@@ -20190,7 +20186,7 @@
         <v>411000</v>
       </c>
       <c r="E443" s="6">
-        <v>518600</v>
+        <v>514000</v>
       </c>
       <c r="F443" s="3"/>
       <c r="G443" s="3"/>
@@ -20228,7 +20224,7 @@
         <v>411000</v>
       </c>
       <c r="E444" s="6">
-        <v>518600</v>
+        <v>514000</v>
       </c>
       <c r="F444" s="3"/>
       <c r="G444" s="3"/>
@@ -20266,7 +20262,7 @@
         <v>411000</v>
       </c>
       <c r="E445" s="6">
-        <v>518600</v>
+        <v>514000</v>
       </c>
       <c r="F445" s="3"/>
       <c r="G445" s="3"/>
@@ -20304,7 +20300,7 @@
         <v>411000</v>
       </c>
       <c r="E446" s="6">
-        <v>518600</v>
+        <v>514000</v>
       </c>
       <c r="F446" s="3"/>
       <c r="G446" s="3"/>
@@ -20342,7 +20338,7 @@
         <v>411000</v>
       </c>
       <c r="E447" s="6">
-        <v>518600</v>
+        <v>514000</v>
       </c>
       <c r="F447" s="3"/>
       <c r="G447" s="3"/>
@@ -20380,7 +20376,7 @@
         <v>411000</v>
       </c>
       <c r="E448" s="6">
-        <v>518600</v>
+        <v>514000</v>
       </c>
       <c r="F448" s="3"/>
       <c r="G448" s="3"/>
@@ -20418,7 +20414,7 @@
         <v>411000</v>
       </c>
       <c r="E449" s="6">
-        <v>518600</v>
+        <v>514000</v>
       </c>
       <c r="F449" s="3"/>
       <c r="G449" s="3"/>
@@ -20456,7 +20452,7 @@
         <v>411000</v>
       </c>
       <c r="E450" s="6">
-        <v>518600</v>
+        <v>514000</v>
       </c>
       <c r="F450" s="3"/>
       <c r="G450" s="3"/>
@@ -20494,7 +20490,7 @@
         <v>411000</v>
       </c>
       <c r="E451" s="6">
-        <v>518600</v>
+        <v>514000</v>
       </c>
       <c r="F451" s="3"/>
       <c r="G451" s="3"/>
@@ -20532,7 +20528,7 @@
         <v>411000</v>
       </c>
       <c r="E452" s="6">
-        <v>518600</v>
+        <v>514000</v>
       </c>
       <c r="F452" s="3"/>
       <c r="G452" s="3"/>
@@ -20570,7 +20566,7 @@
         <v>411000</v>
       </c>
       <c r="E453" s="6">
-        <v>518600</v>
+        <v>514000</v>
       </c>
       <c r="F453" s="3"/>
       <c r="G453" s="3"/>
@@ -20608,7 +20604,7 @@
         <v>411000</v>
       </c>
       <c r="E454" s="6">
-        <v>518600</v>
+        <v>514000</v>
       </c>
       <c r="F454" s="3"/>
       <c r="G454" s="3"/>
@@ -20646,7 +20642,7 @@
         <v>411000</v>
       </c>
       <c r="E455" s="6">
-        <v>518600</v>
+        <v>514000</v>
       </c>
       <c r="F455" s="3"/>
       <c r="G455" s="3"/>
@@ -20684,7 +20680,7 @@
         <v>411000</v>
       </c>
       <c r="E456" s="6">
-        <v>518600</v>
+        <v>514000</v>
       </c>
       <c r="F456" s="3"/>
       <c r="G456" s="3"/>
@@ -20722,7 +20718,7 @@
         <v>411000</v>
       </c>
       <c r="E457" s="6">
-        <v>518600</v>
+        <v>514000</v>
       </c>
       <c r="F457" s="3"/>
       <c r="G457" s="3"/>
@@ -20760,7 +20756,7 @@
         <v>411000</v>
       </c>
       <c r="E458" s="6">
-        <v>518600</v>
+        <v>514000</v>
       </c>
       <c r="F458" s="3"/>
       <c r="G458" s="3"/>
@@ -20798,7 +20794,7 @@
         <v>411000</v>
       </c>
       <c r="E459" s="6">
-        <v>518600</v>
+        <v>514000</v>
       </c>
       <c r="F459" s="3"/>
       <c r="G459" s="3"/>
@@ -20836,7 +20832,7 @@
         <v>411000</v>
       </c>
       <c r="E460" s="6">
-        <v>518600</v>
+        <v>514000</v>
       </c>
       <c r="F460" s="3"/>
       <c r="G460" s="3"/>
@@ -20874,7 +20870,7 @@
         <v>411000</v>
       </c>
       <c r="E461" s="6">
-        <v>518600</v>
+        <v>514000</v>
       </c>
       <c r="F461" s="3"/>
       <c r="G461" s="3"/>
@@ -20912,7 +20908,7 @@
         <v>411000</v>
       </c>
       <c r="E462" s="6">
-        <v>518600</v>
+        <v>514000</v>
       </c>
       <c r="F462" s="3"/>
       <c r="G462" s="3"/>
@@ -20950,7 +20946,7 @@
         <v>411000</v>
       </c>
       <c r="E463" s="6">
-        <v>518600</v>
+        <v>514000</v>
       </c>
       <c r="F463" s="3"/>
       <c r="G463" s="3"/>
@@ -20988,7 +20984,7 @@
         <v>411000</v>
       </c>
       <c r="E464" s="6">
-        <v>518600</v>
+        <v>513000</v>
       </c>
       <c r="F464" s="3"/>
       <c r="G464" s="3"/>
@@ -21026,7 +21022,7 @@
         <v>411000</v>
       </c>
       <c r="E465" s="6">
-        <v>518600</v>
+        <v>513000</v>
       </c>
       <c r="F465" s="3"/>
       <c r="G465" s="3"/>
@@ -21064,7 +21060,7 @@
         <v>411000</v>
       </c>
       <c r="E466" s="6">
-        <v>518600</v>
+        <v>513000</v>
       </c>
       <c r="F466" s="3"/>
       <c r="G466" s="3"/>
@@ -21102,7 +21098,7 @@
         <v>411000</v>
       </c>
       <c r="E467" s="6">
-        <v>518600</v>
+        <v>513000</v>
       </c>
       <c r="F467" s="3"/>
       <c r="G467" s="3"/>
@@ -21140,7 +21136,7 @@
         <v>411000</v>
       </c>
       <c r="E468" s="6">
-        <v>518600</v>
+        <v>513000</v>
       </c>
       <c r="F468" s="3"/>
       <c r="G468" s="3"/>
@@ -21178,7 +21174,7 @@
         <v>411000</v>
       </c>
       <c r="E469" s="6">
-        <v>518600</v>
+        <v>513000</v>
       </c>
       <c r="F469" s="3"/>
       <c r="G469" s="3"/>
@@ -21216,7 +21212,7 @@
         <v>411000</v>
       </c>
       <c r="E470" s="6">
-        <v>518600</v>
+        <v>513000</v>
       </c>
       <c r="F470" s="3"/>
       <c r="G470" s="3"/>
@@ -21254,7 +21250,7 @@
         <v>411000</v>
       </c>
       <c r="E471" s="6">
-        <v>518600</v>
+        <v>513000</v>
       </c>
       <c r="F471" s="3"/>
       <c r="G471" s="3"/>
@@ -21292,7 +21288,7 @@
         <v>411000</v>
       </c>
       <c r="E472" s="6">
-        <v>518600</v>
+        <v>513000</v>
       </c>
       <c r="F472" s="3"/>
       <c r="G472" s="3"/>
@@ -21330,7 +21326,7 @@
         <v>411000</v>
       </c>
       <c r="E473" s="6">
-        <v>518600</v>
+        <v>513000</v>
       </c>
       <c r="F473" s="3"/>
       <c r="G473" s="3"/>
@@ -21368,7 +21364,7 @@
         <v>411000</v>
       </c>
       <c r="E474" s="6">
-        <v>518600</v>
+        <v>513000</v>
       </c>
       <c r="F474" s="3"/>
       <c r="G474" s="3"/>
@@ -21406,7 +21402,7 @@
         <v>411000</v>
       </c>
       <c r="E475" s="6">
-        <v>518600</v>
+        <v>513000</v>
       </c>
       <c r="F475" s="3"/>
       <c r="G475" s="3"/>
@@ -21444,7 +21440,7 @@
         <v>411000</v>
       </c>
       <c r="E476" s="6">
-        <v>518600</v>
+        <v>513000</v>
       </c>
       <c r="F476" s="3"/>
       <c r="G476" s="3"/>
@@ -21482,7 +21478,7 @@
         <v>411000</v>
       </c>
       <c r="E477" s="6">
-        <v>518600</v>
+        <v>514003</v>
       </c>
       <c r="F477" s="3"/>
       <c r="G477" s="3"/>
@@ -21520,7 +21516,7 @@
         <v>411000</v>
       </c>
       <c r="E478" s="6">
-        <v>518600</v>
+        <v>514003</v>
       </c>
       <c r="F478" s="3"/>
       <c r="G478" s="3"/>
@@ -21558,7 +21554,7 @@
         <v>411000</v>
       </c>
       <c r="E479" s="6">
-        <v>518600</v>
+        <v>514003</v>
       </c>
       <c r="F479" s="3"/>
       <c r="G479" s="3"/>
@@ -21596,7 +21592,7 @@
         <v>411000</v>
       </c>
       <c r="E480" s="6">
-        <v>518600</v>
+        <v>514003</v>
       </c>
       <c r="F480" s="3"/>
       <c r="G480" s="3"/>
@@ -21634,7 +21630,7 @@
         <v>411000</v>
       </c>
       <c r="E481" s="6">
-        <v>518600</v>
+        <v>514003</v>
       </c>
       <c r="F481" s="3"/>
       <c r="G481" s="3"/>
@@ -21672,7 +21668,7 @@
         <v>411000</v>
       </c>
       <c r="E482" s="6">
-        <v>518600</v>
+        <v>514003</v>
       </c>
       <c r="F482" s="3"/>
       <c r="G482" s="3"/>
@@ -21710,7 +21706,7 @@
         <v>411000</v>
       </c>
       <c r="E483" s="6">
-        <v>518600</v>
+        <v>514003</v>
       </c>
       <c r="F483" s="3"/>
       <c r="G483" s="3"/>
@@ -21748,7 +21744,7 @@
         <v>411000</v>
       </c>
       <c r="E484" s="6">
-        <v>518600</v>
+        <v>514003</v>
       </c>
       <c r="F484" s="3"/>
       <c r="G484" s="3"/>
@@ -21786,7 +21782,7 @@
         <v>411000</v>
       </c>
       <c r="E485" s="6">
-        <v>518600</v>
+        <v>514003</v>
       </c>
       <c r="F485" s="3"/>
       <c r="G485" s="3"/>
@@ -21824,7 +21820,7 @@
         <v>411000</v>
       </c>
       <c r="E486" s="6">
-        <v>518600</v>
+        <v>514003</v>
       </c>
       <c r="F486" s="3"/>
       <c r="G486" s="3"/>
@@ -21862,7 +21858,7 @@
         <v>411000</v>
       </c>
       <c r="E487" s="6">
-        <v>518600</v>
+        <v>514003</v>
       </c>
       <c r="F487" s="3"/>
       <c r="G487" s="3"/>
@@ -21900,7 +21896,7 @@
         <v>411000</v>
       </c>
       <c r="E488" s="6">
-        <v>518600</v>
+        <v>514003</v>
       </c>
       <c r="F488" s="3"/>
       <c r="G488" s="3"/>
@@ -21938,7 +21934,7 @@
         <v>411000</v>
       </c>
       <c r="E489" s="6">
-        <v>518600</v>
+        <v>514003</v>
       </c>
       <c r="F489" s="3"/>
       <c r="G489" s="3"/>
@@ -21976,7 +21972,7 @@
         <v>411000</v>
       </c>
       <c r="E490" s="6">
-        <v>518600</v>
+        <v>514003</v>
       </c>
       <c r="F490" s="3"/>
       <c r="G490" s="3"/>
@@ -22014,7 +22010,7 @@
         <v>411000</v>
       </c>
       <c r="E491" s="6">
-        <v>518600</v>
+        <v>514003</v>
       </c>
       <c r="F491" s="3"/>
       <c r="G491" s="3"/>
@@ -22052,7 +22048,7 @@
         <v>411000</v>
       </c>
       <c r="E492" s="6">
-        <v>518600</v>
+        <v>514003</v>
       </c>
       <c r="F492" s="3"/>
       <c r="G492" s="3"/>
@@ -22090,7 +22086,7 @@
         <v>411000</v>
       </c>
       <c r="E493" s="6">
-        <v>518600</v>
+        <v>514003</v>
       </c>
       <c r="F493" s="3"/>
       <c r="G493" s="3"/>
@@ -22128,7 +22124,7 @@
         <v>411000</v>
       </c>
       <c r="E494" s="6">
-        <v>518600</v>
+        <v>514003</v>
       </c>
       <c r="F494" s="3"/>
       <c r="G494" s="3"/>
@@ -22166,7 +22162,7 @@
         <v>411000</v>
       </c>
       <c r="E495" s="6">
-        <v>518600</v>
+        <v>514003</v>
       </c>
       <c r="F495" s="3"/>
       <c r="G495" s="3"/>
@@ -22204,7 +22200,7 @@
         <v>411000</v>
       </c>
       <c r="E496" s="6">
-        <v>518600</v>
+        <v>514003</v>
       </c>
       <c r="F496" s="3"/>
       <c r="G496" s="3"/>
@@ -22242,7 +22238,7 @@
         <v>411000</v>
       </c>
       <c r="E497" s="6">
-        <v>518600</v>
+        <v>514003</v>
       </c>
       <c r="F497" s="3"/>
       <c r="G497" s="3"/>
@@ -22280,7 +22276,7 @@
         <v>411000</v>
       </c>
       <c r="E498" s="6">
-        <v>518600</v>
+        <v>514003</v>
       </c>
       <c r="F498" s="3"/>
       <c r="G498" s="3"/>
@@ -22318,7 +22314,7 @@
         <v>411000</v>
       </c>
       <c r="E499" s="6">
-        <v>518600</v>
+        <v>514003</v>
       </c>
       <c r="F499" s="3"/>
       <c r="G499" s="3"/>
@@ -22356,7 +22352,7 @@
         <v>411000</v>
       </c>
       <c r="E500" s="6">
-        <v>518600</v>
+        <v>514003</v>
       </c>
       <c r="F500" s="3"/>
       <c r="G500" s="3"/>
@@ -22394,7 +22390,7 @@
         <v>411000</v>
       </c>
       <c r="E501" s="6">
-        <v>518600</v>
+        <v>514003</v>
       </c>
       <c r="F501" s="3"/>
       <c r="G501" s="3"/>
@@ -22432,7 +22428,7 @@
         <v>411000</v>
       </c>
       <c r="E502" s="6">
-        <v>518600</v>
+        <v>514003</v>
       </c>
       <c r="F502" s="3"/>
       <c r="G502" s="3"/>
@@ -22470,7 +22466,7 @@
         <v>411000</v>
       </c>
       <c r="E503" s="6">
-        <v>518600</v>
+        <v>514003</v>
       </c>
       <c r="F503" s="3"/>
       <c r="G503" s="3"/>
@@ -22508,7 +22504,7 @@
         <v>411000</v>
       </c>
       <c r="E504" s="6">
-        <v>518600</v>
+        <v>514003</v>
       </c>
       <c r="F504" s="3"/>
       <c r="G504" s="3"/>
@@ -22546,7 +22542,7 @@
         <v>411000</v>
       </c>
       <c r="E505" s="6">
-        <v>518600</v>
+        <v>514003</v>
       </c>
       <c r="F505" s="3"/>
       <c r="G505" s="3"/>
@@ -22584,7 +22580,7 @@
         <v>411000</v>
       </c>
       <c r="E506" s="6">
-        <v>518600</v>
+        <v>514003</v>
       </c>
       <c r="F506" s="3"/>
       <c r="G506" s="3"/>
@@ -22622,7 +22618,7 @@
         <v>411000</v>
       </c>
       <c r="E507" s="6">
-        <v>518600</v>
+        <v>514003</v>
       </c>
       <c r="F507" s="3"/>
       <c r="G507" s="3"/>
@@ -22660,7 +22656,7 @@
         <v>411000</v>
       </c>
       <c r="E508" s="6">
-        <v>518600</v>
+        <v>514003</v>
       </c>
       <c r="F508" s="3"/>
       <c r="G508" s="3"/>
@@ -22698,7 +22694,7 @@
         <v>411000</v>
       </c>
       <c r="E509" s="6">
-        <v>518600</v>
+        <v>514000</v>
       </c>
       <c r="F509" s="3"/>
       <c r="G509" s="3"/>
@@ -22736,7 +22732,7 @@
         <v>411000</v>
       </c>
       <c r="E510" s="6">
-        <v>518600</v>
+        <v>514000</v>
       </c>
       <c r="F510" s="3"/>
       <c r="G510" s="3"/>
@@ -22774,7 +22770,7 @@
         <v>411000</v>
       </c>
       <c r="E511" s="6">
-        <v>518600</v>
+        <v>514000</v>
       </c>
       <c r="F511" s="3"/>
       <c r="G511" s="3"/>
@@ -22812,7 +22808,7 @@
         <v>411000</v>
       </c>
       <c r="E512" s="6">
-        <v>518600</v>
+        <v>514000</v>
       </c>
       <c r="F512" s="3"/>
       <c r="G512" s="3"/>
@@ -22850,7 +22846,7 @@
         <v>411000</v>
       </c>
       <c r="E513" s="6">
-        <v>518600</v>
+        <v>514000</v>
       </c>
       <c r="F513" s="3"/>
       <c r="G513" s="3"/>
@@ -22888,7 +22884,7 @@
         <v>411000</v>
       </c>
       <c r="E514" s="6">
-        <v>518600</v>
+        <v>514000</v>
       </c>
       <c r="F514" s="3"/>
       <c r="G514" s="3"/>
@@ -22926,7 +22922,7 @@
         <v>411000</v>
       </c>
       <c r="E515" s="6">
-        <v>518600</v>
+        <v>514000</v>
       </c>
       <c r="F515" s="3"/>
       <c r="G515" s="3"/>
@@ -22964,7 +22960,7 @@
         <v>411000</v>
       </c>
       <c r="E516" s="6">
-        <v>518600</v>
+        <v>514000</v>
       </c>
       <c r="F516" s="3"/>
       <c r="G516" s="3"/>
@@ -23002,7 +22998,7 @@
         <v>411000</v>
       </c>
       <c r="E517" s="6">
-        <v>518600</v>
+        <v>514000</v>
       </c>
       <c r="F517" s="3"/>
       <c r="G517" s="3"/>
@@ -23040,7 +23036,7 @@
         <v>411000</v>
       </c>
       <c r="E518" s="6">
-        <v>518600</v>
+        <v>514000</v>
       </c>
       <c r="F518" s="3"/>
       <c r="G518" s="3"/>
@@ -23078,7 +23074,7 @@
         <v>411000</v>
       </c>
       <c r="E519" s="6">
-        <v>518600</v>
+        <v>514000</v>
       </c>
       <c r="F519" s="3"/>
       <c r="G519" s="3"/>
@@ -23116,7 +23112,7 @@
         <v>411000</v>
       </c>
       <c r="E520" s="6">
-        <v>518600</v>
+        <v>514000</v>
       </c>
       <c r="F520" s="3"/>
       <c r="G520" s="3"/>
@@ -23154,7 +23150,7 @@
         <v>411000</v>
       </c>
       <c r="E521" s="6">
-        <v>518600</v>
+        <v>514000</v>
       </c>
       <c r="F521" s="3"/>
       <c r="G521" s="3"/>
@@ -23192,7 +23188,7 @@
         <v>411000</v>
       </c>
       <c r="E522" s="6">
-        <v>518600</v>
+        <v>514000</v>
       </c>
       <c r="F522" s="3"/>
       <c r="G522" s="3"/>
@@ -23230,7 +23226,7 @@
         <v>411000</v>
       </c>
       <c r="E523" s="6">
-        <v>518600</v>
+        <v>514000</v>
       </c>
       <c r="F523" s="3"/>
       <c r="G523" s="3"/>
@@ -23268,7 +23264,7 @@
         <v>411000</v>
       </c>
       <c r="E524" s="6">
-        <v>518600</v>
+        <v>514000</v>
       </c>
       <c r="F524" s="3"/>
       <c r="G524" s="3"/>
@@ -23306,7 +23302,7 @@
         <v>411000</v>
       </c>
       <c r="E525" s="6">
-        <v>518600</v>
+        <v>514000</v>
       </c>
       <c r="F525" s="3"/>
       <c r="G525" s="3"/>
@@ -23344,7 +23340,7 @@
         <v>411000</v>
       </c>
       <c r="E526" s="6">
-        <v>518600</v>
+        <v>514000</v>
       </c>
       <c r="F526" s="3"/>
       <c r="G526" s="3"/>
@@ -23382,7 +23378,7 @@
         <v>411000</v>
       </c>
       <c r="E527" s="6">
-        <v>518600</v>
+        <v>514000</v>
       </c>
       <c r="F527" s="3"/>
       <c r="G527" s="3"/>
@@ -23420,7 +23416,7 @@
         <v>411000</v>
       </c>
       <c r="E528" s="6">
-        <v>518600</v>
+        <v>514000</v>
       </c>
       <c r="F528" s="3"/>
       <c r="G528" s="3"/>
@@ -23458,7 +23454,7 @@
         <v>411000</v>
       </c>
       <c r="E529" s="6">
-        <v>518600</v>
+        <v>514000</v>
       </c>
       <c r="F529" s="3"/>
       <c r="G529" s="3"/>
@@ -23496,7 +23492,7 @@
         <v>411000</v>
       </c>
       <c r="E530" s="6">
-        <v>518600</v>
+        <v>514000</v>
       </c>
       <c r="F530" s="3"/>
       <c r="G530" s="3"/>
@@ -23534,7 +23530,7 @@
         <v>411000</v>
       </c>
       <c r="E531" s="6">
-        <v>518600</v>
+        <v>514000</v>
       </c>
       <c r="F531" s="3"/>
       <c r="G531" s="3"/>
@@ -23869,7 +23865,9 @@
         <v>7</v>
       </c>
       <c r="D540" s="3"/>
-      <c r="E540" s="3"/>
+      <c r="E540" s="3">
+        <v>511000</v>
+      </c>
       <c r="F540" s="3"/>
       <c r="G540" s="3"/>
       <c r="H540" s="3"/>
@@ -23903,7 +23901,9 @@
         <v>7</v>
       </c>
       <c r="D541" s="3"/>
-      <c r="E541" s="3"/>
+      <c r="E541" s="3">
+        <v>514001</v>
+      </c>
       <c r="F541" s="3"/>
       <c r="G541" s="3"/>
       <c r="H541" s="3"/>
@@ -23973,7 +23973,9 @@
         <v>7</v>
       </c>
       <c r="D543" s="3"/>
-      <c r="E543" s="3"/>
+      <c r="E543" s="3">
+        <v>514001</v>
+      </c>
       <c r="F543" s="3"/>
       <c r="G543" s="3"/>
       <c r="H543" s="3"/>
@@ -24151,7 +24153,9 @@
         <v>7</v>
       </c>
       <c r="D548" s="3"/>
-      <c r="E548" s="3"/>
+      <c r="E548" s="3">
+        <v>518000</v>
+      </c>
       <c r="F548" s="3"/>
       <c r="G548" s="3"/>
       <c r="H548" s="3"/>
@@ -24365,7 +24369,9 @@
         <v>7</v>
       </c>
       <c r="D554" s="3"/>
-      <c r="E554" s="3"/>
+      <c r="E554" s="3">
+        <v>518600</v>
+      </c>
       <c r="F554" s="3"/>
       <c r="G554" s="3"/>
       <c r="H554" s="3"/>
@@ -24435,7 +24441,9 @@
         <v>7</v>
       </c>
       <c r="D556" s="3"/>
-      <c r="E556" s="3"/>
+      <c r="E556" s="3">
+        <v>516600</v>
+      </c>
       <c r="F556" s="3"/>
       <c r="G556" s="3"/>
       <c r="H556" s="3"/>
@@ -24577,7 +24585,9 @@
         <v>7</v>
       </c>
       <c r="D560" s="3"/>
-      <c r="E560" s="3"/>
+      <c r="E560" s="3">
+        <v>516600</v>
+      </c>
       <c r="F560" s="3"/>
       <c r="G560" s="3"/>
       <c r="H560" s="3"/>
@@ -24647,7 +24657,9 @@
         <v>7</v>
       </c>
       <c r="D562" s="3"/>
-      <c r="E562" s="3"/>
+      <c r="E562" s="3">
+        <v>516600</v>
+      </c>
       <c r="F562" s="3"/>
       <c r="G562" s="3"/>
       <c r="H562" s="3"/>
@@ -24933,7 +24945,9 @@
         <v>7</v>
       </c>
       <c r="D570" s="3"/>
-      <c r="E570" s="3"/>
+      <c r="E570" s="3">
+        <v>521000</v>
+      </c>
       <c r="F570" s="3"/>
       <c r="G570" s="3"/>
       <c r="H570" s="3"/>
@@ -24967,7 +24981,9 @@
         <v>7</v>
       </c>
       <c r="D571" s="3"/>
-      <c r="E571" s="3"/>
+      <c r="E571" s="3">
+        <v>521000</v>
+      </c>
       <c r="F571" s="3"/>
       <c r="G571" s="3"/>
       <c r="H571" s="3"/>
@@ -25253,7 +25269,9 @@
         <v>7</v>
       </c>
       <c r="D579" s="3"/>
-      <c r="E579" s="3"/>
+      <c r="E579" s="3">
+        <v>521000</v>
+      </c>
       <c r="F579" s="3"/>
       <c r="G579" s="3"/>
       <c r="H579" s="3"/>

--- a/Data_file/product_category_import.xlsx
+++ b/Data_file/product_category_import.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="733">
   <si>
     <t>product_category_import</t>
   </si>
@@ -1006,6 +1006,9 @@
     <t>ชุดสกรูพร้อมหมุดเหล็กหัวมนยึดกระจก</t>
   </si>
   <si>
+    <t>ชุดอุปกรณ์</t>
+  </si>
+  <si>
     <t>10 สี-RM</t>
   </si>
   <si>
@@ -1898,6 +1901,9 @@
   </si>
   <si>
     <t>ค่าสอบบัญชี</t>
+  </si>
+  <si>
+    <t>ค่าบริการเกี่ยวกับไอที</t>
   </si>
   <si>
     <t>ค่าใช้จ่ายอื่นในการบริหาร</t>
@@ -3372,7 +3378,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z1025"/>
+  <dimension ref="A1:Z1027"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -17781,7 +17787,7 @@
         <v>331</v>
       </c>
       <c r="B380" t="s" s="2">
-        <v>263</v>
+        <v>302</v>
       </c>
       <c r="C380" t="s" s="2">
         <v>7</v>
@@ -17819,7 +17825,7 @@
         <v>332</v>
       </c>
       <c r="B381" t="s" s="2">
-        <v>331</v>
+        <v>263</v>
       </c>
       <c r="C381" t="s" s="2">
         <v>7</v>
@@ -17857,7 +17863,7 @@
         <v>333</v>
       </c>
       <c r="B382" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C382" t="s" s="2">
         <v>7</v>
@@ -17895,7 +17901,7 @@
         <v>334</v>
       </c>
       <c r="B383" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C383" t="s" s="2">
         <v>7</v>
@@ -17933,7 +17939,7 @@
         <v>335</v>
       </c>
       <c r="B384" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C384" t="s" s="2">
         <v>7</v>
@@ -17971,7 +17977,7 @@
         <v>336</v>
       </c>
       <c r="B385" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C385" t="s" s="2">
         <v>7</v>
@@ -18009,7 +18015,7 @@
         <v>337</v>
       </c>
       <c r="B386" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C386" t="s" s="2">
         <v>7</v>
@@ -18047,7 +18053,7 @@
         <v>338</v>
       </c>
       <c r="B387" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C387" t="s" s="2">
         <v>7</v>
@@ -18085,7 +18091,7 @@
         <v>339</v>
       </c>
       <c r="B388" t="s" s="2">
-        <v>263</v>
+        <v>332</v>
       </c>
       <c r="C388" t="s" s="2">
         <v>7</v>
@@ -18123,7 +18129,7 @@
         <v>340</v>
       </c>
       <c r="B389" t="s" s="2">
-        <v>339</v>
+        <v>263</v>
       </c>
       <c r="C389" t="s" s="2">
         <v>7</v>
@@ -18161,7 +18167,7 @@
         <v>341</v>
       </c>
       <c r="B390" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C390" t="s" s="2">
         <v>7</v>
@@ -18199,7 +18205,7 @@
         <v>342</v>
       </c>
       <c r="B391" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C391" t="s" s="2">
         <v>7</v>
@@ -18237,7 +18243,7 @@
         <v>343</v>
       </c>
       <c r="B392" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C392" t="s" s="2">
         <v>7</v>
@@ -18275,7 +18281,7 @@
         <v>344</v>
       </c>
       <c r="B393" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C393" t="s" s="2">
         <v>7</v>
@@ -18313,7 +18319,7 @@
         <v>345</v>
       </c>
       <c r="B394" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C394" t="s" s="2">
         <v>7</v>
@@ -18351,7 +18357,7 @@
         <v>346</v>
       </c>
       <c r="B395" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C395" t="s" s="2">
         <v>7</v>
@@ -18389,7 +18395,7 @@
         <v>347</v>
       </c>
       <c r="B396" t="s" s="2">
-        <v>263</v>
+        <v>340</v>
       </c>
       <c r="C396" t="s" s="2">
         <v>7</v>
@@ -18427,7 +18433,7 @@
         <v>348</v>
       </c>
       <c r="B397" t="s" s="2">
-        <v>347</v>
+        <v>263</v>
       </c>
       <c r="C397" t="s" s="2">
         <v>7</v>
@@ -18465,7 +18471,7 @@
         <v>349</v>
       </c>
       <c r="B398" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C398" t="s" s="2">
         <v>7</v>
@@ -18503,7 +18509,7 @@
         <v>350</v>
       </c>
       <c r="B399" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C399" t="s" s="2">
         <v>7</v>
@@ -18541,7 +18547,7 @@
         <v>351</v>
       </c>
       <c r="B400" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C400" t="s" s="2">
         <v>7</v>
@@ -18579,7 +18585,7 @@
         <v>352</v>
       </c>
       <c r="B401" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C401" t="s" s="2">
         <v>7</v>
@@ -18617,7 +18623,7 @@
         <v>353</v>
       </c>
       <c r="B402" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C402" t="s" s="2">
         <v>7</v>
@@ -18655,7 +18661,7 @@
         <v>354</v>
       </c>
       <c r="B403" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C403" t="s" s="2">
         <v>7</v>
@@ -18693,7 +18699,7 @@
         <v>355</v>
       </c>
       <c r="B404" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C404" t="s" s="2">
         <v>7</v>
@@ -18731,7 +18737,7 @@
         <v>356</v>
       </c>
       <c r="B405" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C405" t="s" s="2">
         <v>7</v>
@@ -18769,7 +18775,7 @@
         <v>357</v>
       </c>
       <c r="B406" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C406" t="s" s="2">
         <v>7</v>
@@ -18807,7 +18813,7 @@
         <v>358</v>
       </c>
       <c r="B407" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C407" t="s" s="2">
         <v>7</v>
@@ -18845,7 +18851,7 @@
         <v>359</v>
       </c>
       <c r="B408" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C408" t="s" s="2">
         <v>7</v>
@@ -18883,7 +18889,7 @@
         <v>360</v>
       </c>
       <c r="B409" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C409" t="s" s="2">
         <v>7</v>
@@ -18921,7 +18927,7 @@
         <v>361</v>
       </c>
       <c r="B410" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C410" t="s" s="2">
         <v>7</v>
@@ -18959,7 +18965,7 @@
         <v>362</v>
       </c>
       <c r="B411" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C411" t="s" s="2">
         <v>7</v>
@@ -18997,7 +19003,7 @@
         <v>363</v>
       </c>
       <c r="B412" t="s" s="2">
-        <v>263</v>
+        <v>348</v>
       </c>
       <c r="C412" t="s" s="2">
         <v>7</v>
@@ -19006,7 +19012,7 @@
         <v>411000</v>
       </c>
       <c r="E412" s="6">
-        <v>513000</v>
+        <v>511100</v>
       </c>
       <c r="F412" s="4"/>
       <c r="G412" s="4"/>
@@ -19035,7 +19041,7 @@
         <v>364</v>
       </c>
       <c r="B413" t="s" s="2">
-        <v>363</v>
+        <v>263</v>
       </c>
       <c r="C413" t="s" s="2">
         <v>7</v>
@@ -19073,7 +19079,7 @@
         <v>365</v>
       </c>
       <c r="B414" t="s" s="2">
-        <v>263</v>
+        <v>364</v>
       </c>
       <c r="C414" t="s" s="2">
         <v>7</v>
@@ -19082,7 +19088,7 @@
         <v>411000</v>
       </c>
       <c r="E414" s="6">
-        <v>511100</v>
+        <v>513000</v>
       </c>
       <c r="F414" s="4"/>
       <c r="G414" s="4"/>
@@ -19108,10 +19114,10 @@
     </row>
     <row r="415" ht="19.5" customHeight="1">
       <c r="A415" t="s" s="2">
-        <v>286</v>
+        <v>366</v>
       </c>
       <c r="B415" t="s" s="2">
-        <v>365</v>
+        <v>263</v>
       </c>
       <c r="C415" t="s" s="2">
         <v>7</v>
@@ -19146,10 +19152,10 @@
     </row>
     <row r="416" ht="19.5" customHeight="1">
       <c r="A416" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="B416" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="B416" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="C416" t="s" s="2">
         <v>7</v>
@@ -19187,7 +19193,7 @@
         <v>367</v>
       </c>
       <c r="B417" t="s" s="2">
-        <v>263</v>
+        <v>366</v>
       </c>
       <c r="C417" t="s" s="2">
         <v>7</v>
@@ -19196,7 +19202,7 @@
         <v>411000</v>
       </c>
       <c r="E417" s="6">
-        <v>512000</v>
+        <v>511100</v>
       </c>
       <c r="F417" s="4"/>
       <c r="G417" s="4"/>
@@ -19225,7 +19231,7 @@
         <v>368</v>
       </c>
       <c r="B418" t="s" s="2">
-        <v>367</v>
+        <v>263</v>
       </c>
       <c r="C418" t="s" s="2">
         <v>7</v>
@@ -19263,7 +19269,7 @@
         <v>369</v>
       </c>
       <c r="B419" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C419" t="s" s="2">
         <v>7</v>
@@ -19301,7 +19307,7 @@
         <v>370</v>
       </c>
       <c r="B420" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C420" t="s" s="2">
         <v>7</v>
@@ -19339,7 +19345,7 @@
         <v>371</v>
       </c>
       <c r="B421" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C421" t="s" s="2">
         <v>7</v>
@@ -19377,7 +19383,7 @@
         <v>372</v>
       </c>
       <c r="B422" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C422" t="s" s="2">
         <v>7</v>
@@ -19415,7 +19421,7 @@
         <v>373</v>
       </c>
       <c r="B423" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C423" t="s" s="2">
         <v>7</v>
@@ -19453,7 +19459,7 @@
         <v>374</v>
       </c>
       <c r="B424" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C424" t="s" s="2">
         <v>7</v>
@@ -19491,7 +19497,7 @@
         <v>375</v>
       </c>
       <c r="B425" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C425" t="s" s="2">
         <v>7</v>
@@ -19529,7 +19535,7 @@
         <v>376</v>
       </c>
       <c r="B426" t="s" s="2">
-        <v>263</v>
+        <v>368</v>
       </c>
       <c r="C426" t="s" s="2">
         <v>7</v>
@@ -19567,7 +19573,7 @@
         <v>377</v>
       </c>
       <c r="B427" t="s" s="2">
-        <v>376</v>
+        <v>263</v>
       </c>
       <c r="C427" t="s" s="2">
         <v>7</v>
@@ -19605,7 +19611,7 @@
         <v>378</v>
       </c>
       <c r="B428" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C428" t="s" s="2">
         <v>7</v>
@@ -19643,7 +19649,7 @@
         <v>379</v>
       </c>
       <c r="B429" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C429" t="s" s="2">
         <v>7</v>
@@ -19681,7 +19687,7 @@
         <v>380</v>
       </c>
       <c r="B430" t="s" s="2">
-        <v>263</v>
+        <v>377</v>
       </c>
       <c r="C430" t="s" s="2">
         <v>7</v>
@@ -19690,7 +19696,7 @@
         <v>411000</v>
       </c>
       <c r="E430" s="6">
-        <v>511100</v>
+        <v>512000</v>
       </c>
       <c r="F430" s="4"/>
       <c r="G430" s="4"/>
@@ -19719,7 +19725,7 @@
         <v>381</v>
       </c>
       <c r="B431" t="s" s="2">
-        <v>380</v>
+        <v>263</v>
       </c>
       <c r="C431" t="s" s="2">
         <v>7</v>
@@ -19757,7 +19763,7 @@
         <v>382</v>
       </c>
       <c r="B432" t="s" s="2">
-        <v>263</v>
+        <v>381</v>
       </c>
       <c r="C432" t="s" s="2">
         <v>7</v>
@@ -19833,7 +19839,7 @@
         <v>384</v>
       </c>
       <c r="B434" t="s" s="2">
-        <v>383</v>
+        <v>263</v>
       </c>
       <c r="C434" t="s" s="2">
         <v>7</v>
@@ -19871,7 +19877,7 @@
         <v>385</v>
       </c>
       <c r="B435" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C435" t="s" s="2">
         <v>7</v>
@@ -19909,7 +19915,7 @@
         <v>386</v>
       </c>
       <c r="B436" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C436" t="s" s="2">
         <v>7</v>
@@ -19947,7 +19953,7 @@
         <v>387</v>
       </c>
       <c r="B437" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C437" t="s" s="2">
         <v>7</v>
@@ -19985,7 +19991,7 @@
         <v>388</v>
       </c>
       <c r="B438" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C438" t="s" s="2">
         <v>7</v>
@@ -20023,7 +20029,7 @@
         <v>389</v>
       </c>
       <c r="B439" t="s" s="2">
-        <v>6</v>
+        <v>384</v>
       </c>
       <c r="C439" t="s" s="2">
         <v>7</v>
@@ -20032,7 +20038,7 @@
         <v>411000</v>
       </c>
       <c r="E439" s="6">
-        <v>514000</v>
+        <v>511100</v>
       </c>
       <c r="F439" s="4"/>
       <c r="G439" s="4"/>
@@ -20061,7 +20067,7 @@
         <v>390</v>
       </c>
       <c r="B440" t="s" s="2">
-        <v>389</v>
+        <v>6</v>
       </c>
       <c r="C440" t="s" s="2">
         <v>7</v>
@@ -20134,10 +20140,10 @@
     </row>
     <row r="442" ht="19.5" customHeight="1">
       <c r="A442" t="s" s="2">
-        <v>344</v>
+        <v>392</v>
       </c>
       <c r="B442" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C442" t="s" s="2">
         <v>7</v>
@@ -20172,10 +20178,10 @@
     </row>
     <row r="443" ht="19.5" customHeight="1">
       <c r="A443" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B443" t="s" s="2">
-        <v>344</v>
+        <v>390</v>
       </c>
       <c r="C443" t="s" s="2">
         <v>7</v>
@@ -20210,10 +20216,10 @@
     </row>
     <row r="444" ht="19.5" customHeight="1">
       <c r="A444" t="s" s="2">
-        <v>392</v>
+        <v>345</v>
       </c>
       <c r="B444" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C444" t="s" s="2">
         <v>7</v>
@@ -20251,7 +20257,7 @@
         <v>393</v>
       </c>
       <c r="B445" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C445" t="s" s="2">
         <v>7</v>
@@ -20289,7 +20295,7 @@
         <v>394</v>
       </c>
       <c r="B446" t="s" s="2">
-        <v>389</v>
+        <v>345</v>
       </c>
       <c r="C446" t="s" s="2">
         <v>7</v>
@@ -20324,10 +20330,10 @@
     </row>
     <row r="447" ht="19.5" customHeight="1">
       <c r="A447" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B447" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C447" t="s" s="2">
         <v>7</v>
@@ -20365,7 +20371,7 @@
         <v>395</v>
       </c>
       <c r="B448" t="s" s="2">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="C448" t="s" s="2">
         <v>7</v>
@@ -20403,7 +20409,7 @@
         <v>396</v>
       </c>
       <c r="B449" t="s" s="2">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C449" t="s" s="2">
         <v>7</v>
@@ -20441,7 +20447,7 @@
         <v>397</v>
       </c>
       <c r="B450" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C450" t="s" s="2">
         <v>7</v>
@@ -20479,7 +20485,7 @@
         <v>398</v>
       </c>
       <c r="B451" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C451" t="s" s="2">
         <v>7</v>
@@ -20514,10 +20520,10 @@
     </row>
     <row r="452" ht="19.5" customHeight="1">
       <c r="A452" t="s" s="2">
-        <v>345</v>
+        <v>399</v>
       </c>
       <c r="B452" t="s" s="2">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="C452" t="s" s="2">
         <v>7</v>
@@ -20552,10 +20558,10 @@
     </row>
     <row r="453" ht="19.5" customHeight="1">
       <c r="A453" t="s" s="2">
-        <v>399</v>
+        <v>346</v>
       </c>
       <c r="B453" t="s" s="2">
-        <v>345</v>
+        <v>390</v>
       </c>
       <c r="C453" t="s" s="2">
         <v>7</v>
@@ -20593,7 +20599,7 @@
         <v>400</v>
       </c>
       <c r="B454" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C454" t="s" s="2">
         <v>7</v>
@@ -20631,7 +20637,7 @@
         <v>401</v>
       </c>
       <c r="B455" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C455" t="s" s="2">
         <v>7</v>
@@ -20669,7 +20675,7 @@
         <v>402</v>
       </c>
       <c r="B456" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C456" t="s" s="2">
         <v>7</v>
@@ -20707,7 +20713,7 @@
         <v>403</v>
       </c>
       <c r="B457" t="s" s="2">
-        <v>389</v>
+        <v>346</v>
       </c>
       <c r="C457" t="s" s="2">
         <v>7</v>
@@ -20745,7 +20751,7 @@
         <v>404</v>
       </c>
       <c r="B458" t="s" s="2">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="C458" t="s" s="2">
         <v>7</v>
@@ -20783,7 +20789,7 @@
         <v>405</v>
       </c>
       <c r="B459" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C459" t="s" s="2">
         <v>7</v>
@@ -20821,7 +20827,7 @@
         <v>406</v>
       </c>
       <c r="B460" t="s" s="2">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="C460" t="s" s="2">
         <v>7</v>
@@ -20856,10 +20862,10 @@
     </row>
     <row r="461" ht="19.5" customHeight="1">
       <c r="A461" t="s" s="2">
-        <v>333</v>
+        <v>407</v>
       </c>
       <c r="B461" t="s" s="2">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="C461" t="s" s="2">
         <v>7</v>
@@ -20894,10 +20900,10 @@
     </row>
     <row r="462" ht="19.5" customHeight="1">
       <c r="A462" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="B462" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="B462" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="C462" t="s" s="2">
         <v>7</v>
@@ -20935,7 +20941,7 @@
         <v>408</v>
       </c>
       <c r="B463" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C463" t="s" s="2">
         <v>7</v>
@@ -20973,7 +20979,7 @@
         <v>409</v>
       </c>
       <c r="B464" t="s" s="2">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="C464" t="s" s="2">
         <v>7</v>
@@ -20982,7 +20988,7 @@
         <v>411000</v>
       </c>
       <c r="E464" s="6">
-        <v>513000</v>
+        <v>514000</v>
       </c>
       <c r="F464" s="4"/>
       <c r="G464" s="4"/>
@@ -21011,7 +21017,7 @@
         <v>410</v>
       </c>
       <c r="B465" t="s" s="2">
-        <v>409</v>
+        <v>390</v>
       </c>
       <c r="C465" t="s" s="2">
         <v>7</v>
@@ -21049,7 +21055,7 @@
         <v>411</v>
       </c>
       <c r="B466" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C466" t="s" s="2">
         <v>7</v>
@@ -21087,7 +21093,7 @@
         <v>412</v>
       </c>
       <c r="B467" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C467" t="s" s="2">
         <v>7</v>
@@ -21125,7 +21131,7 @@
         <v>413</v>
       </c>
       <c r="B468" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C468" t="s" s="2">
         <v>7</v>
@@ -21163,7 +21169,7 @@
         <v>414</v>
       </c>
       <c r="B469" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C469" t="s" s="2">
         <v>7</v>
@@ -21201,7 +21207,7 @@
         <v>415</v>
       </c>
       <c r="B470" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C470" t="s" s="2">
         <v>7</v>
@@ -21239,7 +21245,7 @@
         <v>416</v>
       </c>
       <c r="B471" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C471" t="s" s="2">
         <v>7</v>
@@ -21277,7 +21283,7 @@
         <v>417</v>
       </c>
       <c r="B472" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C472" t="s" s="2">
         <v>7</v>
@@ -21315,7 +21321,7 @@
         <v>418</v>
       </c>
       <c r="B473" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C473" t="s" s="2">
         <v>7</v>
@@ -21353,7 +21359,7 @@
         <v>419</v>
       </c>
       <c r="B474" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C474" t="s" s="2">
         <v>7</v>
@@ -21391,7 +21397,7 @@
         <v>420</v>
       </c>
       <c r="B475" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C475" t="s" s="2">
         <v>7</v>
@@ -21429,7 +21435,7 @@
         <v>421</v>
       </c>
       <c r="B476" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C476" t="s" s="2">
         <v>7</v>
@@ -21467,7 +21473,7 @@
         <v>422</v>
       </c>
       <c r="B477" t="s" s="2">
-        <v>389</v>
+        <v>410</v>
       </c>
       <c r="C477" t="s" s="2">
         <v>7</v>
@@ -21476,7 +21482,7 @@
         <v>411000</v>
       </c>
       <c r="E477" s="6">
-        <v>514003</v>
+        <v>513000</v>
       </c>
       <c r="F477" s="4"/>
       <c r="G477" s="4"/>
@@ -21505,7 +21511,7 @@
         <v>423</v>
       </c>
       <c r="B478" t="s" s="2">
-        <v>422</v>
+        <v>390</v>
       </c>
       <c r="C478" t="s" s="2">
         <v>7</v>
@@ -21543,7 +21549,7 @@
         <v>424</v>
       </c>
       <c r="B479" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C479" t="s" s="2">
         <v>7</v>
@@ -21581,7 +21587,7 @@
         <v>425</v>
       </c>
       <c r="B480" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C480" t="s" s="2">
         <v>7</v>
@@ -21619,7 +21625,7 @@
         <v>426</v>
       </c>
       <c r="B481" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C481" t="s" s="2">
         <v>7</v>
@@ -21657,7 +21663,7 @@
         <v>427</v>
       </c>
       <c r="B482" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C482" t="s" s="2">
         <v>7</v>
@@ -21695,7 +21701,7 @@
         <v>428</v>
       </c>
       <c r="B483" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C483" t="s" s="2">
         <v>7</v>
@@ -21733,7 +21739,7 @@
         <v>429</v>
       </c>
       <c r="B484" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C484" t="s" s="2">
         <v>7</v>
@@ -21771,7 +21777,7 @@
         <v>430</v>
       </c>
       <c r="B485" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C485" t="s" s="2">
         <v>7</v>
@@ -21809,7 +21815,7 @@
         <v>431</v>
       </c>
       <c r="B486" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C486" t="s" s="2">
         <v>7</v>
@@ -21847,7 +21853,7 @@
         <v>432</v>
       </c>
       <c r="B487" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C487" t="s" s="2">
         <v>7</v>
@@ -21885,7 +21891,7 @@
         <v>433</v>
       </c>
       <c r="B488" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C488" t="s" s="2">
         <v>7</v>
@@ -21923,7 +21929,7 @@
         <v>434</v>
       </c>
       <c r="B489" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C489" t="s" s="2">
         <v>7</v>
@@ -21961,7 +21967,7 @@
         <v>435</v>
       </c>
       <c r="B490" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C490" t="s" s="2">
         <v>7</v>
@@ -21999,7 +22005,7 @@
         <v>436</v>
       </c>
       <c r="B491" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C491" t="s" s="2">
         <v>7</v>
@@ -22037,7 +22043,7 @@
         <v>437</v>
       </c>
       <c r="B492" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C492" t="s" s="2">
         <v>7</v>
@@ -22075,7 +22081,7 @@
         <v>438</v>
       </c>
       <c r="B493" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C493" t="s" s="2">
         <v>7</v>
@@ -22113,7 +22119,7 @@
         <v>439</v>
       </c>
       <c r="B494" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C494" t="s" s="2">
         <v>7</v>
@@ -22151,7 +22157,7 @@
         <v>440</v>
       </c>
       <c r="B495" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C495" t="s" s="2">
         <v>7</v>
@@ -22189,7 +22195,7 @@
         <v>441</v>
       </c>
       <c r="B496" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C496" t="s" s="2">
         <v>7</v>
@@ -22227,7 +22233,7 @@
         <v>442</v>
       </c>
       <c r="B497" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C497" t="s" s="2">
         <v>7</v>
@@ -22265,7 +22271,7 @@
         <v>443</v>
       </c>
       <c r="B498" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C498" t="s" s="2">
         <v>7</v>
@@ -22303,7 +22309,7 @@
         <v>444</v>
       </c>
       <c r="B499" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C499" t="s" s="2">
         <v>7</v>
@@ -22341,7 +22347,7 @@
         <v>445</v>
       </c>
       <c r="B500" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C500" t="s" s="2">
         <v>7</v>
@@ -22379,7 +22385,7 @@
         <v>446</v>
       </c>
       <c r="B501" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C501" t="s" s="2">
         <v>7</v>
@@ -22417,7 +22423,7 @@
         <v>447</v>
       </c>
       <c r="B502" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C502" t="s" s="2">
         <v>7</v>
@@ -22455,7 +22461,7 @@
         <v>448</v>
       </c>
       <c r="B503" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C503" t="s" s="2">
         <v>7</v>
@@ -22493,7 +22499,7 @@
         <v>449</v>
       </c>
       <c r="B504" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C504" t="s" s="2">
         <v>7</v>
@@ -22531,7 +22537,7 @@
         <v>450</v>
       </c>
       <c r="B505" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C505" t="s" s="2">
         <v>7</v>
@@ -22569,7 +22575,7 @@
         <v>451</v>
       </c>
       <c r="B506" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C506" t="s" s="2">
         <v>7</v>
@@ -22607,7 +22613,7 @@
         <v>452</v>
       </c>
       <c r="B507" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C507" t="s" s="2">
         <v>7</v>
@@ -22645,7 +22651,7 @@
         <v>453</v>
       </c>
       <c r="B508" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C508" t="s" s="2">
         <v>7</v>
@@ -22683,7 +22689,7 @@
         <v>454</v>
       </c>
       <c r="B509" t="s" s="2">
-        <v>389</v>
+        <v>423</v>
       </c>
       <c r="C509" t="s" s="2">
         <v>7</v>
@@ -22692,7 +22698,7 @@
         <v>411000</v>
       </c>
       <c r="E509" s="6">
-        <v>514000</v>
+        <v>514003</v>
       </c>
       <c r="F509" s="4"/>
       <c r="G509" s="4"/>
@@ -22721,7 +22727,7 @@
         <v>455</v>
       </c>
       <c r="B510" t="s" s="2">
-        <v>454</v>
+        <v>390</v>
       </c>
       <c r="C510" t="s" s="2">
         <v>7</v>
@@ -22759,7 +22765,7 @@
         <v>456</v>
       </c>
       <c r="B511" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C511" t="s" s="2">
         <v>7</v>
@@ -22797,7 +22803,7 @@
         <v>457</v>
       </c>
       <c r="B512" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C512" t="s" s="2">
         <v>7</v>
@@ -22835,7 +22841,7 @@
         <v>458</v>
       </c>
       <c r="B513" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C513" t="s" s="2">
         <v>7</v>
@@ -22873,7 +22879,7 @@
         <v>459</v>
       </c>
       <c r="B514" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C514" t="s" s="2">
         <v>7</v>
@@ -22911,7 +22917,7 @@
         <v>460</v>
       </c>
       <c r="B515" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C515" t="s" s="2">
         <v>7</v>
@@ -22949,7 +22955,7 @@
         <v>461</v>
       </c>
       <c r="B516" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C516" t="s" s="2">
         <v>7</v>
@@ -22987,7 +22993,7 @@
         <v>462</v>
       </c>
       <c r="B517" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C517" t="s" s="2">
         <v>7</v>
@@ -23025,7 +23031,7 @@
         <v>463</v>
       </c>
       <c r="B518" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C518" t="s" s="2">
         <v>7</v>
@@ -23063,7 +23069,7 @@
         <v>464</v>
       </c>
       <c r="B519" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C519" t="s" s="2">
         <v>7</v>
@@ -23101,7 +23107,7 @@
         <v>465</v>
       </c>
       <c r="B520" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C520" t="s" s="2">
         <v>7</v>
@@ -23139,7 +23145,7 @@
         <v>466</v>
       </c>
       <c r="B521" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C521" t="s" s="2">
         <v>7</v>
@@ -23174,10 +23180,10 @@
     </row>
     <row r="522" ht="19.5" customHeight="1">
       <c r="A522" t="s" s="2">
-        <v>340</v>
+        <v>467</v>
       </c>
       <c r="B522" t="s" s="2">
-        <v>389</v>
+        <v>455</v>
       </c>
       <c r="C522" t="s" s="2">
         <v>7</v>
@@ -23212,10 +23218,10 @@
     </row>
     <row r="523" ht="19.5" customHeight="1">
       <c r="A523" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B523" t="s" s="2">
-        <v>340</v>
+        <v>390</v>
       </c>
       <c r="C523" t="s" s="2">
         <v>7</v>
@@ -23250,10 +23256,10 @@
     </row>
     <row r="524" ht="19.5" customHeight="1">
       <c r="A524" t="s" s="2">
-        <v>467</v>
+        <v>341</v>
       </c>
       <c r="B524" t="s" s="2">
-        <v>389</v>
+        <v>341</v>
       </c>
       <c r="C524" t="s" s="2">
         <v>7</v>
@@ -23291,7 +23297,7 @@
         <v>468</v>
       </c>
       <c r="B525" t="s" s="2">
-        <v>467</v>
+        <v>390</v>
       </c>
       <c r="C525" t="s" s="2">
         <v>7</v>
@@ -23329,7 +23335,7 @@
         <v>469</v>
       </c>
       <c r="B526" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C526" t="s" s="2">
         <v>7</v>
@@ -23367,7 +23373,7 @@
         <v>470</v>
       </c>
       <c r="B527" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C527" t="s" s="2">
         <v>7</v>
@@ -23405,7 +23411,7 @@
         <v>471</v>
       </c>
       <c r="B528" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C528" t="s" s="2">
         <v>7</v>
@@ -23443,7 +23449,7 @@
         <v>472</v>
       </c>
       <c r="B529" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C529" t="s" s="2">
         <v>7</v>
@@ -23481,7 +23487,7 @@
         <v>473</v>
       </c>
       <c r="B530" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C530" t="s" s="2">
         <v>7</v>
@@ -23519,7 +23525,7 @@
         <v>474</v>
       </c>
       <c r="B531" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C531" t="s" s="2">
         <v>7</v>
@@ -23557,7 +23563,7 @@
         <v>475</v>
       </c>
       <c r="B532" t="s" s="2">
-        <v>389</v>
+        <v>468</v>
       </c>
       <c r="C532" t="s" s="2">
         <v>7</v>
@@ -23566,7 +23572,7 @@
         <v>411000</v>
       </c>
       <c r="E532" s="6">
-        <v>518600</v>
+        <v>514000</v>
       </c>
       <c r="F532" s="4"/>
       <c r="G532" s="4"/>
@@ -23595,7 +23601,7 @@
         <v>476</v>
       </c>
       <c r="B533" t="s" s="2">
-        <v>475</v>
+        <v>390</v>
       </c>
       <c r="C533" t="s" s="2">
         <v>7</v>
@@ -23633,7 +23639,7 @@
         <v>477</v>
       </c>
       <c r="B534" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C534" t="s" s="2">
         <v>7</v>
@@ -23671,7 +23677,7 @@
         <v>478</v>
       </c>
       <c r="B535" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C535" t="s" s="2">
         <v>7</v>
@@ -23709,7 +23715,7 @@
         <v>479</v>
       </c>
       <c r="B536" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C536" t="s" s="2">
         <v>7</v>
@@ -23747,7 +23753,7 @@
         <v>480</v>
       </c>
       <c r="B537" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C537" t="s" s="2">
         <v>7</v>
@@ -23785,7 +23791,7 @@
         <v>481</v>
       </c>
       <c r="B538" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C538" t="s" s="2">
         <v>7</v>
@@ -23823,13 +23829,17 @@
         <v>482</v>
       </c>
       <c r="B539" t="s" s="2">
-        <v>6</v>
+        <v>476</v>
       </c>
       <c r="C539" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="D539" s="3"/>
-      <c r="E539" s="3"/>
+      <c r="D539" s="6">
+        <v>411000</v>
+      </c>
+      <c r="E539" s="6">
+        <v>518600</v>
+      </c>
       <c r="F539" s="4"/>
       <c r="G539" s="4"/>
       <c r="H539" s="4"/>
@@ -23857,15 +23867,13 @@
         <v>483</v>
       </c>
       <c r="B540" t="s" s="2">
-        <v>482</v>
+        <v>6</v>
       </c>
       <c r="C540" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D540" s="3"/>
-      <c r="E540" s="6">
-        <v>511000</v>
-      </c>
+      <c r="E540" s="3"/>
       <c r="F540" s="4"/>
       <c r="G540" s="4"/>
       <c r="H540" s="4"/>
@@ -23900,7 +23908,7 @@
       </c>
       <c r="D541" s="3"/>
       <c r="E541" s="6">
-        <v>514001</v>
+        <v>511000</v>
       </c>
       <c r="F541" s="4"/>
       <c r="G541" s="4"/>
@@ -23965,7 +23973,7 @@
         <v>486</v>
       </c>
       <c r="B543" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C543" t="s" s="2">
         <v>7</v>
@@ -24001,14 +24009,14 @@
         <v>487</v>
       </c>
       <c r="B544" t="s" s="2">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C544" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D544" s="3"/>
       <c r="E544" s="6">
-        <v>517100</v>
+        <v>514001</v>
       </c>
       <c r="F544" s="4"/>
       <c r="G544" s="4"/>
@@ -24037,14 +24045,14 @@
         <v>488</v>
       </c>
       <c r="B545" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C545" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D545" s="3"/>
       <c r="E545" s="6">
-        <v>517200</v>
+        <v>517100</v>
       </c>
       <c r="F545" s="4"/>
       <c r="G545" s="4"/>
@@ -24073,14 +24081,14 @@
         <v>489</v>
       </c>
       <c r="B546" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C546" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D546" s="3"/>
       <c r="E546" s="6">
-        <v>517300</v>
+        <v>517200</v>
       </c>
       <c r="F546" s="4"/>
       <c r="G546" s="4"/>
@@ -24109,7 +24117,7 @@
         <v>490</v>
       </c>
       <c r="B547" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C547" t="s" s="2">
         <v>7</v>
@@ -24145,14 +24153,14 @@
         <v>491</v>
       </c>
       <c r="B548" t="s" s="2">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="C548" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D548" s="3"/>
       <c r="E548" s="6">
-        <v>518000</v>
+        <v>517300</v>
       </c>
       <c r="F548" s="4"/>
       <c r="G548" s="4"/>
@@ -24181,14 +24189,14 @@
         <v>492</v>
       </c>
       <c r="B549" t="s" s="2">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="C549" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D549" s="3"/>
       <c r="E549" s="6">
-        <v>518100</v>
+        <v>518000</v>
       </c>
       <c r="F549" s="4"/>
       <c r="G549" s="4"/>
@@ -24217,14 +24225,14 @@
         <v>493</v>
       </c>
       <c r="B550" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C550" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D550" s="3"/>
       <c r="E550" s="6">
-        <v>518200</v>
+        <v>518100</v>
       </c>
       <c r="F550" s="4"/>
       <c r="G550" s="4"/>
@@ -24253,14 +24261,14 @@
         <v>494</v>
       </c>
       <c r="B551" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C551" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D551" s="3"/>
       <c r="E551" s="6">
-        <v>518300</v>
+        <v>518200</v>
       </c>
       <c r="F551" s="4"/>
       <c r="G551" s="4"/>
@@ -24289,14 +24297,14 @@
         <v>495</v>
       </c>
       <c r="B552" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C552" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D552" s="3"/>
       <c r="E552" s="6">
-        <v>518400</v>
+        <v>518300</v>
       </c>
       <c r="F552" s="4"/>
       <c r="G552" s="4"/>
@@ -24325,14 +24333,14 @@
         <v>496</v>
       </c>
       <c r="B553" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C553" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D553" s="3"/>
       <c r="E553" s="6">
-        <v>518500</v>
+        <v>518400</v>
       </c>
       <c r="F553" s="4"/>
       <c r="G553" s="4"/>
@@ -24361,14 +24369,14 @@
         <v>497</v>
       </c>
       <c r="B554" t="s" s="2">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="C554" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D554" s="3"/>
       <c r="E554" s="6">
-        <v>518600</v>
+        <v>518500</v>
       </c>
       <c r="F554" s="4"/>
       <c r="G554" s="4"/>
@@ -24394,10 +24402,10 @@
     </row>
     <row r="555" ht="19.5" customHeight="1">
       <c r="A555" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B555" t="s" s="2">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="C555" t="s" s="2">
         <v>7</v>
@@ -24433,14 +24441,14 @@
         <v>498</v>
       </c>
       <c r="B556" t="s" s="2">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="C556" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D556" s="3"/>
       <c r="E556" s="6">
-        <v>516600</v>
+        <v>518600</v>
       </c>
       <c r="F556" s="4"/>
       <c r="G556" s="4"/>
@@ -24469,7 +24477,7 @@
         <v>499</v>
       </c>
       <c r="B557" t="s" s="2">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="C557" t="s" s="2">
         <v>7</v>
@@ -24505,7 +24513,7 @@
         <v>500</v>
       </c>
       <c r="B558" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C558" t="s" s="2">
         <v>7</v>
@@ -24537,11 +24545,11 @@
       <c r="Z558" s="4"/>
     </row>
     <row r="559" ht="19.5" customHeight="1">
-      <c r="A559" t="s" s="7">
+      <c r="A559" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="B559" t="s" s="7">
-        <v>498</v>
+      <c r="B559" t="s" s="2">
+        <v>499</v>
       </c>
       <c r="C559" t="s" s="2">
         <v>7</v>
@@ -24577,7 +24585,7 @@
         <v>502</v>
       </c>
       <c r="B560" t="s" s="7">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C560" t="s" s="2">
         <v>7</v>
@@ -24609,11 +24617,11 @@
       <c r="Z560" s="4"/>
     </row>
     <row r="561" ht="19.5" customHeight="1">
-      <c r="A561" t="s" s="2">
+      <c r="A561" t="s" s="7">
         <v>503</v>
       </c>
-      <c r="B561" t="s" s="2">
-        <v>498</v>
+      <c r="B561" t="s" s="7">
+        <v>499</v>
       </c>
       <c r="C561" t="s" s="2">
         <v>7</v>
@@ -24649,7 +24657,7 @@
         <v>504</v>
       </c>
       <c r="B562" t="s" s="2">
-        <v>483</v>
+        <v>499</v>
       </c>
       <c r="C562" t="s" s="2">
         <v>7</v>
@@ -24685,7 +24693,7 @@
         <v>505</v>
       </c>
       <c r="B563" t="s" s="2">
-        <v>504</v>
+        <v>484</v>
       </c>
       <c r="C563" t="s" s="2">
         <v>7</v>
@@ -24717,11 +24725,11 @@
       <c r="Z563" s="4"/>
     </row>
     <row r="564" ht="19.5" customHeight="1">
-      <c r="A564" t="s" s="7">
+      <c r="A564" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="B564" t="s" s="7">
-        <v>483</v>
+      <c r="B564" t="s" s="2">
+        <v>505</v>
       </c>
       <c r="C564" t="s" s="2">
         <v>7</v>
@@ -24757,7 +24765,7 @@
         <v>507</v>
       </c>
       <c r="B565" t="s" s="7">
-        <v>506</v>
+        <v>484</v>
       </c>
       <c r="C565" t="s" s="2">
         <v>7</v>
@@ -24793,7 +24801,7 @@
         <v>508</v>
       </c>
       <c r="B566" t="s" s="7">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C566" t="s" s="2">
         <v>7</v>
@@ -24829,7 +24837,7 @@
         <v>509</v>
       </c>
       <c r="B567" t="s" s="7">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C567" t="s" s="2">
         <v>7</v>
@@ -24865,7 +24873,7 @@
         <v>510</v>
       </c>
       <c r="B568" t="s" s="7">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C568" t="s" s="2">
         <v>7</v>
@@ -24901,7 +24909,7 @@
         <v>511</v>
       </c>
       <c r="B569" t="s" s="7">
-        <v>483</v>
+        <v>507</v>
       </c>
       <c r="C569" t="s" s="2">
         <v>7</v>
@@ -24937,7 +24945,7 @@
         <v>512</v>
       </c>
       <c r="B570" t="s" s="7">
-        <v>511</v>
+        <v>484</v>
       </c>
       <c r="C570" t="s" s="2">
         <v>7</v>
@@ -24969,11 +24977,11 @@
       <c r="Z570" s="4"/>
     </row>
     <row r="571" ht="19.5" customHeight="1">
-      <c r="A571" t="s" s="2">
+      <c r="A571" t="s" s="7">
         <v>513</v>
       </c>
-      <c r="B571" t="s" s="2">
-        <v>483</v>
+      <c r="B571" t="s" s="7">
+        <v>512</v>
       </c>
       <c r="C571" t="s" s="2">
         <v>7</v>
@@ -25009,7 +25017,7 @@
         <v>514</v>
       </c>
       <c r="B572" t="s" s="2">
-        <v>513</v>
+        <v>484</v>
       </c>
       <c r="C572" t="s" s="2">
         <v>7</v>
@@ -25045,7 +25053,7 @@
         <v>515</v>
       </c>
       <c r="B573" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C573" t="s" s="2">
         <v>7</v>
@@ -25081,7 +25089,7 @@
         <v>516</v>
       </c>
       <c r="B574" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C574" t="s" s="2">
         <v>7</v>
@@ -25117,7 +25125,7 @@
         <v>517</v>
       </c>
       <c r="B575" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C575" t="s" s="2">
         <v>7</v>
@@ -25153,7 +25161,7 @@
         <v>518</v>
       </c>
       <c r="B576" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C576" t="s" s="2">
         <v>7</v>
@@ -25189,7 +25197,7 @@
         <v>519</v>
       </c>
       <c r="B577" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C577" t="s" s="2">
         <v>7</v>
@@ -25225,7 +25233,7 @@
         <v>520</v>
       </c>
       <c r="B578" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C578" t="s" s="2">
         <v>7</v>
@@ -25261,14 +25269,14 @@
         <v>521</v>
       </c>
       <c r="B579" t="s" s="2">
-        <v>482</v>
+        <v>514</v>
       </c>
       <c r="C579" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D579" s="3"/>
       <c r="E579" s="6">
-        <v>521000</v>
+        <v>516600</v>
       </c>
       <c r="F579" s="4"/>
       <c r="G579" s="4"/>
@@ -25297,7 +25305,7 @@
         <v>522</v>
       </c>
       <c r="B580" t="s" s="2">
-        <v>521</v>
+        <v>483</v>
       </c>
       <c r="C580" t="s" s="2">
         <v>7</v>
@@ -25340,7 +25348,7 @@
       </c>
       <c r="D581" s="3"/>
       <c r="E581" s="6">
-        <v>522880</v>
+        <v>521000</v>
       </c>
       <c r="F581" s="4"/>
       <c r="G581" s="4"/>
@@ -25369,7 +25377,7 @@
         <v>524</v>
       </c>
       <c r="B582" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C582" t="s" s="2">
         <v>7</v>
@@ -25405,7 +25413,7 @@
         <v>525</v>
       </c>
       <c r="B583" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C583" t="s" s="2">
         <v>7</v>
@@ -25441,7 +25449,7 @@
         <v>526</v>
       </c>
       <c r="B584" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C584" t="s" s="2">
         <v>7</v>
@@ -25477,7 +25485,7 @@
         <v>527</v>
       </c>
       <c r="B585" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C585" t="s" s="2">
         <v>7</v>
@@ -25513,7 +25521,7 @@
         <v>528</v>
       </c>
       <c r="B586" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C586" t="s" s="2">
         <v>7</v>
@@ -25549,7 +25557,7 @@
         <v>529</v>
       </c>
       <c r="B587" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C587" t="s" s="2">
         <v>7</v>
@@ -25585,14 +25593,14 @@
         <v>530</v>
       </c>
       <c r="B588" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C588" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D588" s="3"/>
       <c r="E588" s="6">
-        <v>521000</v>
+        <v>522880</v>
       </c>
       <c r="F588" s="4"/>
       <c r="G588" s="4"/>
@@ -25621,14 +25629,14 @@
         <v>531</v>
       </c>
       <c r="B589" t="s" s="2">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="C589" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D589" s="3"/>
       <c r="E589" s="6">
-        <v>521100</v>
+        <v>521000</v>
       </c>
       <c r="F589" s="4"/>
       <c r="G589" s="4"/>
@@ -25657,14 +25665,14 @@
         <v>532</v>
       </c>
       <c r="B590" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C590" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D590" s="3"/>
       <c r="E590" s="6">
-        <v>521200</v>
+        <v>521100</v>
       </c>
       <c r="F590" s="4"/>
       <c r="G590" s="4"/>
@@ -25693,14 +25701,14 @@
         <v>533</v>
       </c>
       <c r="B591" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C591" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D591" s="3"/>
       <c r="E591" s="6">
-        <v>521300</v>
+        <v>521200</v>
       </c>
       <c r="F591" s="4"/>
       <c r="G591" s="4"/>
@@ -25729,14 +25737,14 @@
         <v>534</v>
       </c>
       <c r="B592" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C592" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D592" s="3"/>
       <c r="E592" s="6">
-        <v>521400</v>
+        <v>521300</v>
       </c>
       <c r="F592" s="4"/>
       <c r="G592" s="4"/>
@@ -25765,14 +25773,14 @@
         <v>535</v>
       </c>
       <c r="B593" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C593" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D593" s="3"/>
       <c r="E593" s="6">
-        <v>521500</v>
+        <v>521400</v>
       </c>
       <c r="F593" s="4"/>
       <c r="G593" s="4"/>
@@ -25801,14 +25809,14 @@
         <v>536</v>
       </c>
       <c r="B594" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C594" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D594" s="3"/>
       <c r="E594" s="6">
-        <v>521600</v>
+        <v>521500</v>
       </c>
       <c r="F594" s="4"/>
       <c r="G594" s="4"/>
@@ -25837,14 +25845,14 @@
         <v>537</v>
       </c>
       <c r="B595" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C595" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D595" s="3"/>
       <c r="E595" s="6">
-        <v>522300</v>
+        <v>521600</v>
       </c>
       <c r="F595" s="4"/>
       <c r="G595" s="4"/>
@@ -25873,14 +25881,14 @@
         <v>538</v>
       </c>
       <c r="B596" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C596" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D596" s="3"/>
       <c r="E596" s="6">
-        <v>521900</v>
+        <v>522300</v>
       </c>
       <c r="F596" s="4"/>
       <c r="G596" s="4"/>
@@ -25909,14 +25917,14 @@
         <v>539</v>
       </c>
       <c r="B597" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C597" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D597" s="3"/>
       <c r="E597" s="6">
-        <v>522300</v>
+        <v>521900</v>
       </c>
       <c r="F597" s="4"/>
       <c r="G597" s="4"/>
@@ -25945,14 +25953,14 @@
         <v>540</v>
       </c>
       <c r="B598" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C598" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D598" s="3"/>
       <c r="E598" s="6">
-        <v>521500</v>
+        <v>522300</v>
       </c>
       <c r="F598" s="4"/>
       <c r="G598" s="4"/>
@@ -25981,14 +25989,14 @@
         <v>541</v>
       </c>
       <c r="B599" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C599" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D599" s="3"/>
       <c r="E599" s="6">
-        <v>521800</v>
+        <v>521500</v>
       </c>
       <c r="F599" s="4"/>
       <c r="G599" s="4"/>
@@ -26017,13 +26025,15 @@
         <v>542</v>
       </c>
       <c r="B600" t="s" s="2">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="C600" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D600" s="3"/>
-      <c r="E600" s="3"/>
+      <c r="E600" s="6">
+        <v>521800</v>
+      </c>
       <c r="F600" s="4"/>
       <c r="G600" s="4"/>
       <c r="H600" s="4"/>
@@ -26051,15 +26061,13 @@
         <v>543</v>
       </c>
       <c r="B601" t="s" s="2">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="C601" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D601" s="3"/>
-      <c r="E601" s="6">
-        <v>522610</v>
-      </c>
+      <c r="E601" s="3"/>
       <c r="F601" s="4"/>
       <c r="G601" s="4"/>
       <c r="H601" s="4"/>
@@ -26087,14 +26095,14 @@
         <v>544</v>
       </c>
       <c r="B602" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C602" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D602" s="3"/>
       <c r="E602" s="6">
-        <v>522620</v>
+        <v>522610</v>
       </c>
       <c r="F602" s="4"/>
       <c r="G602" s="4"/>
@@ -26123,14 +26131,14 @@
         <v>545</v>
       </c>
       <c r="B603" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C603" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D603" s="3"/>
       <c r="E603" s="6">
-        <v>522630</v>
+        <v>522620</v>
       </c>
       <c r="F603" s="4"/>
       <c r="G603" s="4"/>
@@ -26159,14 +26167,14 @@
         <v>546</v>
       </c>
       <c r="B604" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C604" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D604" s="3"/>
       <c r="E604" s="6">
-        <v>522640</v>
+        <v>522630</v>
       </c>
       <c r="F604" s="4"/>
       <c r="G604" s="4"/>
@@ -26195,14 +26203,14 @@
         <v>547</v>
       </c>
       <c r="B605" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C605" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D605" s="3"/>
       <c r="E605" s="6">
-        <v>522660</v>
+        <v>522640</v>
       </c>
       <c r="F605" s="4"/>
       <c r="G605" s="4"/>
@@ -26231,13 +26239,15 @@
         <v>548</v>
       </c>
       <c r="B606" t="s" s="2">
-        <v>521</v>
+        <v>543</v>
       </c>
       <c r="C606" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D606" s="3"/>
-      <c r="E606" s="3"/>
+      <c r="E606" s="6">
+        <v>522660</v>
+      </c>
       <c r="F606" s="4"/>
       <c r="G606" s="4"/>
       <c r="H606" s="4"/>
@@ -26265,15 +26275,13 @@
         <v>549</v>
       </c>
       <c r="B607" t="s" s="2">
-        <v>548</v>
+        <v>522</v>
       </c>
       <c r="C607" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D607" s="3"/>
-      <c r="E607" s="6">
-        <v>522650</v>
-      </c>
+      <c r="E607" s="3"/>
       <c r="F607" s="4"/>
       <c r="G607" s="4"/>
       <c r="H607" s="4"/>
@@ -26301,7 +26309,7 @@
         <v>550</v>
       </c>
       <c r="B608" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C608" t="s" s="2">
         <v>7</v>
@@ -26337,7 +26345,7 @@
         <v>551</v>
       </c>
       <c r="B609" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C609" t="s" s="2">
         <v>7</v>
@@ -26373,7 +26381,7 @@
         <v>552</v>
       </c>
       <c r="B610" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C610" t="s" s="2">
         <v>7</v>
@@ -26409,13 +26417,15 @@
         <v>553</v>
       </c>
       <c r="B611" t="s" s="2">
-        <v>521</v>
+        <v>549</v>
       </c>
       <c r="C611" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D611" s="3"/>
-      <c r="E611" s="3"/>
+      <c r="E611" s="6">
+        <v>522650</v>
+      </c>
       <c r="F611" s="4"/>
       <c r="G611" s="4"/>
       <c r="H611" s="4"/>
@@ -26443,15 +26453,13 @@
         <v>554</v>
       </c>
       <c r="B612" t="s" s="2">
-        <v>553</v>
+        <v>522</v>
       </c>
       <c r="C612" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D612" s="3"/>
-      <c r="E612" s="6">
-        <v>522850</v>
-      </c>
+      <c r="E612" s="3"/>
       <c r="F612" s="4"/>
       <c r="G612" s="4"/>
       <c r="H612" s="4"/>
@@ -26479,7 +26487,7 @@
         <v>555</v>
       </c>
       <c r="B613" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C613" t="s" s="2">
         <v>7</v>
@@ -26515,7 +26523,7 @@
         <v>556</v>
       </c>
       <c r="B614" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C614" t="s" s="2">
         <v>7</v>
@@ -26551,7 +26559,7 @@
         <v>557</v>
       </c>
       <c r="B615" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C615" t="s" s="2">
         <v>7</v>
@@ -26587,7 +26595,7 @@
         <v>558</v>
       </c>
       <c r="B616" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C616" t="s" s="2">
         <v>7</v>
@@ -26623,7 +26631,7 @@
         <v>559</v>
       </c>
       <c r="B617" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C617" t="s" s="2">
         <v>7</v>
@@ -26659,7 +26667,7 @@
         <v>560</v>
       </c>
       <c r="B618" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C618" t="s" s="2">
         <v>7</v>
@@ -26695,14 +26703,14 @@
         <v>561</v>
       </c>
       <c r="B619" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C619" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D619" s="3"/>
       <c r="E619" s="6">
-        <v>522870</v>
+        <v>522850</v>
       </c>
       <c r="F619" s="4"/>
       <c r="G619" s="4"/>
@@ -26731,14 +26739,14 @@
         <v>562</v>
       </c>
       <c r="B620" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C620" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D620" s="3"/>
       <c r="E620" s="6">
-        <v>522820</v>
+        <v>522870</v>
       </c>
       <c r="F620" s="4"/>
       <c r="G620" s="4"/>
@@ -26767,14 +26775,14 @@
         <v>563</v>
       </c>
       <c r="B621" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C621" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D621" s="3"/>
       <c r="E621" s="6">
-        <v>522850</v>
+        <v>522820</v>
       </c>
       <c r="F621" s="4"/>
       <c r="G621" s="4"/>
@@ -26803,14 +26811,14 @@
         <v>564</v>
       </c>
       <c r="B622" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C622" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D622" s="3"/>
       <c r="E622" s="6">
-        <v>522730</v>
+        <v>522850</v>
       </c>
       <c r="F622" s="4"/>
       <c r="G622" s="4"/>
@@ -26839,14 +26847,14 @@
         <v>565</v>
       </c>
       <c r="B623" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C623" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D623" s="3"/>
       <c r="E623" s="6">
-        <v>523700</v>
+        <v>522730</v>
       </c>
       <c r="F623" s="4"/>
       <c r="G623" s="4"/>
@@ -26875,7 +26883,7 @@
         <v>566</v>
       </c>
       <c r="B624" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C624" t="s" s="2">
         <v>7</v>
@@ -26911,14 +26919,14 @@
         <v>567</v>
       </c>
       <c r="B625" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C625" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D625" s="3"/>
       <c r="E625" s="6">
-        <v>522850</v>
+        <v>523700</v>
       </c>
       <c r="F625" s="4"/>
       <c r="G625" s="4"/>
@@ -26943,17 +26951,17 @@
       <c r="Z625" s="4"/>
     </row>
     <row r="626" ht="19.5" customHeight="1">
-      <c r="A626" t="s" s="8">
+      <c r="A626" t="s" s="2">
         <v>568</v>
       </c>
-      <c r="B626" t="s" s="8">
-        <v>553</v>
-      </c>
-      <c r="C626" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="D626" s="9"/>
-      <c r="E626" s="10">
+      <c r="B626" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="C626" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="D626" s="3"/>
+      <c r="E626" s="6">
         <v>522850</v>
       </c>
       <c r="F626" s="4"/>
@@ -26979,17 +26987,17 @@
       <c r="Z626" s="4"/>
     </row>
     <row r="627" ht="19.5" customHeight="1">
-      <c r="A627" t="s" s="2">
+      <c r="A627" t="s" s="8">
         <v>569</v>
       </c>
-      <c r="B627" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="C627" t="s" s="2">
-        <v>7</v>
-      </c>
-      <c r="D627" s="3"/>
-      <c r="E627" s="6">
+      <c r="B627" t="s" s="8">
+        <v>554</v>
+      </c>
+      <c r="C627" t="s" s="8">
+        <v>7</v>
+      </c>
+      <c r="D627" s="9"/>
+      <c r="E627" s="10">
         <v>522850</v>
       </c>
       <c r="F627" s="4"/>
@@ -27019,13 +27027,15 @@
         <v>570</v>
       </c>
       <c r="B628" t="s" s="2">
-        <v>521</v>
+        <v>554</v>
       </c>
       <c r="C628" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D628" s="3"/>
-      <c r="E628" s="3"/>
+      <c r="E628" s="6">
+        <v>522850</v>
+      </c>
       <c r="F628" s="4"/>
       <c r="G628" s="4"/>
       <c r="H628" s="4"/>
@@ -27053,15 +27063,13 @@
         <v>571</v>
       </c>
       <c r="B629" t="s" s="2">
-        <v>570</v>
+        <v>522</v>
       </c>
       <c r="C629" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D629" s="3"/>
-      <c r="E629" s="6">
-        <v>522840</v>
-      </c>
+      <c r="E629" s="3"/>
       <c r="F629" s="4"/>
       <c r="G629" s="4"/>
       <c r="H629" s="4"/>
@@ -27089,7 +27097,7 @@
         <v>572</v>
       </c>
       <c r="B630" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C630" t="s" s="2">
         <v>7</v>
@@ -27125,7 +27133,7 @@
         <v>573</v>
       </c>
       <c r="B631" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C631" t="s" s="2">
         <v>7</v>
@@ -27161,14 +27169,14 @@
         <v>574</v>
       </c>
       <c r="B632" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C632" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D632" s="3"/>
       <c r="E632" s="6">
-        <v>522880</v>
+        <v>522840</v>
       </c>
       <c r="F632" s="4"/>
       <c r="G632" s="4"/>
@@ -27197,7 +27205,7 @@
         <v>575</v>
       </c>
       <c r="B633" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C633" t="s" s="2">
         <v>7</v>
@@ -27233,7 +27241,7 @@
         <v>576</v>
       </c>
       <c r="B634" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C634" t="s" s="2">
         <v>7</v>
@@ -27269,7 +27277,7 @@
         <v>577</v>
       </c>
       <c r="B635" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C635" t="s" s="2">
         <v>7</v>
@@ -27305,7 +27313,7 @@
         <v>578</v>
       </c>
       <c r="B636" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C636" t="s" s="2">
         <v>7</v>
@@ -27337,11 +27345,11 @@
       <c r="Z636" s="4"/>
     </row>
     <row r="637" ht="19.5" customHeight="1">
-      <c r="A637" t="s" s="7">
+      <c r="A637" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="B637" t="s" s="7">
-        <v>570</v>
+      <c r="B637" t="s" s="2">
+        <v>571</v>
       </c>
       <c r="C637" t="s" s="2">
         <v>7</v>
@@ -27377,7 +27385,7 @@
         <v>580</v>
       </c>
       <c r="B638" t="s" s="7">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C638" t="s" s="2">
         <v>7</v>
@@ -27409,17 +27417,17 @@
       <c r="Z638" s="4"/>
     </row>
     <row r="639" ht="19.5" customHeight="1">
-      <c r="A639" t="s" s="8">
-        <v>569</v>
-      </c>
-      <c r="B639" t="s" s="8">
-        <v>570</v>
-      </c>
-      <c r="C639" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="D639" s="9"/>
-      <c r="E639" s="10">
+      <c r="A639" t="s" s="7">
+        <v>581</v>
+      </c>
+      <c r="B639" t="s" s="7">
+        <v>571</v>
+      </c>
+      <c r="C639" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="D639" s="3"/>
+      <c r="E639" s="6">
         <v>522880</v>
       </c>
       <c r="F639" s="4"/>
@@ -27446,10 +27454,10 @@
     </row>
     <row r="640" ht="19.5" customHeight="1">
       <c r="A640" t="s" s="8">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="B640" t="s" s="8">
-        <v>521</v>
+        <v>571</v>
       </c>
       <c r="C640" t="s" s="8">
         <v>7</v>
@@ -27482,10 +27490,10 @@
     </row>
     <row r="641" ht="19.5" customHeight="1">
       <c r="A641" t="s" s="8">
-        <v>569</v>
+        <v>582</v>
       </c>
       <c r="B641" t="s" s="8">
-        <v>581</v>
+        <v>522</v>
       </c>
       <c r="C641" t="s" s="8">
         <v>7</v>
@@ -27517,17 +27525,19 @@
       <c r="Z641" s="4"/>
     </row>
     <row r="642" ht="19.5" customHeight="1">
-      <c r="A642" t="s" s="2">
+      <c r="A642" t="s" s="8">
+        <v>570</v>
+      </c>
+      <c r="B642" t="s" s="8">
         <v>582</v>
       </c>
-      <c r="B642" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="C642" t="s" s="2">
-        <v>7</v>
-      </c>
-      <c r="D642" s="3"/>
-      <c r="E642" s="3"/>
+      <c r="C642" t="s" s="8">
+        <v>7</v>
+      </c>
+      <c r="D642" s="9"/>
+      <c r="E642" s="10">
+        <v>522880</v>
+      </c>
       <c r="F642" s="4"/>
       <c r="G642" s="4"/>
       <c r="H642" s="4"/>
@@ -27550,20 +27560,18 @@
       <c r="Y642" s="4"/>
       <c r="Z642" s="4"/>
     </row>
-    <row r="643" ht="18" customHeight="1">
+    <row r="643" ht="19.5" customHeight="1">
       <c r="A643" t="s" s="2">
         <v>583</v>
       </c>
       <c r="B643" t="s" s="2">
-        <v>582</v>
+        <v>522</v>
       </c>
       <c r="C643" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D643" s="3"/>
-      <c r="E643" s="6">
-        <v>522930</v>
-      </c>
+      <c r="E643" s="3"/>
       <c r="F643" s="4"/>
       <c r="G643" s="4"/>
       <c r="H643" s="4"/>
@@ -27586,18 +27594,20 @@
       <c r="Y643" s="4"/>
       <c r="Z643" s="4"/>
     </row>
-    <row r="644" ht="19.5" customHeight="1">
+    <row r="644" ht="18" customHeight="1">
       <c r="A644" t="s" s="2">
         <v>584</v>
       </c>
       <c r="B644" t="s" s="2">
-        <v>482</v>
+        <v>583</v>
       </c>
       <c r="C644" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D644" s="3"/>
-      <c r="E644" s="3"/>
+      <c r="E644" s="6">
+        <v>522930</v>
+      </c>
       <c r="F644" s="4"/>
       <c r="G644" s="4"/>
       <c r="H644" s="4"/>
@@ -27625,7 +27635,7 @@
         <v>585</v>
       </c>
       <c r="B645" t="s" s="2">
-        <v>584</v>
+        <v>483</v>
       </c>
       <c r="C645" t="s" s="2">
         <v>7</v>
@@ -27665,9 +27675,7 @@
         <v>7</v>
       </c>
       <c r="D646" s="3"/>
-      <c r="E646" s="6">
-        <v>522200</v>
-      </c>
+      <c r="E646" s="3"/>
       <c r="F646" s="4"/>
       <c r="G646" s="4"/>
       <c r="H646" s="4"/>
@@ -27695,7 +27703,7 @@
         <v>587</v>
       </c>
       <c r="B647" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C647" t="s" s="2">
         <v>7</v>
@@ -27731,7 +27739,7 @@
         <v>588</v>
       </c>
       <c r="B648" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C648" t="s" s="2">
         <v>7</v>
@@ -27767,7 +27775,7 @@
         <v>589</v>
       </c>
       <c r="B649" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C649" t="s" s="2">
         <v>7</v>
@@ -27803,7 +27811,7 @@
         <v>590</v>
       </c>
       <c r="B650" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C650" t="s" s="2">
         <v>7</v>
@@ -27839,7 +27847,7 @@
         <v>591</v>
       </c>
       <c r="B651" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C651" t="s" s="2">
         <v>7</v>
@@ -27875,7 +27883,7 @@
         <v>592</v>
       </c>
       <c r="B652" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C652" t="s" s="2">
         <v>7</v>
@@ -27911,13 +27919,15 @@
         <v>593</v>
       </c>
       <c r="B653" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C653" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D653" s="3"/>
-      <c r="E653" s="3"/>
+      <c r="E653" s="6">
+        <v>522200</v>
+      </c>
       <c r="F653" s="4"/>
       <c r="G653" s="4"/>
       <c r="H653" s="4"/>
@@ -27945,15 +27955,13 @@
         <v>594</v>
       </c>
       <c r="B654" t="s" s="2">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="C654" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D654" s="3"/>
-      <c r="E654" s="6">
-        <v>522300</v>
-      </c>
+      <c r="E654" s="3"/>
       <c r="F654" s="4"/>
       <c r="G654" s="4"/>
       <c r="H654" s="4"/>
@@ -27981,7 +27989,7 @@
         <v>595</v>
       </c>
       <c r="B655" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C655" t="s" s="2">
         <v>7</v>
@@ -28017,7 +28025,7 @@
         <v>596</v>
       </c>
       <c r="B656" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C656" t="s" s="2">
         <v>7</v>
@@ -28053,7 +28061,7 @@
         <v>597</v>
       </c>
       <c r="B657" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C657" t="s" s="2">
         <v>7</v>
@@ -28089,7 +28097,7 @@
         <v>598</v>
       </c>
       <c r="B658" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C658" t="s" s="2">
         <v>7</v>
@@ -28125,7 +28133,7 @@
         <v>599</v>
       </c>
       <c r="B659" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C659" t="s" s="2">
         <v>7</v>
@@ -28161,7 +28169,7 @@
         <v>600</v>
       </c>
       <c r="B660" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C660" t="s" s="2">
         <v>7</v>
@@ -28197,7 +28205,7 @@
         <v>601</v>
       </c>
       <c r="B661" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C661" t="s" s="2">
         <v>7</v>
@@ -28233,7 +28241,7 @@
         <v>602</v>
       </c>
       <c r="B662" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C662" t="s" s="2">
         <v>7</v>
@@ -28269,13 +28277,15 @@
         <v>603</v>
       </c>
       <c r="B663" t="s" s="2">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="C663" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D663" s="3"/>
-      <c r="E663" s="3"/>
+      <c r="E663" s="6">
+        <v>522300</v>
+      </c>
       <c r="F663" s="4"/>
       <c r="G663" s="4"/>
       <c r="H663" s="4"/>
@@ -28303,15 +28313,13 @@
         <v>604</v>
       </c>
       <c r="B664" t="s" s="2">
-        <v>603</v>
+        <v>585</v>
       </c>
       <c r="C664" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D664" s="3"/>
-      <c r="E664" s="6">
-        <v>522410</v>
-      </c>
+      <c r="E664" s="3"/>
       <c r="F664" s="4"/>
       <c r="G664" s="4"/>
       <c r="H664" s="4"/>
@@ -28339,13 +28347,15 @@
         <v>605</v>
       </c>
       <c r="B665" t="s" s="2">
-        <v>584</v>
+        <v>604</v>
       </c>
       <c r="C665" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D665" s="3"/>
-      <c r="E665" s="3"/>
+      <c r="E665" s="6">
+        <v>522410</v>
+      </c>
       <c r="F665" s="4"/>
       <c r="G665" s="4"/>
       <c r="H665" s="4"/>
@@ -28373,15 +28383,13 @@
         <v>606</v>
       </c>
       <c r="B666" t="s" s="2">
-        <v>605</v>
+        <v>585</v>
       </c>
       <c r="C666" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D666" s="3"/>
-      <c r="E666" s="6">
-        <v>522730</v>
-      </c>
+      <c r="E666" s="3"/>
       <c r="F666" s="4"/>
       <c r="G666" s="4"/>
       <c r="H666" s="4"/>
@@ -28409,13 +28417,15 @@
         <v>607</v>
       </c>
       <c r="B667" t="s" s="2">
-        <v>482</v>
+        <v>606</v>
       </c>
       <c r="C667" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D667" s="3"/>
-      <c r="E667" s="3"/>
+      <c r="E667" s="6">
+        <v>522730</v>
+      </c>
       <c r="F667" s="4"/>
       <c r="G667" s="4"/>
       <c r="H667" s="4"/>
@@ -28443,7 +28453,7 @@
         <v>608</v>
       </c>
       <c r="B668" t="s" s="2">
-        <v>607</v>
+        <v>483</v>
       </c>
       <c r="C668" t="s" s="2">
         <v>7</v>
@@ -28483,9 +28493,7 @@
         <v>7</v>
       </c>
       <c r="D669" s="3"/>
-      <c r="E669" s="6">
-        <v>532102</v>
-      </c>
+      <c r="E669" s="3"/>
       <c r="F669" s="4"/>
       <c r="G669" s="4"/>
       <c r="H669" s="4"/>
@@ -28513,7 +28521,7 @@
         <v>610</v>
       </c>
       <c r="B670" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C670" t="s" s="2">
         <v>7</v>
@@ -28549,7 +28557,7 @@
         <v>611</v>
       </c>
       <c r="B671" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C671" t="s" s="2">
         <v>7</v>
@@ -28585,7 +28593,7 @@
         <v>612</v>
       </c>
       <c r="B672" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C672" t="s" s="2">
         <v>7</v>
@@ -28617,17 +28625,17 @@
       <c r="Z672" s="4"/>
     </row>
     <row r="673" ht="19.5" customHeight="1">
-      <c r="A673" t="s" s="8">
+      <c r="A673" t="s" s="2">
         <v>613</v>
       </c>
-      <c r="B673" t="s" s="8">
-        <v>608</v>
-      </c>
-      <c r="C673" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="D673" s="9"/>
-      <c r="E673" s="10">
+      <c r="B673" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="C673" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="D673" s="3"/>
+      <c r="E673" s="6">
         <v>532102</v>
       </c>
       <c r="F673" s="4"/>
@@ -28653,17 +28661,19 @@
       <c r="Z673" s="4"/>
     </row>
     <row r="674" ht="19.5" customHeight="1">
-      <c r="A674" t="s" s="2">
+      <c r="A674" t="s" s="8">
         <v>614</v>
       </c>
-      <c r="B674" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="C674" t="s" s="2">
-        <v>7</v>
-      </c>
-      <c r="D674" s="3"/>
-      <c r="E674" s="3"/>
+      <c r="B674" t="s" s="8">
+        <v>609</v>
+      </c>
+      <c r="C674" t="s" s="8">
+        <v>7</v>
+      </c>
+      <c r="D674" s="9"/>
+      <c r="E674" s="10">
+        <v>532102</v>
+      </c>
       <c r="F674" s="4"/>
       <c r="G674" s="4"/>
       <c r="H674" s="4"/>
@@ -28691,15 +28701,13 @@
         <v>615</v>
       </c>
       <c r="B675" t="s" s="2">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="C675" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D675" s="3"/>
-      <c r="E675" s="6">
-        <v>533104</v>
-      </c>
+      <c r="E675" s="3"/>
       <c r="F675" s="4"/>
       <c r="G675" s="4"/>
       <c r="H675" s="4"/>
@@ -28727,14 +28735,14 @@
         <v>616</v>
       </c>
       <c r="B676" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C676" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D676" s="3"/>
       <c r="E676" s="6">
-        <v>533105</v>
+        <v>533104</v>
       </c>
       <c r="F676" s="4"/>
       <c r="G676" s="4"/>
@@ -28763,14 +28771,14 @@
         <v>617</v>
       </c>
       <c r="B677" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C677" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D677" s="3"/>
       <c r="E677" s="6">
-        <v>533707</v>
+        <v>533105</v>
       </c>
       <c r="F677" s="4"/>
       <c r="G677" s="4"/>
@@ -28799,13 +28807,15 @@
         <v>618</v>
       </c>
       <c r="B678" t="s" s="2">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="C678" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D678" s="3"/>
-      <c r="E678" s="3"/>
+      <c r="E678" s="6">
+        <v>533707</v>
+      </c>
       <c r="F678" s="4"/>
       <c r="G678" s="4"/>
       <c r="H678" s="4"/>
@@ -28833,15 +28843,13 @@
         <v>619</v>
       </c>
       <c r="B679" t="s" s="2">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="C679" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D679" s="3"/>
-      <c r="E679" s="6">
-        <v>533106</v>
-      </c>
+      <c r="E679" s="3"/>
       <c r="F679" s="4"/>
       <c r="G679" s="4"/>
       <c r="H679" s="4"/>
@@ -28869,7 +28877,7 @@
         <v>620</v>
       </c>
       <c r="B680" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C680" t="s" s="2">
         <v>7</v>
@@ -28905,7 +28913,7 @@
         <v>621</v>
       </c>
       <c r="B681" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C681" t="s" s="2">
         <v>7</v>
@@ -28941,7 +28949,7 @@
         <v>622</v>
       </c>
       <c r="B682" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C682" t="s" s="2">
         <v>7</v>
@@ -28977,13 +28985,15 @@
         <v>623</v>
       </c>
       <c r="B683" t="s" s="2">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="C683" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D683" s="3"/>
-      <c r="E683" s="3"/>
+      <c r="E683" s="6">
+        <v>533106</v>
+      </c>
       <c r="F683" s="4"/>
       <c r="G683" s="4"/>
       <c r="H683" s="4"/>
@@ -29011,15 +29021,13 @@
         <v>624</v>
       </c>
       <c r="B684" t="s" s="2">
-        <v>623</v>
+        <v>608</v>
       </c>
       <c r="C684" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D684" s="3"/>
-      <c r="E684" s="6">
-        <v>533201</v>
-      </c>
+      <c r="E684" s="3"/>
       <c r="F684" s="4"/>
       <c r="G684" s="4"/>
       <c r="H684" s="4"/>
@@ -29047,14 +29055,14 @@
         <v>625</v>
       </c>
       <c r="B685" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C685" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D685" s="3"/>
       <c r="E685" s="6">
-        <v>533202</v>
+        <v>533201</v>
       </c>
       <c r="F685" s="4"/>
       <c r="G685" s="4"/>
@@ -29083,14 +29091,14 @@
         <v>626</v>
       </c>
       <c r="B686" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C686" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D686" s="3"/>
       <c r="E686" s="6">
-        <v>533204</v>
+        <v>533202</v>
       </c>
       <c r="F686" s="4"/>
       <c r="G686" s="4"/>
@@ -29115,18 +29123,18 @@
       <c r="Z686" s="4"/>
     </row>
     <row r="687" ht="19.5" customHeight="1">
-      <c r="A687" t="s" s="8">
+      <c r="A687" t="s" s="2">
         <v>627</v>
       </c>
-      <c r="B687" t="s" s="8">
-        <v>623</v>
-      </c>
-      <c r="C687" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="D687" s="9"/>
-      <c r="E687" s="10">
-        <v>611005</v>
+      <c r="B687" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="C687" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="D687" s="3"/>
+      <c r="E687" s="6">
+        <v>533204</v>
       </c>
       <c r="F687" s="4"/>
       <c r="G687" s="4"/>
@@ -29151,17 +29159,19 @@
       <c r="Z687" s="4"/>
     </row>
     <row r="688" ht="19.5" customHeight="1">
-      <c r="A688" t="s" s="2">
+      <c r="A688" t="s" s="8">
         <v>628</v>
       </c>
-      <c r="B688" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="C688" t="s" s="2">
-        <v>7</v>
-      </c>
-      <c r="D688" s="3"/>
-      <c r="E688" s="3"/>
+      <c r="B688" t="s" s="8">
+        <v>624</v>
+      </c>
+      <c r="C688" t="s" s="8">
+        <v>7</v>
+      </c>
+      <c r="D688" s="9"/>
+      <c r="E688" s="10">
+        <v>611005</v>
+      </c>
       <c r="F688" s="4"/>
       <c r="G688" s="4"/>
       <c r="H688" s="4"/>
@@ -29186,18 +29196,16 @@
     </row>
     <row r="689" ht="19.5" customHeight="1">
       <c r="A689" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B689" t="s" s="2">
-        <v>628</v>
+        <v>608</v>
       </c>
       <c r="C689" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D689" s="3"/>
-      <c r="E689" s="6">
-        <v>533203</v>
-      </c>
+      <c r="E689" s="3"/>
       <c r="F689" s="4"/>
       <c r="G689" s="4"/>
       <c r="H689" s="4"/>
@@ -29225,13 +29233,15 @@
         <v>629</v>
       </c>
       <c r="B690" t="s" s="2">
-        <v>607</v>
+        <v>629</v>
       </c>
       <c r="C690" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D690" s="3"/>
-      <c r="E690" s="3"/>
+      <c r="E690" s="6">
+        <v>533203</v>
+      </c>
       <c r="F690" s="4"/>
       <c r="G690" s="4"/>
       <c r="H690" s="4"/>
@@ -29259,15 +29269,11 @@
         <v>630</v>
       </c>
       <c r="B691" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="C691" t="s" s="2">
-        <v>7</v>
-      </c>
+        <v>608</v>
+      </c>
+      <c r="C691" s="2"/>
       <c r="D691" s="3"/>
-      <c r="E691" s="6">
-        <v>533701</v>
-      </c>
+      <c r="E691" s="3"/>
       <c r="F691" s="4"/>
       <c r="G691" s="4"/>
       <c r="H691" s="4"/>
@@ -29295,15 +29301,13 @@
         <v>631</v>
       </c>
       <c r="B692" t="s" s="2">
-        <v>629</v>
+        <v>608</v>
       </c>
       <c r="C692" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D692" s="3"/>
-      <c r="E692" s="6">
-        <v>533703</v>
-      </c>
+      <c r="E692" s="3"/>
       <c r="F692" s="4"/>
       <c r="G692" s="4"/>
       <c r="H692" s="4"/>
@@ -29331,14 +29335,14 @@
         <v>632</v>
       </c>
       <c r="B693" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C693" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D693" s="3"/>
       <c r="E693" s="6">
-        <v>533704</v>
+        <v>533701</v>
       </c>
       <c r="F693" s="4"/>
       <c r="G693" s="4"/>
@@ -29367,14 +29371,14 @@
         <v>633</v>
       </c>
       <c r="B694" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C694" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D694" s="3"/>
       <c r="E694" s="6">
-        <v>533706</v>
+        <v>533703</v>
       </c>
       <c r="F694" s="4"/>
       <c r="G694" s="4"/>
@@ -29403,14 +29407,14 @@
         <v>634</v>
       </c>
       <c r="B695" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C695" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D695" s="3"/>
       <c r="E695" s="6">
-        <v>533708</v>
+        <v>533704</v>
       </c>
       <c r="F695" s="4"/>
       <c r="G695" s="4"/>
@@ -29439,14 +29443,14 @@
         <v>635</v>
       </c>
       <c r="B696" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C696" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D696" s="3"/>
       <c r="E696" s="6">
-        <v>533709</v>
+        <v>533706</v>
       </c>
       <c r="F696" s="4"/>
       <c r="G696" s="4"/>
@@ -29475,14 +29479,14 @@
         <v>636</v>
       </c>
       <c r="B697" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C697" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D697" s="3"/>
       <c r="E697" s="6">
-        <v>533709</v>
+        <v>533708</v>
       </c>
       <c r="F697" s="4"/>
       <c r="G697" s="4"/>
@@ -29511,14 +29515,14 @@
         <v>637</v>
       </c>
       <c r="B698" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C698" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D698" s="3"/>
       <c r="E698" s="6">
-        <v>533735</v>
+        <v>533709</v>
       </c>
       <c r="F698" s="4"/>
       <c r="G698" s="4"/>
@@ -29543,18 +29547,18 @@
       <c r="Z698" s="4"/>
     </row>
     <row r="699" ht="19.5" customHeight="1">
-      <c r="A699" t="s" s="8">
+      <c r="A699" t="s" s="2">
         <v>638</v>
       </c>
-      <c r="B699" t="s" s="8">
-        <v>629</v>
-      </c>
-      <c r="C699" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="D699" s="9"/>
-      <c r="E699" s="10">
-        <v>533735</v>
+      <c r="B699" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="C699" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="D699" s="3"/>
+      <c r="E699" s="6">
+        <v>533709</v>
       </c>
       <c r="F699" s="4"/>
       <c r="G699" s="4"/>
@@ -29579,17 +29583,17 @@
       <c r="Z699" s="4"/>
     </row>
     <row r="700" ht="19.5" customHeight="1">
-      <c r="A700" t="s" s="8">
+      <c r="A700" t="s" s="2">
         <v>639</v>
       </c>
-      <c r="B700" t="s" s="8">
-        <v>629</v>
-      </c>
-      <c r="C700" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="D700" s="9"/>
-      <c r="E700" s="10">
+      <c r="B700" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="C700" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="D700" s="3"/>
+      <c r="E700" s="6">
         <v>533735</v>
       </c>
       <c r="F700" s="4"/>
@@ -29619,7 +29623,7 @@
         <v>640</v>
       </c>
       <c r="B701" t="s" s="8">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C701" t="s" s="8">
         <v>7</v>
@@ -29655,7 +29659,7 @@
         <v>641</v>
       </c>
       <c r="B702" t="s" s="8">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C702" t="s" s="8">
         <v>7</v>
@@ -29691,7 +29695,7 @@
         <v>642</v>
       </c>
       <c r="B703" t="s" s="8">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C703" t="s" s="8">
         <v>7</v>
@@ -29723,17 +29727,17 @@
       <c r="Z703" s="4"/>
     </row>
     <row r="704" ht="19.5" customHeight="1">
-      <c r="A704" t="s" s="2">
+      <c r="A704" t="s" s="8">
         <v>643</v>
       </c>
-      <c r="B704" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="C704" t="s" s="2">
-        <v>7</v>
-      </c>
-      <c r="D704" s="3"/>
-      <c r="E704" s="6">
+      <c r="B704" t="s" s="8">
+        <v>631</v>
+      </c>
+      <c r="C704" t="s" s="8">
+        <v>7</v>
+      </c>
+      <c r="D704" s="9"/>
+      <c r="E704" s="10">
         <v>533735</v>
       </c>
       <c r="F704" s="4"/>
@@ -29759,18 +29763,18 @@
       <c r="Z704" s="4"/>
     </row>
     <row r="705" ht="19.5" customHeight="1">
-      <c r="A705" t="s" s="2">
+      <c r="A705" t="s" s="8">
         <v>644</v>
       </c>
-      <c r="B705" t="s" s="2">
-        <v>643</v>
-      </c>
-      <c r="C705" t="s" s="2">
-        <v>7</v>
-      </c>
-      <c r="D705" s="3"/>
-      <c r="E705" s="6">
-        <v>533710</v>
+      <c r="B705" t="s" s="8">
+        <v>631</v>
+      </c>
+      <c r="C705" t="s" s="8">
+        <v>7</v>
+      </c>
+      <c r="D705" s="9"/>
+      <c r="E705" s="10">
+        <v>533735</v>
       </c>
       <c r="F705" s="4"/>
       <c r="G705" s="4"/>
@@ -29799,14 +29803,14 @@
         <v>645</v>
       </c>
       <c r="B706" t="s" s="2">
-        <v>643</v>
+        <v>608</v>
       </c>
       <c r="C706" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D706" s="3"/>
       <c r="E706" s="6">
-        <v>533710</v>
+        <v>533735</v>
       </c>
       <c r="F706" s="4"/>
       <c r="G706" s="4"/>
@@ -29835,7 +29839,7 @@
         <v>646</v>
       </c>
       <c r="B707" t="s" s="2">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="C707" t="s" s="2">
         <v>7</v>
@@ -29871,7 +29875,7 @@
         <v>647</v>
       </c>
       <c r="B708" t="s" s="2">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="C708" t="s" s="2">
         <v>7</v>
@@ -29907,7 +29911,7 @@
         <v>648</v>
       </c>
       <c r="B709" t="s" s="2">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="C709" t="s" s="2">
         <v>7</v>
@@ -29943,7 +29947,7 @@
         <v>649</v>
       </c>
       <c r="B710" t="s" s="2">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="C710" t="s" s="2">
         <v>7</v>
@@ -29979,7 +29983,7 @@
         <v>650</v>
       </c>
       <c r="B711" t="s" s="2">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="C711" t="s" s="2">
         <v>7</v>
@@ -30015,14 +30019,14 @@
         <v>651</v>
       </c>
       <c r="B712" t="s" s="2">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="C712" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D712" s="3"/>
       <c r="E712" s="6">
-        <v>533717</v>
+        <v>533710</v>
       </c>
       <c r="F712" s="4"/>
       <c r="G712" s="4"/>
@@ -30051,13 +30055,15 @@
         <v>652</v>
       </c>
       <c r="B713" t="s" s="2">
-        <v>607</v>
+        <v>645</v>
       </c>
       <c r="C713" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D713" s="3"/>
-      <c r="E713" s="3"/>
+      <c r="E713" s="6">
+        <v>533710</v>
+      </c>
       <c r="F713" s="4"/>
       <c r="G713" s="4"/>
       <c r="H713" s="4"/>
@@ -30085,14 +30091,14 @@
         <v>653</v>
       </c>
       <c r="B714" t="s" s="2">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="C714" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D714" s="3"/>
       <c r="E714" s="6">
-        <v>519400</v>
+        <v>533717</v>
       </c>
       <c r="F714" s="4"/>
       <c r="G714" s="4"/>
@@ -30121,15 +30127,13 @@
         <v>654</v>
       </c>
       <c r="B715" t="s" s="2">
-        <v>652</v>
+        <v>608</v>
       </c>
       <c r="C715" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D715" s="3"/>
-      <c r="E715" s="6">
-        <v>533714</v>
-      </c>
+      <c r="E715" s="3"/>
       <c r="F715" s="4"/>
       <c r="G715" s="4"/>
       <c r="H715" s="4"/>
@@ -30157,14 +30161,14 @@
         <v>655</v>
       </c>
       <c r="B716" t="s" s="2">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="C716" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D716" s="3"/>
       <c r="E716" s="6">
-        <v>533714</v>
+        <v>519400</v>
       </c>
       <c r="F716" s="4"/>
       <c r="G716" s="4"/>
@@ -30193,13 +30197,15 @@
         <v>656</v>
       </c>
       <c r="B717" t="s" s="2">
-        <v>607</v>
+        <v>654</v>
       </c>
       <c r="C717" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D717" s="3"/>
-      <c r="E717" s="3"/>
+      <c r="E717" s="6">
+        <v>533714</v>
+      </c>
       <c r="F717" s="4"/>
       <c r="G717" s="4"/>
       <c r="H717" s="4"/>
@@ -30227,14 +30233,14 @@
         <v>657</v>
       </c>
       <c r="B718" t="s" s="2">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C718" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D718" s="3"/>
       <c r="E718" s="6">
-        <v>533734</v>
+        <v>533714</v>
       </c>
       <c r="F718" s="4"/>
       <c r="G718" s="4"/>
@@ -30263,15 +30269,13 @@
         <v>658</v>
       </c>
       <c r="B719" t="s" s="2">
-        <v>656</v>
+        <v>608</v>
       </c>
       <c r="C719" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D719" s="3"/>
-      <c r="E719" s="6">
-        <v>533734</v>
-      </c>
+      <c r="E719" s="3"/>
       <c r="F719" s="4"/>
       <c r="G719" s="4"/>
       <c r="H719" s="4"/>
@@ -30299,7 +30303,7 @@
         <v>659</v>
       </c>
       <c r="B720" t="s" s="2">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="C720" t="s" s="2">
         <v>7</v>
@@ -30335,13 +30339,15 @@
         <v>660</v>
       </c>
       <c r="B721" t="s" s="2">
-        <v>6</v>
+        <v>658</v>
       </c>
       <c r="C721" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D721" s="3"/>
-      <c r="E721" s="3"/>
+      <c r="E721" s="6">
+        <v>533734</v>
+      </c>
       <c r="F721" s="4"/>
       <c r="G721" s="4"/>
       <c r="H721" s="4"/>
@@ -30369,13 +30375,15 @@
         <v>661</v>
       </c>
       <c r="B722" t="s" s="2">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C722" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D722" s="3"/>
-      <c r="E722" s="3"/>
+      <c r="E722" s="6">
+        <v>533734</v>
+      </c>
       <c r="F722" s="4"/>
       <c r="G722" s="4"/>
       <c r="H722" s="4"/>
@@ -30403,7 +30411,7 @@
         <v>662</v>
       </c>
       <c r="B723" t="s" s="2">
-        <v>661</v>
+        <v>6</v>
       </c>
       <c r="C723" t="s" s="2">
         <v>7</v>
@@ -30442,9 +30450,7 @@
       <c r="C724" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="D724" s="6">
-        <v>421000</v>
-      </c>
+      <c r="D724" s="3"/>
       <c r="E724" s="3"/>
       <c r="F724" s="4"/>
       <c r="G724" s="4"/>
@@ -30473,14 +30479,12 @@
         <v>664</v>
       </c>
       <c r="B725" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C725" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="D725" s="6">
-        <v>421000</v>
-      </c>
+      <c r="D725" s="3"/>
       <c r="E725" s="3"/>
       <c r="F725" s="4"/>
       <c r="G725" s="4"/>
@@ -30509,7 +30513,7 @@
         <v>665</v>
       </c>
       <c r="B726" t="s" s="2">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="C726" t="s" s="2">
         <v>7</v>
@@ -30545,7 +30549,7 @@
         <v>666</v>
       </c>
       <c r="B727" t="s" s="2">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="C727" t="s" s="2">
         <v>7</v>
@@ -30581,12 +30585,14 @@
         <v>667</v>
       </c>
       <c r="B728" t="s" s="2">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="C728" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="D728" s="3"/>
+      <c r="D728" s="6">
+        <v>421000</v>
+      </c>
       <c r="E728" s="3"/>
       <c r="F728" s="4"/>
       <c r="G728" s="4"/>
@@ -30612,10 +30618,10 @@
     </row>
     <row r="729" ht="19.5" customHeight="1">
       <c r="A729" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B729" t="s" s="2">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="C729" t="s" s="2">
         <v>7</v>
@@ -30648,10 +30654,10 @@
     </row>
     <row r="730" ht="19.5" customHeight="1">
       <c r="A730" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B730" t="s" s="2">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="C730" t="s" s="2">
         <v>7</v>
@@ -30682,10 +30688,10 @@
     </row>
     <row r="731" ht="19.5" customHeight="1">
       <c r="A731" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B731" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C731" t="s" s="2">
         <v>7</v>
@@ -30718,10 +30724,10 @@
     </row>
     <row r="732" ht="19.5" customHeight="1">
       <c r="A732" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B732" t="s" s="2">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="C732" t="s" s="2">
         <v>7</v>
@@ -30752,10 +30758,10 @@
     </row>
     <row r="733" ht="19.5" customHeight="1">
       <c r="A733" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B733" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C733" t="s" s="2">
         <v>7</v>
@@ -30788,10 +30794,10 @@
     </row>
     <row r="734" ht="19.5" customHeight="1">
       <c r="A734" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B734" t="s" s="2">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="C734" t="s" s="2">
         <v>7</v>
@@ -30822,16 +30828,16 @@
     </row>
     <row r="735" ht="19.5" customHeight="1">
       <c r="A735" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B735" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C735" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D735" s="6">
-        <v>422000</v>
+        <v>421000</v>
       </c>
       <c r="E735" s="3"/>
       <c r="F735" s="4"/>
@@ -30858,10 +30864,10 @@
     </row>
     <row r="736" ht="19.5" customHeight="1">
       <c r="A736" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B736" t="s" s="2">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="C736" t="s" s="2">
         <v>7</v>
@@ -30892,16 +30898,16 @@
     </row>
     <row r="737" ht="19.5" customHeight="1">
       <c r="A737" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B737" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C737" t="s" s="2">
         <v>7</v>
       </c>
       <c r="D737" s="6">
-        <v>421000</v>
+        <v>422000</v>
       </c>
       <c r="E737" s="3"/>
       <c r="F737" s="4"/>
@@ -30928,12 +30934,14 @@
     </row>
     <row r="738" ht="19.5" customHeight="1">
       <c r="A738" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B738" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="C738" s="3"/>
+        <v>663</v>
+      </c>
+      <c r="C738" t="s" s="2">
+        <v>7</v>
+      </c>
       <c r="D738" s="3"/>
       <c r="E738" s="3"/>
       <c r="F738" s="4"/>
@@ -30963,10 +30971,14 @@
         <v>673</v>
       </c>
       <c r="B739" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="C739" s="3"/>
-      <c r="D739" s="3"/>
+        <v>673</v>
+      </c>
+      <c r="C739" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="D739" s="6">
+        <v>421000</v>
+      </c>
       <c r="E739" s="3"/>
       <c r="F739" s="4"/>
       <c r="G739" s="4"/>
@@ -30995,7 +31007,7 @@
         <v>674</v>
       </c>
       <c r="B740" t="s" s="2">
-        <v>673</v>
+        <v>6</v>
       </c>
       <c r="C740" s="3"/>
       <c r="D740" s="3"/>
@@ -31031,9 +31043,7 @@
       </c>
       <c r="C741" s="3"/>
       <c r="D741" s="3"/>
-      <c r="E741" s="6">
-        <v>122101</v>
-      </c>
+      <c r="E741" s="3"/>
       <c r="F741" s="4"/>
       <c r="G741" s="4"/>
       <c r="H741" s="4"/>
@@ -31061,13 +31071,11 @@
         <v>676</v>
       </c>
       <c r="B742" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C742" s="3"/>
       <c r="D742" s="3"/>
-      <c r="E742" s="6">
-        <v>122102</v>
-      </c>
+      <c r="E742" s="3"/>
       <c r="F742" s="4"/>
       <c r="G742" s="4"/>
       <c r="H742" s="4"/>
@@ -31095,12 +31103,12 @@
         <v>677</v>
       </c>
       <c r="B743" t="s" s="2">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="C743" s="3"/>
       <c r="D743" s="3"/>
       <c r="E743" s="6">
-        <v>122103</v>
+        <v>122101</v>
       </c>
       <c r="F743" s="4"/>
       <c r="G743" s="4"/>
@@ -31129,11 +31137,13 @@
         <v>678</v>
       </c>
       <c r="B744" t="s" s="2">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="C744" s="3"/>
       <c r="D744" s="3"/>
-      <c r="E744" s="3"/>
+      <c r="E744" s="6">
+        <v>122102</v>
+      </c>
       <c r="F744" s="4"/>
       <c r="G744" s="4"/>
       <c r="H744" s="4"/>
@@ -31161,12 +31171,12 @@
         <v>679</v>
       </c>
       <c r="B745" t="s" s="2">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C745" s="3"/>
       <c r="D745" s="3"/>
       <c r="E745" s="6">
-        <v>122105</v>
+        <v>122103</v>
       </c>
       <c r="F745" s="4"/>
       <c r="G745" s="4"/>
@@ -31195,13 +31205,11 @@
         <v>680</v>
       </c>
       <c r="B746" t="s" s="2">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="C746" s="3"/>
       <c r="D746" s="3"/>
-      <c r="E746" s="6">
-        <v>122106</v>
-      </c>
+      <c r="E746" s="3"/>
       <c r="F746" s="4"/>
       <c r="G746" s="4"/>
       <c r="H746" s="4"/>
@@ -31229,11 +31237,13 @@
         <v>681</v>
       </c>
       <c r="B747" t="s" s="2">
-        <v>673</v>
+        <v>680</v>
       </c>
       <c r="C747" s="3"/>
       <c r="D747" s="3"/>
-      <c r="E747" s="3"/>
+      <c r="E747" s="6">
+        <v>122105</v>
+      </c>
       <c r="F747" s="4"/>
       <c r="G747" s="4"/>
       <c r="H747" s="4"/>
@@ -31261,12 +31271,12 @@
         <v>682</v>
       </c>
       <c r="B748" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C748" s="3"/>
       <c r="D748" s="3"/>
       <c r="E748" s="6">
-        <v>122107</v>
+        <v>122106</v>
       </c>
       <c r="F748" s="4"/>
       <c r="G748" s="4"/>
@@ -31295,13 +31305,11 @@
         <v>683</v>
       </c>
       <c r="B749" t="s" s="2">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="C749" s="3"/>
       <c r="D749" s="3"/>
-      <c r="E749" s="6">
-        <v>122108</v>
-      </c>
+      <c r="E749" s="3"/>
       <c r="F749" s="4"/>
       <c r="G749" s="4"/>
       <c r="H749" s="4"/>
@@ -31329,11 +31337,13 @@
         <v>684</v>
       </c>
       <c r="B750" t="s" s="2">
-        <v>673</v>
+        <v>683</v>
       </c>
       <c r="C750" s="3"/>
       <c r="D750" s="3"/>
-      <c r="E750" s="3"/>
+      <c r="E750" s="6">
+        <v>122107</v>
+      </c>
       <c r="F750" s="4"/>
       <c r="G750" s="4"/>
       <c r="H750" s="4"/>
@@ -31361,12 +31371,12 @@
         <v>685</v>
       </c>
       <c r="B751" t="s" s="2">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C751" s="3"/>
       <c r="D751" s="3"/>
       <c r="E751" s="6">
-        <v>122109</v>
+        <v>122108</v>
       </c>
       <c r="F751" s="4"/>
       <c r="G751" s="4"/>
@@ -31395,13 +31405,11 @@
         <v>686</v>
       </c>
       <c r="B752" t="s" s="2">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="C752" s="3"/>
       <c r="D752" s="3"/>
-      <c r="E752" s="6">
-        <v>122109</v>
-      </c>
+      <c r="E752" s="3"/>
       <c r="F752" s="4"/>
       <c r="G752" s="4"/>
       <c r="H752" s="4"/>
@@ -31429,7 +31437,7 @@
         <v>687</v>
       </c>
       <c r="B753" t="s" s="2">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="C753" s="3"/>
       <c r="D753" s="3"/>
@@ -31463,7 +31471,7 @@
         <v>688</v>
       </c>
       <c r="B754" t="s" s="2">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="C754" s="3"/>
       <c r="D754" s="3"/>
@@ -31497,11 +31505,13 @@
         <v>689</v>
       </c>
       <c r="B755" t="s" s="2">
-        <v>673</v>
+        <v>686</v>
       </c>
       <c r="C755" s="3"/>
       <c r="D755" s="3"/>
-      <c r="E755" s="3"/>
+      <c r="E755" s="6">
+        <v>122109</v>
+      </c>
       <c r="F755" s="4"/>
       <c r="G755" s="4"/>
       <c r="H755" s="4"/>
@@ -31529,12 +31539,12 @@
         <v>690</v>
       </c>
       <c r="B756" t="s" s="2">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="C756" s="3"/>
       <c r="D756" s="3"/>
       <c r="E756" s="6">
-        <v>122116</v>
+        <v>122109</v>
       </c>
       <c r="F756" s="4"/>
       <c r="G756" s="4"/>
@@ -31563,13 +31573,11 @@
         <v>691</v>
       </c>
       <c r="B757" t="s" s="2">
-        <v>689</v>
+        <v>675</v>
       </c>
       <c r="C757" s="3"/>
       <c r="D757" s="3"/>
-      <c r="E757" s="6">
-        <v>122116</v>
-      </c>
+      <c r="E757" s="3"/>
       <c r="F757" s="4"/>
       <c r="G757" s="4"/>
       <c r="H757" s="4"/>
@@ -31597,7 +31605,7 @@
         <v>692</v>
       </c>
       <c r="B758" t="s" s="2">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="C758" s="3"/>
       <c r="D758" s="3"/>
@@ -31631,7 +31639,7 @@
         <v>693</v>
       </c>
       <c r="B759" t="s" s="2">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="C759" s="3"/>
       <c r="D759" s="3"/>
@@ -31665,7 +31673,7 @@
         <v>694</v>
       </c>
       <c r="B760" t="s" s="2">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="C760" s="3"/>
       <c r="D760" s="3"/>
@@ -31699,7 +31707,7 @@
         <v>695</v>
       </c>
       <c r="B761" t="s" s="2">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="C761" s="3"/>
       <c r="D761" s="3"/>
@@ -31733,7 +31741,7 @@
         <v>696</v>
       </c>
       <c r="B762" t="s" s="2">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="C762" s="3"/>
       <c r="D762" s="3"/>
@@ -31767,7 +31775,7 @@
         <v>697</v>
       </c>
       <c r="B763" t="s" s="2">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="C763" s="3"/>
       <c r="D763" s="3"/>
@@ -31801,7 +31809,7 @@
         <v>698</v>
       </c>
       <c r="B764" t="s" s="2">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="C764" s="3"/>
       <c r="D764" s="3"/>
@@ -31835,7 +31843,7 @@
         <v>699</v>
       </c>
       <c r="B765" t="s" s="2">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="C765" s="3"/>
       <c r="D765" s="3"/>
@@ -31869,7 +31877,7 @@
         <v>700</v>
       </c>
       <c r="B766" t="s" s="2">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="C766" s="3"/>
       <c r="D766" s="3"/>
@@ -31903,7 +31911,7 @@
         <v>701</v>
       </c>
       <c r="B767" t="s" s="2">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="C767" s="3"/>
       <c r="D767" s="3"/>
@@ -31937,11 +31945,13 @@
         <v>702</v>
       </c>
       <c r="B768" t="s" s="2">
-        <v>673</v>
+        <v>691</v>
       </c>
       <c r="C768" s="3"/>
       <c r="D768" s="3"/>
-      <c r="E768" s="3"/>
+      <c r="E768" s="6">
+        <v>122116</v>
+      </c>
       <c r="F768" s="4"/>
       <c r="G768" s="4"/>
       <c r="H768" s="4"/>
@@ -31969,12 +31979,12 @@
         <v>703</v>
       </c>
       <c r="B769" t="s" s="2">
-        <v>702</v>
+        <v>691</v>
       </c>
       <c r="C769" s="3"/>
       <c r="D769" s="3"/>
       <c r="E769" s="6">
-        <v>122110</v>
+        <v>122116</v>
       </c>
       <c r="F769" s="4"/>
       <c r="G769" s="4"/>
@@ -32003,13 +32013,11 @@
         <v>704</v>
       </c>
       <c r="B770" t="s" s="2">
-        <v>702</v>
+        <v>675</v>
       </c>
       <c r="C770" s="3"/>
       <c r="D770" s="3"/>
-      <c r="E770" s="6">
-        <v>122110</v>
-      </c>
+      <c r="E770" s="3"/>
       <c r="F770" s="4"/>
       <c r="G770" s="4"/>
       <c r="H770" s="4"/>
@@ -32037,12 +32045,12 @@
         <v>705</v>
       </c>
       <c r="B771" t="s" s="2">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="C771" s="3"/>
       <c r="D771" s="3"/>
       <c r="E771" s="6">
-        <v>122111</v>
+        <v>122110</v>
       </c>
       <c r="F771" s="4"/>
       <c r="G771" s="4"/>
@@ -32071,7 +32079,7 @@
         <v>706</v>
       </c>
       <c r="B772" t="s" s="2">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="C772" s="3"/>
       <c r="D772" s="3"/>
@@ -32105,11 +32113,13 @@
         <v>707</v>
       </c>
       <c r="B773" t="s" s="2">
-        <v>673</v>
+        <v>704</v>
       </c>
       <c r="C773" s="3"/>
       <c r="D773" s="3"/>
-      <c r="E773" s="3"/>
+      <c r="E773" s="6">
+        <v>122111</v>
+      </c>
       <c r="F773" s="4"/>
       <c r="G773" s="4"/>
       <c r="H773" s="4"/>
@@ -32134,15 +32144,15 @@
     </row>
     <row r="774" ht="19.5" customHeight="1">
       <c r="A774" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B774" t="s" s="2">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="C774" s="3"/>
       <c r="D774" s="3"/>
       <c r="E774" s="6">
-        <v>122114</v>
+        <v>122110</v>
       </c>
       <c r="F774" s="4"/>
       <c r="G774" s="4"/>
@@ -32168,16 +32178,14 @@
     </row>
     <row r="775" ht="19.5" customHeight="1">
       <c r="A775" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B775" t="s" s="2">
-        <v>707</v>
+        <v>675</v>
       </c>
       <c r="C775" s="3"/>
       <c r="D775" s="3"/>
-      <c r="E775" s="6">
-        <v>122115</v>
-      </c>
+      <c r="E775" s="3"/>
       <c r="F775" s="4"/>
       <c r="G775" s="4"/>
       <c r="H775" s="4"/>
@@ -32205,11 +32213,13 @@
         <v>709</v>
       </c>
       <c r="B776" t="s" s="2">
-        <v>673</v>
+        <v>709</v>
       </c>
       <c r="C776" s="3"/>
       <c r="D776" s="3"/>
-      <c r="E776" s="3"/>
+      <c r="E776" s="6">
+        <v>122114</v>
+      </c>
       <c r="F776" s="4"/>
       <c r="G776" s="4"/>
       <c r="H776" s="4"/>
@@ -32242,7 +32252,7 @@
       <c r="C777" s="3"/>
       <c r="D777" s="3"/>
       <c r="E777" s="6">
-        <v>122117</v>
+        <v>122115</v>
       </c>
       <c r="F777" s="4"/>
       <c r="G777" s="4"/>
@@ -32271,13 +32281,11 @@
         <v>711</v>
       </c>
       <c r="B778" t="s" s="2">
-        <v>709</v>
+        <v>675</v>
       </c>
       <c r="C778" s="3"/>
       <c r="D778" s="3"/>
-      <c r="E778" s="6">
-        <v>122117</v>
-      </c>
+      <c r="E778" s="3"/>
       <c r="F778" s="4"/>
       <c r="G778" s="4"/>
       <c r="H778" s="4"/>
@@ -32305,7 +32313,7 @@
         <v>712</v>
       </c>
       <c r="B779" t="s" s="2">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="C779" s="3"/>
       <c r="D779" s="3"/>
@@ -32339,7 +32347,7 @@
         <v>713</v>
       </c>
       <c r="B780" t="s" s="2">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="C780" s="3"/>
       <c r="D780" s="3"/>
@@ -32373,7 +32381,7 @@
         <v>714</v>
       </c>
       <c r="B781" t="s" s="2">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="C781" s="3"/>
       <c r="D781" s="3"/>
@@ -32407,7 +32415,7 @@
         <v>715</v>
       </c>
       <c r="B782" t="s" s="2">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="C782" s="3"/>
       <c r="D782" s="3"/>
@@ -32441,7 +32449,7 @@
         <v>716</v>
       </c>
       <c r="B783" t="s" s="2">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="C783" s="3"/>
       <c r="D783" s="3"/>
@@ -32475,7 +32483,7 @@
         <v>717</v>
       </c>
       <c r="B784" t="s" s="2">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="C784" s="3"/>
       <c r="D784" s="3"/>
@@ -32509,7 +32517,7 @@
         <v>718</v>
       </c>
       <c r="B785" t="s" s="2">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="C785" s="3"/>
       <c r="D785" s="3"/>
@@ -32543,7 +32551,7 @@
         <v>719</v>
       </c>
       <c r="B786" t="s" s="2">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="C786" s="3"/>
       <c r="D786" s="3"/>
@@ -32577,7 +32585,7 @@
         <v>720</v>
       </c>
       <c r="B787" t="s" s="2">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="C787" s="3"/>
       <c r="D787" s="3"/>
@@ -32611,7 +32619,7 @@
         <v>721</v>
       </c>
       <c r="B788" t="s" s="2">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="C788" s="3"/>
       <c r="D788" s="3"/>
@@ -32645,7 +32653,7 @@
         <v>722</v>
       </c>
       <c r="B789" t="s" s="2">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="C789" s="3"/>
       <c r="D789" s="3"/>
@@ -32679,7 +32687,7 @@
         <v>723</v>
       </c>
       <c r="B790" t="s" s="2">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="C790" s="3"/>
       <c r="D790" s="3"/>
@@ -32713,7 +32721,7 @@
         <v>724</v>
       </c>
       <c r="B791" t="s" s="2">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="C791" s="3"/>
       <c r="D791" s="3"/>
@@ -32743,15 +32751,15 @@
       <c r="Z791" s="4"/>
     </row>
     <row r="792" ht="19.5" customHeight="1">
-      <c r="A792" t="s" s="8">
+      <c r="A792" t="s" s="2">
         <v>725</v>
       </c>
-      <c r="B792" t="s" s="8">
-        <v>709</v>
-      </c>
-      <c r="C792" s="9"/>
-      <c r="D792" s="9"/>
-      <c r="E792" s="10">
+      <c r="B792" t="s" s="2">
+        <v>711</v>
+      </c>
+      <c r="C792" s="3"/>
+      <c r="D792" s="3"/>
+      <c r="E792" s="6">
         <v>122117</v>
       </c>
       <c r="F792" s="4"/>
@@ -32781,11 +32789,13 @@
         <v>726</v>
       </c>
       <c r="B793" t="s" s="2">
-        <v>673</v>
+        <v>711</v>
       </c>
       <c r="C793" s="3"/>
       <c r="D793" s="3"/>
-      <c r="E793" s="3"/>
+      <c r="E793" s="6">
+        <v>122117</v>
+      </c>
       <c r="F793" s="4"/>
       <c r="G793" s="4"/>
       <c r="H793" s="4"/>
@@ -32809,16 +32819,16 @@
       <c r="Z793" s="4"/>
     </row>
     <row r="794" ht="19.5" customHeight="1">
-      <c r="A794" t="s" s="2">
+      <c r="A794" t="s" s="8">
         <v>727</v>
       </c>
-      <c r="B794" t="s" s="2">
-        <v>726</v>
-      </c>
-      <c r="C794" s="3"/>
-      <c r="D794" s="3"/>
-      <c r="E794" s="6">
-        <v>123108</v>
+      <c r="B794" t="s" s="8">
+        <v>711</v>
+      </c>
+      <c r="C794" s="9"/>
+      <c r="D794" s="9"/>
+      <c r="E794" s="10">
+        <v>122117</v>
       </c>
       <c r="F794" s="4"/>
       <c r="G794" s="4"/>
@@ -32847,13 +32857,11 @@
         <v>728</v>
       </c>
       <c r="B795" t="s" s="2">
-        <v>726</v>
+        <v>675</v>
       </c>
       <c r="C795" s="3"/>
       <c r="D795" s="3"/>
-      <c r="E795" s="6">
-        <v>123108</v>
-      </c>
+      <c r="E795" s="3"/>
       <c r="F795" s="4"/>
       <c r="G795" s="4"/>
       <c r="H795" s="4"/>
@@ -32881,11 +32889,13 @@
         <v>729</v>
       </c>
       <c r="B796" t="s" s="2">
-        <v>673</v>
+        <v>728</v>
       </c>
       <c r="C796" s="3"/>
       <c r="D796" s="3"/>
-      <c r="E796" s="3"/>
+      <c r="E796" s="6">
+        <v>123108</v>
+      </c>
       <c r="F796" s="4"/>
       <c r="G796" s="4"/>
       <c r="H796" s="4"/>
@@ -32913,12 +32923,12 @@
         <v>730</v>
       </c>
       <c r="B797" t="s" s="2">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C797" s="3"/>
       <c r="D797" s="3"/>
       <c r="E797" s="6">
-        <v>122119</v>
+        <v>123108</v>
       </c>
       <c r="F797" s="4"/>
       <c r="G797" s="4"/>
@@ -32944,16 +32954,14 @@
     </row>
     <row r="798" ht="19.5" customHeight="1">
       <c r="A798" t="s" s="2">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="B798" t="s" s="2">
-        <v>729</v>
+        <v>675</v>
       </c>
       <c r="C798" s="3"/>
       <c r="D798" s="3"/>
-      <c r="E798" s="6">
-        <v>123108</v>
-      </c>
+      <c r="E798" s="3"/>
       <c r="F798" s="4"/>
       <c r="G798" s="4"/>
       <c r="H798" s="4"/>
@@ -32977,11 +32985,17 @@
       <c r="Z798" s="4"/>
     </row>
     <row r="799" ht="19.5" customHeight="1">
-      <c r="A799" s="4"/>
-      <c r="B799" s="4"/>
-      <c r="C799" s="4"/>
-      <c r="D799" s="4"/>
-      <c r="E799" s="4"/>
+      <c r="A799" t="s" s="2">
+        <v>732</v>
+      </c>
+      <c r="B799" t="s" s="2">
+        <v>731</v>
+      </c>
+      <c r="C799" s="3"/>
+      <c r="D799" s="3"/>
+      <c r="E799" s="6">
+        <v>122119</v>
+      </c>
       <c r="F799" s="4"/>
       <c r="G799" s="4"/>
       <c r="H799" s="4"/>
@@ -33005,11 +33019,17 @@
       <c r="Z799" s="4"/>
     </row>
     <row r="800" ht="19.5" customHeight="1">
-      <c r="A800" s="4"/>
-      <c r="B800" s="4"/>
-      <c r="C800" s="4"/>
-      <c r="D800" s="4"/>
-      <c r="E800" s="4"/>
+      <c r="A800" t="s" s="2">
+        <v>731</v>
+      </c>
+      <c r="B800" t="s" s="2">
+        <v>731</v>
+      </c>
+      <c r="C800" s="3"/>
+      <c r="D800" s="3"/>
+      <c r="E800" s="6">
+        <v>123108</v>
+      </c>
       <c r="F800" s="4"/>
       <c r="G800" s="4"/>
       <c r="H800" s="4"/>
@@ -39332,6 +39352,62 @@
       <c r="Y1025" s="4"/>
       <c r="Z1025" s="4"/>
     </row>
+    <row r="1026" ht="19.5" customHeight="1">
+      <c r="A1026" s="4"/>
+      <c r="B1026" s="4"/>
+      <c r="C1026" s="4"/>
+      <c r="D1026" s="4"/>
+      <c r="E1026" s="4"/>
+      <c r="F1026" s="4"/>
+      <c r="G1026" s="4"/>
+      <c r="H1026" s="4"/>
+      <c r="I1026" s="4"/>
+      <c r="J1026" s="4"/>
+      <c r="K1026" s="4"/>
+      <c r="L1026" s="4"/>
+      <c r="M1026" s="4"/>
+      <c r="N1026" s="4"/>
+      <c r="O1026" s="4"/>
+      <c r="P1026" s="4"/>
+      <c r="Q1026" s="4"/>
+      <c r="R1026" s="4"/>
+      <c r="S1026" s="4"/>
+      <c r="T1026" s="4"/>
+      <c r="U1026" s="4"/>
+      <c r="V1026" s="4"/>
+      <c r="W1026" s="4"/>
+      <c r="X1026" s="4"/>
+      <c r="Y1026" s="4"/>
+      <c r="Z1026" s="4"/>
+    </row>
+    <row r="1027" ht="19.5" customHeight="1">
+      <c r="A1027" s="4"/>
+      <c r="B1027" s="4"/>
+      <c r="C1027" s="4"/>
+      <c r="D1027" s="4"/>
+      <c r="E1027" s="4"/>
+      <c r="F1027" s="4"/>
+      <c r="G1027" s="4"/>
+      <c r="H1027" s="4"/>
+      <c r="I1027" s="4"/>
+      <c r="J1027" s="4"/>
+      <c r="K1027" s="4"/>
+      <c r="L1027" s="4"/>
+      <c r="M1027" s="4"/>
+      <c r="N1027" s="4"/>
+      <c r="O1027" s="4"/>
+      <c r="P1027" s="4"/>
+      <c r="Q1027" s="4"/>
+      <c r="R1027" s="4"/>
+      <c r="S1027" s="4"/>
+      <c r="T1027" s="4"/>
+      <c r="U1027" s="4"/>
+      <c r="V1027" s="4"/>
+      <c r="W1027" s="4"/>
+      <c r="X1027" s="4"/>
+      <c r="Y1027" s="4"/>
+      <c r="Z1027" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
